--- a/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{556F206C-0090-49B4-B62C-63B4BD3797A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
@@ -926,10 +927,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>result79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>result{90,93}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1726,10 +1723,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>time79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>time97</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1979,12 +1972,20 @@
   <si>
     <t>0:华为 1:英可瑞 2:麦格米特</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2520,14 +2521,128 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2535,30 +2650,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,12 +2727,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2583,166 +2737,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -3114,11 +3115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3149,27 +3150,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="106" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="139"/>
-      <c r="F3" s="142" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="136" t="s">
+      <c r="G3" s="103"/>
+      <c r="H3" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="136"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3184,50 +3185,50 @@
       <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="139"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="104"/>
+      <c r="F5" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="136" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="136"/>
-      <c r="F5" s="68" t="s">
+      <c r="G5" s="68"/>
+      <c r="H5" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="K5" s="107"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="106"/>
+      <c r="C6" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="F6" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="137" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="133"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="139"/>
-      <c r="C6" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="137"/>
-      <c r="F6" s="69" t="s">
-        <v>140</v>
-      </c>
       <c r="G6" s="69"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="134"/>
-      <c r="K6" s="134"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
@@ -3243,48 +3244,48 @@
       <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="139" t="s">
+      <c r="A8" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="139"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="72"/>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136" t="s">
+      <c r="E8" s="111"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="136"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="102"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="136" t="s">
+      <c r="E9" s="104"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="136"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="135"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="102" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="141"/>
+      <c r="B10" s="102"/>
       <c r="C10" s="24"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3309,19 +3310,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="102" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="42" t="s">
         <v>2</v>
       </c>
@@ -3330,531 +3331,531 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="97" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
       <c r="J13" s="59" t="s">
         <v>97</v>
       </c>
       <c r="K13" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L13" s="127"/>
+        <v>288</v>
+      </c>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="148"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
       <c r="J14" s="59" t="s">
         <v>97</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="127"/>
+        <v>288</v>
+      </c>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="148"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="109"/>
       <c r="J15" s="59" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L15" s="127"/>
+        <v>288</v>
+      </c>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="148"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="138" t="s">
+      <c r="D16" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
       <c r="J16" s="59" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L16" s="127"/>
+        <v>288</v>
+      </c>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="148"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
       <c r="J17" s="59" t="s">
         <v>97</v>
       </c>
       <c r="K17" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="L17" s="127"/>
+        <v>288</v>
+      </c>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>165</v>
+      <c r="A18" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>164</v>
       </c>
       <c r="C18" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="106" t="s">
-        <v>175</v>
-      </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K18" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="91"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
+      <c r="D19" s="115" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="60" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K19" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L19" s="38"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="106" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
+      <c r="D20" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="60" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K20" s="46" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="112" t="s">
-        <v>157</v>
-      </c>
-      <c r="D21" s="111" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="115" t="s">
+      <c r="E21" s="99"/>
+      <c r="F21" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="60" t="s">
         <v>99</v>
       </c>
       <c r="K21" s="46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="111" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="115" t="s">
+      <c r="A22" s="91"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="60" t="s">
         <v>100</v>
       </c>
       <c r="K22" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="91"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99" t="s">
+        <v>171</v>
+      </c>
+      <c r="E23" s="99"/>
+      <c r="F23" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="K23" s="46" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="111" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>292</v>
-      </c>
       <c r="L23" s="38"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="D24" s="111" t="s">
+      <c r="A24" s="91"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="111"/>
-      <c r="F24" s="115" t="s">
+      <c r="E24" s="99"/>
+      <c r="F24" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="60" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="111"/>
-      <c r="F25" s="115" t="s">
+      <c r="A25" s="91"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="99"/>
+      <c r="F25" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="60" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="L25" s="38"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="91"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="99"/>
+      <c r="F26" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91"/>
+      <c r="B27" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="E27" s="99"/>
+      <c r="F27" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="L25" s="38"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="E26" s="111"/>
-      <c r="F26" s="115" t="s">
-        <v>243</v>
-      </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="111" t="s">
+    </row>
+    <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="91"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="E27" s="111"/>
-      <c r="F27" s="115" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="60" t="s">
+      <c r="E28" s="99"/>
+      <c r="F28" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K28" s="46" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="111" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" s="111"/>
-      <c r="F28" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="K28" s="46" t="s">
-        <v>296</v>
-      </c>
-    </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="111" t="s">
+      <c r="A29" s="91"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="111"/>
-      <c r="F29" s="115" t="s">
+      <c r="E29" s="99"/>
+      <c r="F29" s="100" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="60" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="111" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="115" t="s">
+      <c r="E30" s="99"/>
+      <c r="F30" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="60" t="s">
         <v>117</v>
       </c>
       <c r="K30" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="99"/>
+      <c r="F31" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="46" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="111" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="60" t="s">
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="91"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="99"/>
+      <c r="F32" s="100" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="K32" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="111" t="s">
+      <c r="L32" s="29"/>
+    </row>
+    <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="91"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="99"/>
+      <c r="F33" s="100" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="91"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="99"/>
+      <c r="F34" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="K32" s="46" t="s">
-        <v>300</v>
-      </c>
-      <c r="L32" s="29"/>
-    </row>
-    <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="111" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="115" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="K33" s="46" t="s">
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="138" t="s">
+        <v>159</v>
+      </c>
+      <c r="K34" s="129" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="D34" s="111" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="115" t="s">
+    <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="91"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="99"/>
+      <c r="F35" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="101" t="s">
-        <v>160</v>
-      </c>
-      <c r="K34" s="84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="111" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="111"/>
-      <c r="F35" s="115" t="s">
-        <v>145</v>
-      </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="85"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="131"/>
     </row>
     <row r="36" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="124" t="s">
-        <v>387</v>
+      <c r="A36" s="91"/>
+      <c r="B36" s="81" t="s">
+        <v>385</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F36" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="G36" s="61" t="s">
         <v>279</v>
-      </c>
-      <c r="F36" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="61" t="s">
-        <v>280</v>
       </c>
       <c r="H36" s="54"/>
       <c r="I36" s="61"/>
@@ -3863,54 +3864,54 @@
       <c r="L36" s="39"/>
     </row>
     <row r="37" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="124"/>
+      <c r="A37" s="91"/>
+      <c r="B37" s="81"/>
       <c r="C37" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="F37" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="G37" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="H37" s="54" t="s">
+        <v>274</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" s="54" t="s">
+        <v>275</v>
+      </c>
+      <c r="K37" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="L37" s="39"/>
+    </row>
+    <row r="38" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="91"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="G37" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>275</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="J37" s="54" t="s">
-        <v>276</v>
-      </c>
-      <c r="K37" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D38" s="54" t="s">
+      <c r="E38" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="G38" s="61" t="s">
         <v>281</v>
-      </c>
-      <c r="F38" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="61" t="s">
-        <v>282</v>
       </c>
       <c r="H38" s="54"/>
       <c r="I38" s="61"/>
@@ -3919,387 +3920,387 @@
       <c r="L38" s="39"/>
     </row>
     <row r="39" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="91"/>
+      <c r="B39" s="82"/>
       <c r="C39" s="54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="G39" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="F39" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>286</v>
-      </c>
       <c r="H39" s="54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I39" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J39" s="54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K39" s="61" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L39" s="39"/>
     </row>
     <row r="40" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="113" t="s">
-        <v>171</v>
+      <c r="A40" s="91"/>
+      <c r="B40" s="89" t="s">
+        <v>170</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="124" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="62" t="s">
         <v>247</v>
       </c>
-      <c r="E40" s="100"/>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="62" t="s">
-        <v>248</v>
-      </c>
       <c r="K40" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="L40" s="39"/>
+    </row>
+    <row r="41" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="91"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="114"/>
+      <c r="F41" s="114"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="139" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" s="110" t="s">
         <v>303</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="111" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="91" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="88" t="s">
-        <v>349</v>
-      </c>
-      <c r="K41" s="89" t="s">
-        <v>304</v>
-      </c>
       <c r="L41" s="39"/>
     </row>
     <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
       <c r="G42" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="117" t="s">
-        <v>348</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="89"/>
+      <c r="H42" s="132" t="s">
+        <v>346</v>
+      </c>
+      <c r="I42" s="134"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="110"/>
       <c r="L42" s="39"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
-      <c r="B43" s="102" t="s">
+      <c r="A43" s="91"/>
+      <c r="B43" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="112" t="s">
+      <c r="C43" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="111"/>
+      <c r="E43" s="99"/>
       <c r="F43" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" s="99" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="99"/>
+      <c r="I43" s="62" t="s">
         <v>343</v>
       </c>
-      <c r="G43" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="111"/>
-      <c r="I43" s="62" t="s">
-        <v>345</v>
-      </c>
-      <c r="J43" s="101" t="s">
+      <c r="J43" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="K43" s="90" t="s">
-        <v>305</v>
+      <c r="K43" s="128" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="111" t="s">
+      <c r="A44" s="91"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="111"/>
+      <c r="E44" s="99"/>
       <c r="F44" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" s="99" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="99"/>
+      <c r="I44" s="62" t="s">
         <v>344</v>
       </c>
-      <c r="G44" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="111"/>
-      <c r="I44" s="62" t="s">
-        <v>346</v>
-      </c>
-      <c r="J44" s="101"/>
-      <c r="K44" s="90"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="128"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="104"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="112"/>
-      <c r="D45" s="111" t="s">
+      <c r="A45" s="91"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="111"/>
+      <c r="E45" s="99"/>
       <c r="F45" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="111" t="s">
+      <c r="G45" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="111"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="101"/>
-      <c r="K45" s="90"/>
+      <c r="J45" s="138"/>
+      <c r="K45" s="128"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="111" t="s">
+      <c r="A46" s="91"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="111"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
       <c r="I46" s="62"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="90"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="128"/>
     </row>
     <row r="47" spans="1:12" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="104"/>
-      <c r="B47" s="102" t="s">
-        <v>170</v>
+      <c r="A47" s="91"/>
+      <c r="B47" s="88" t="s">
+        <v>169</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
+        <v>152</v>
+      </c>
+      <c r="D47" s="114" t="s">
+        <v>168</v>
+      </c>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
       <c r="J47" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K47" s="49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L47" s="39"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="42" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="122" t="s">
+      <c r="E48" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="123"/>
+      <c r="F48" s="126"/>
       <c r="G48" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="122" t="s">
+      <c r="H48" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="123"/>
+      <c r="I48" s="126"/>
       <c r="J48" s="60" t="s">
         <v>120</v>
       </c>
       <c r="K48" s="46" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102" t="s">
-        <v>167</v>
-      </c>
-      <c r="D49" s="111" t="s">
+      <c r="A49" s="91"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="111"/>
-      <c r="F49" s="122" t="s">
-        <v>250</v>
-      </c>
-      <c r="G49" s="123"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="125" t="s">
+        <v>249</v>
+      </c>
+      <c r="G49" s="126"/>
       <c r="H49" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I49" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="92" t="s">
+      <c r="J49" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="84" t="s">
-        <v>308</v>
+      <c r="K49" s="129" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="111" t="s">
+      <c r="A50" s="91"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="111"/>
-      <c r="F50" s="123" t="s">
-        <v>251</v>
-      </c>
-      <c r="G50" s="123"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="126" t="s">
+        <v>250</v>
+      </c>
+      <c r="G50" s="126"/>
       <c r="H50" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I50" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="116"/>
-      <c r="K50" s="85"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="131"/>
       <c r="L50" s="38"/>
     </row>
     <row r="51" spans="1:12" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
+        <v>153</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="114"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="114"/>
+      <c r="I51" s="114"/>
       <c r="J51" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K51" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="L51" s="39"/>
+    </row>
+    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="91"/>
+      <c r="B52" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="127"/>
+      <c r="F52" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="127"/>
+      <c r="I52" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="K52" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="L51" s="39"/>
-    </row>
-    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="102" t="s">
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="91"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="127"/>
+      <c r="F53" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" s="127" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="127"/>
+      <c r="I53" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="K53" s="46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="91"/>
+      <c r="B54" s="88" t="s">
         <v>182</v>
-      </c>
-      <c r="C52" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D52" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="95"/>
-      <c r="I52" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="J52" s="60" t="s">
-        <v>258</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>310</v>
-      </c>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D53" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="95"/>
-      <c r="F53" s="75" t="s">
-        <v>179</v>
-      </c>
-      <c r="G53" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="95"/>
-      <c r="I53" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>259</v>
-      </c>
-      <c r="K53" s="46" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
-      <c r="B54" s="102" t="s">
-        <v>183</v>
       </c>
       <c r="C54" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="111"/>
+      <c r="E54" s="99"/>
       <c r="F54" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="111" t="s">
+      <c r="G54" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="111"/>
+      <c r="H54" s="99"/>
       <c r="I54" s="63" t="s">
         <v>122</v>
       </c>
@@ -4307,1215 +4308,1215 @@
         <v>123</v>
       </c>
       <c r="K54" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="91"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="128" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="91"/>
-      <c r="F55" s="91"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="146" t="s">
-        <v>124</v>
-      </c>
-      <c r="K55" s="90" t="s">
+    <row r="56" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="128"/>
+    </row>
+    <row r="57" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" s="124" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="84" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="143" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="112"/>
-      <c r="D56" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
-      <c r="G56" s="114"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="114"/>
-      <c r="J56" s="147"/>
-      <c r="K56" s="90"/>
-    </row>
-    <row r="57" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="143" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="100" t="s">
+      <c r="L57" s="39"/>
+    </row>
+    <row r="58" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="81"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="124" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="144" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="86" t="s">
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="39"/>
+    </row>
+    <row r="59" spans="1:12" s="40" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="81"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="137" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" s="124"/>
+      <c r="F59" s="124"/>
+      <c r="G59" s="124"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="124"/>
+      <c r="J59" s="148" t="s">
+        <v>339</v>
+      </c>
+      <c r="K59" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="L57" s="39"/>
-    </row>
-    <row r="58" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="39"/>
-    </row>
-    <row r="59" spans="1:12" s="40" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="124"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="121" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="100" t="s">
+      <c r="L59" s="39"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="81"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="E60" s="95"/>
+      <c r="F60" s="95"/>
+      <c r="G60" s="95"/>
+      <c r="H60" s="95"/>
+      <c r="I60" s="95"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="130"/>
+    </row>
+    <row r="61" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="81"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="99"/>
+      <c r="F61" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="97" t="s">
-        <v>341</v>
-      </c>
-      <c r="K59" s="84" t="s">
-        <v>315</v>
-      </c>
-      <c r="L59" s="39"/>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="124"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
-      <c r="G60" s="114"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="114"/>
-      <c r="J60" s="98"/>
-      <c r="K60" s="126"/>
-    </row>
-    <row r="61" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="124"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="111" t="s">
+      <c r="G61" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="99"/>
+      <c r="I61" s="63" t="s">
+        <v>261</v>
+      </c>
+      <c r="J61" s="149"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="81"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="130"/>
+    </row>
+    <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="81"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="111"/>
-      <c r="F61" s="63" t="s">
+      <c r="E63" s="99"/>
+      <c r="F63" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="G63" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="99"/>
+      <c r="I63" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="G61" s="111" t="s">
+      <c r="J63" s="149"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="81"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="114"/>
+      <c r="I64" s="114"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="130"/>
+    </row>
+    <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="81"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="99"/>
+      <c r="F65" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="G65" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="111"/>
-      <c r="I61" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="J61" s="98"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="124"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="98"/>
-      <c r="K62" s="126"/>
-    </row>
-    <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="124"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="111"/>
-      <c r="F63" s="63" t="s">
+      <c r="H65" s="99"/>
+      <c r="I65" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="G63" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H63" s="111"/>
-      <c r="I63" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="J63" s="98"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="124"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="91"/>
-      <c r="F64" s="91"/>
-      <c r="G64" s="91"/>
-      <c r="H64" s="91"/>
-      <c r="I64" s="91"/>
-      <c r="J64" s="98"/>
-      <c r="K64" s="126"/>
-    </row>
-    <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="124"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="G65" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="111"/>
-      <c r="I65" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="J65" s="98"/>
-      <c r="K65" s="126"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="130"/>
       <c r="L65" s="26"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="124"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="91" t="s">
+      <c r="A66" s="81"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="99"/>
-      <c r="K66" s="85"/>
+      <c r="E66" s="114"/>
+      <c r="F66" s="114"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="114"/>
+      <c r="I66" s="114"/>
+      <c r="J66" s="150"/>
+      <c r="K66" s="131"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="124"/>
-      <c r="B67" s="102"/>
+      <c r="A67" s="81"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="95" t="s">
+      <c r="D67" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="111" t="s">
+      <c r="E67" s="127"/>
+      <c r="F67" s="127"/>
+      <c r="G67" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="111"/>
+      <c r="H67" s="99"/>
       <c r="I67" s="63" t="s">
+        <v>262</v>
+      </c>
+      <c r="J67" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="J67" s="60" t="s">
-        <v>264</v>
-      </c>
       <c r="K67" s="46" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="124"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="119" t="s">
+      <c r="D68" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="120"/>
-      <c r="F68" s="120"/>
-      <c r="G68" s="120"/>
-      <c r="H68" s="120"/>
-      <c r="I68" s="120"/>
+      <c r="E68" s="136"/>
+      <c r="F68" s="136"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="136"/>
+      <c r="I68" s="136"/>
       <c r="J68" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K68" s="46" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="124"/>
-      <c r="B69" s="102"/>
+      <c r="A69" s="81"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="D69" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="110"/>
+        <v>193</v>
+      </c>
+      <c r="D69" s="140" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="141"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="141"/>
+      <c r="H69" s="141"/>
+      <c r="I69" s="142"/>
       <c r="J69" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K69" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L69" s="38"/>
     </row>
     <row r="70" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="124"/>
-      <c r="B70" s="103" t="s">
-        <v>196</v>
+      <c r="A70" s="81"/>
+      <c r="B70" s="90" t="s">
+        <v>195</v>
       </c>
       <c r="C70" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="111" t="s">
+      <c r="D70" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="111"/>
+      <c r="E70" s="99"/>
       <c r="F70" s="63" t="s">
+        <v>265</v>
+      </c>
+      <c r="G70" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="99"/>
+      <c r="I70" s="63" t="s">
         <v>266</v>
       </c>
-      <c r="G70" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" s="111"/>
-      <c r="I70" s="63" t="s">
+      <c r="J70" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="J70" s="60" t="s">
+      <c r="K70" s="46" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="81"/>
+      <c r="B71" s="91"/>
+      <c r="C71" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="D71" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
+      <c r="G71" s="114"/>
+      <c r="H71" s="114"/>
+      <c r="I71" s="114"/>
+      <c r="J71" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71" s="128" t="s">
+        <v>319</v>
+      </c>
+      <c r="L71" s="38"/>
+    </row>
+    <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="81"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="98"/>
+      <c r="D72" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="95"/>
+      <c r="F72" s="95"/>
+      <c r="G72" s="95"/>
+      <c r="H72" s="95"/>
+      <c r="I72" s="95"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="128"/>
+      <c r="L72" s="38"/>
+    </row>
+    <row r="73" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="81"/>
+      <c r="B73" s="91"/>
+      <c r="C73" s="89" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="124"/>
+      <c r="F73" s="124"/>
+      <c r="G73" s="124"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="124"/>
+      <c r="J73" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="K73" s="143" t="s">
+        <v>320</v>
+      </c>
+      <c r="L73" s="39"/>
+    </row>
+    <row r="74" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="81"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="124"/>
+      <c r="F74" s="124"/>
+      <c r="G74" s="124"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="124"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="144"/>
+      <c r="L74" s="39"/>
+    </row>
+    <row r="75" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="81"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="124" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="124"/>
+      <c r="F75" s="124"/>
+      <c r="G75" s="124"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="145" t="s">
+        <v>338</v>
+      </c>
+      <c r="K75" s="129" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="81"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="146"/>
+      <c r="K76" s="130"/>
+    </row>
+    <row r="77" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="81"/>
+      <c r="B77" s="91"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="99"/>
+      <c r="F77" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="K70" s="46" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="124"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="112" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
-      <c r="J71" s="146" t="s">
-        <v>190</v>
-      </c>
-      <c r="K71" s="90" t="s">
-        <v>320</v>
-      </c>
-      <c r="L71" s="38"/>
-    </row>
-    <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="124"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="112"/>
-      <c r="D72" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="E72" s="114"/>
-      <c r="F72" s="114"/>
-      <c r="G72" s="114"/>
-      <c r="H72" s="114"/>
-      <c r="I72" s="114"/>
-      <c r="J72" s="147"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="38"/>
-    </row>
-    <row r="73" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="124"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="113" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="E73" s="100"/>
-      <c r="F73" s="100"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="144" t="s">
-        <v>192</v>
-      </c>
-      <c r="K73" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="L73" s="39"/>
-    </row>
-    <row r="74" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="124"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="E74" s="100"/>
-      <c r="F74" s="100"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="145"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="39"/>
-    </row>
-    <row r="75" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="124"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="100" t="s">
-        <v>260</v>
-      </c>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="92" t="s">
-        <v>340</v>
-      </c>
-      <c r="K75" s="84" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="124"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="112"/>
-      <c r="D76" s="91" t="s">
-        <v>193</v>
-      </c>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="93"/>
-      <c r="K76" s="126"/>
-    </row>
-    <row r="77" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="124"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="111" t="s">
+      <c r="G77" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="99"/>
+      <c r="I77" s="63" t="s">
+        <v>269</v>
+      </c>
+      <c r="J77" s="146"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="81"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="114" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="146"/>
+      <c r="K78" s="130"/>
+    </row>
+    <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="81"/>
+      <c r="B79" s="91"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="111"/>
-      <c r="F77" s="63" t="s">
+      <c r="E79" s="99"/>
+      <c r="F79" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="G79" s="99" t="s">
+        <v>42</v>
+      </c>
+      <c r="H79" s="99"/>
+      <c r="I79" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="G77" s="111" t="s">
+      <c r="J79" s="146"/>
+      <c r="K79" s="130"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="81"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="98"/>
+      <c r="D80" s="114" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="114"/>
+      <c r="F80" s="114"/>
+      <c r="G80" s="114"/>
+      <c r="H80" s="114"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="146"/>
+      <c r="K80" s="130"/>
+    </row>
+    <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="81"/>
+      <c r="B81" s="91"/>
+      <c r="C81" s="98"/>
+      <c r="D81" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="99"/>
+      <c r="F81" s="63" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="111"/>
-      <c r="I77" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="J77" s="93"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="124"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="112"/>
-      <c r="D78" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="91"/>
-      <c r="F78" s="91"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="93"/>
-      <c r="K78" s="126"/>
-    </row>
-    <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="124"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="112"/>
-      <c r="D79" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E79" s="111"/>
-      <c r="F79" s="63" t="s">
+      <c r="H81" s="99"/>
+      <c r="I81" s="63" t="s">
         <v>269</v>
       </c>
-      <c r="G79" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H79" s="111"/>
-      <c r="I79" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="J79" s="93"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="124"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="112"/>
-      <c r="D80" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="91"/>
-      <c r="F80" s="91"/>
-      <c r="G80" s="91"/>
-      <c r="H80" s="91"/>
-      <c r="I80" s="91"/>
-      <c r="J80" s="93"/>
-      <c r="K80" s="126"/>
-    </row>
-    <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="124"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="112"/>
-      <c r="D81" s="111" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="111"/>
-      <c r="F81" s="63" t="s">
-        <v>269</v>
-      </c>
-      <c r="G81" s="111" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="111"/>
-      <c r="I81" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="J81" s="93"/>
-      <c r="K81" s="126"/>
+      <c r="J81" s="146"/>
+      <c r="K81" s="130"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="124"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="112"/>
-      <c r="D82" s="91" t="s">
+      <c r="A82" s="81"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="91"/>
-      <c r="F82" s="91"/>
-      <c r="G82" s="91"/>
-      <c r="H82" s="91"/>
-      <c r="I82" s="91"/>
-      <c r="J82" s="94"/>
-      <c r="K82" s="85"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
+      <c r="G82" s="114"/>
+      <c r="H82" s="114"/>
+      <c r="I82" s="114"/>
+      <c r="J82" s="147"/>
+      <c r="K82" s="131"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="124"/>
-      <c r="B83" s="104"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="91"/>
       <c r="C83" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="95" t="s">
+      <c r="D83" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="E83" s="95"/>
-      <c r="F83" s="95"/>
-      <c r="G83" s="111" t="s">
+      <c r="E83" s="127"/>
+      <c r="F83" s="127"/>
+      <c r="G83" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="111"/>
+      <c r="H83" s="99"/>
       <c r="I83" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="J83" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="J83" s="60" t="s">
-        <v>272</v>
-      </c>
       <c r="K83" s="46" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="124"/>
-      <c r="B84" s="104"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="91"/>
       <c r="C84" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="130" t="s">
+      <c r="D84" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
+      <c r="E84" s="118"/>
+      <c r="F84" s="118"/>
+      <c r="G84" s="118"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
       <c r="J84" s="60" t="s">
-        <v>126</v>
+        <v>391</v>
       </c>
       <c r="K84" s="46" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="124"/>
-      <c r="B85" s="104"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="91"/>
       <c r="C85" s="42" t="s">
-        <v>195</v>
-      </c>
-      <c r="D85" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="81"/>
+        <v>194</v>
+      </c>
+      <c r="D85" s="93" t="s">
+        <v>184</v>
+      </c>
+      <c r="E85" s="96"/>
+      <c r="F85" s="96"/>
+      <c r="G85" s="96"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="94"/>
       <c r="J85" s="60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K85" s="46" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L85" s="38"/>
     </row>
     <row r="86" spans="1:12" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="124"/>
-      <c r="B86" s="104"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="91"/>
       <c r="C86" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="91" t="s">
-        <v>215</v>
-      </c>
-      <c r="E86" s="96"/>
-      <c r="F86" s="96"/>
-      <c r="G86" s="96"/>
+      <c r="D86" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="E86" s="119"/>
+      <c r="F86" s="119"/>
+      <c r="G86" s="119"/>
       <c r="H86" s="51" t="s">
         <v>90</v>
       </c>
       <c r="I86" s="64" t="s">
-        <v>347</v>
-      </c>
-      <c r="J86" s="88" t="s">
-        <v>273</v>
-      </c>
-      <c r="K86" s="89" t="s">
-        <v>326</v>
+        <v>345</v>
+      </c>
+      <c r="J86" s="139" t="s">
+        <v>272</v>
+      </c>
+      <c r="K86" s="110" t="s">
+        <v>324</v>
       </c>
       <c r="L86" s="41"/>
     </row>
     <row r="87" spans="1:12" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="124"/>
-      <c r="B87" s="105"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="92"/>
       <c r="C87" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="91" t="s">
-        <v>204</v>
-      </c>
-      <c r="E87" s="96"/>
-      <c r="F87" s="96"/>
-      <c r="G87" s="96"/>
+      <c r="D87" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="119"/>
+      <c r="F87" s="119"/>
+      <c r="G87" s="119"/>
       <c r="H87" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I87" s="55" t="s">
-        <v>216</v>
-      </c>
-      <c r="J87" s="88"/>
-      <c r="K87" s="89"/>
+        <v>215</v>
+      </c>
+      <c r="J87" s="139"/>
+      <c r="K87" s="110"/>
       <c r="L87" s="41"/>
     </row>
     <row r="88" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="124"/>
-      <c r="B88" s="103" t="s">
-        <v>241</v>
+      <c r="A88" s="81"/>
+      <c r="B88" s="90" t="s">
+        <v>240</v>
       </c>
       <c r="C88" s="56" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" s="132" t="s">
+        <v>390</v>
+      </c>
+      <c r="E88" s="133"/>
+      <c r="F88" s="133"/>
+      <c r="G88" s="133"/>
+      <c r="H88" s="134"/>
+      <c r="I88" s="79" t="s">
+        <v>387</v>
+      </c>
+      <c r="J88" s="80" t="s">
         <v>388</v>
       </c>
-      <c r="D88" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="E88" s="151"/>
-      <c r="F88" s="151"/>
-      <c r="G88" s="151"/>
-      <c r="H88" s="118"/>
-      <c r="I88" s="149" t="s">
+      <c r="K88" s="78" t="s">
         <v>389</v>
       </c>
-      <c r="J88" s="150" t="s">
-        <v>390</v>
-      </c>
-      <c r="K88" s="78" t="s">
-        <v>391</v>
-      </c>
       <c r="L88" s="41"/>
     </row>
     <row r="89" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="124"/>
-      <c r="B89" s="104"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="91"/>
       <c r="C89" s="56" t="s">
+        <v>219</v>
+      </c>
+      <c r="D89" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E89" s="96"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="H89" s="94"/>
+      <c r="I89" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="J89" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="K89" s="52" t="s">
+        <v>370</v>
+      </c>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="81"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E90" s="96"/>
+      <c r="F90" s="94"/>
+      <c r="G90" s="93" t="s">
         <v>220</v>
       </c>
-      <c r="D89" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E89" s="80"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="79" t="s">
+      <c r="H90" s="94"/>
+      <c r="I90" s="66" t="s">
+        <v>362</v>
+      </c>
+      <c r="J90" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="K90" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="81"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="D91" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E91" s="96"/>
+      <c r="F91" s="94"/>
+      <c r="G91" s="120" t="s">
         <v>222</v>
       </c>
-      <c r="H89" s="81"/>
-      <c r="I89" s="66" t="s">
+      <c r="H91" s="121"/>
+      <c r="I91" s="66" t="s">
         <v>363</v>
       </c>
-      <c r="J89" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="K89" s="52" t="s">
+      <c r="J91" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="124"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="56" t="s">
-        <v>237</v>
-      </c>
-      <c r="D90" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" s="80"/>
-      <c r="F90" s="81"/>
-      <c r="G90" s="79" t="s">
-        <v>221</v>
-      </c>
-      <c r="H90" s="81"/>
-      <c r="I90" s="66" t="s">
+      <c r="K91" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="L91" s="44"/>
+    </row>
+    <row r="92" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="81"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="57" t="s">
+        <v>238</v>
+      </c>
+      <c r="D92" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" s="96"/>
+      <c r="F92" s="94"/>
+      <c r="G92" s="120" t="s">
+        <v>358</v>
+      </c>
+      <c r="H92" s="121"/>
+      <c r="I92" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="J90" s="77" t="s">
+      <c r="J92" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="K90" s="76" t="s">
+      <c r="K92" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="124"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="57" t="s">
-        <v>238</v>
-      </c>
-      <c r="D91" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="80"/>
-      <c r="F91" s="81"/>
-      <c r="G91" s="82" t="s">
+      <c r="L92" s="44"/>
+    </row>
+    <row r="93" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="81"/>
+      <c r="B93" s="91"/>
+      <c r="C93" s="56" t="s">
+        <v>224</v>
+      </c>
+      <c r="D93" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E93" s="96"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="120" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" s="121"/>
+      <c r="I93" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="J93" s="77" t="s">
+        <v>374</v>
+      </c>
+      <c r="K93" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="81"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="H91" s="83"/>
-      <c r="I91" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="J91" s="77" t="s">
-        <v>374</v>
-      </c>
-      <c r="K91" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="L91" s="44"/>
-    </row>
-    <row r="92" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="124"/>
-      <c r="B92" s="104"/>
-      <c r="C92" s="57" t="s">
+      <c r="D94" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E94" s="96"/>
+      <c r="F94" s="94"/>
+      <c r="G94" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="H94" s="121"/>
+      <c r="I94" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="J94" s="77" t="s">
+        <v>375</v>
+      </c>
+      <c r="K94" s="76" t="s">
+        <v>382</v>
+      </c>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="81"/>
+      <c r="B95" s="91"/>
+      <c r="C95" s="56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D95" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E95" s="96"/>
+      <c r="F95" s="94"/>
+      <c r="G95" s="120" t="s">
+        <v>359</v>
+      </c>
+      <c r="H95" s="121"/>
+      <c r="I95" s="66" t="s">
+        <v>367</v>
+      </c>
+      <c r="J95" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="K95" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="81"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="56" t="s">
+        <v>356</v>
+      </c>
+      <c r="D96" s="93" t="s">
+        <v>357</v>
+      </c>
+      <c r="E96" s="96"/>
+      <c r="F96" s="94"/>
+      <c r="G96" s="120" t="s">
+        <v>360</v>
+      </c>
+      <c r="H96" s="121"/>
+      <c r="I96" s="66" t="s">
+        <v>368</v>
+      </c>
+      <c r="J96" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="K96" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="81"/>
+      <c r="B97" s="91"/>
+      <c r="C97" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="D92" s="79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E92" s="80"/>
-      <c r="F92" s="81"/>
-      <c r="G92" s="82" t="s">
-        <v>360</v>
-      </c>
-      <c r="H92" s="83"/>
-      <c r="I92" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="J92" s="77" t="s">
-        <v>375</v>
-      </c>
-      <c r="K92" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="L92" s="44"/>
-    </row>
-    <row r="93" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="124"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D93" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E93" s="80"/>
-      <c r="F93" s="81"/>
-      <c r="G93" s="82" t="s">
-        <v>226</v>
-      </c>
-      <c r="H93" s="83"/>
-      <c r="I93" s="66" t="s">
-        <v>367</v>
-      </c>
-      <c r="J93" s="77" t="s">
-        <v>376</v>
-      </c>
-      <c r="K93" s="76" t="s">
-        <v>383</v>
-      </c>
-      <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="124"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="D94" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E94" s="80"/>
-      <c r="F94" s="81"/>
-      <c r="G94" s="82" t="s">
+      <c r="D97" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E97" s="94"/>
+      <c r="F97" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="G97" s="93" t="s">
+        <v>229</v>
+      </c>
+      <c r="H97" s="94"/>
+      <c r="I97" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="J97" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="K97" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="81"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="H94" s="83"/>
-      <c r="I94" s="66" t="s">
-        <v>368</v>
-      </c>
-      <c r="J94" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="K94" s="76" t="s">
-        <v>384</v>
-      </c>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="124"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="56" t="s">
-        <v>357</v>
-      </c>
-      <c r="D95" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E95" s="80"/>
-      <c r="F95" s="81"/>
-      <c r="G95" s="82" t="s">
-        <v>361</v>
-      </c>
-      <c r="H95" s="83"/>
-      <c r="I95" s="66" t="s">
-        <v>369</v>
-      </c>
-      <c r="J95" s="77" t="s">
-        <v>378</v>
-      </c>
-      <c r="K95" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="124"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="56" t="s">
-        <v>358</v>
-      </c>
-      <c r="D96" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" s="80"/>
-      <c r="F96" s="81"/>
-      <c r="G96" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="H96" s="83"/>
-      <c r="I96" s="66" t="s">
-        <v>370</v>
-      </c>
-      <c r="J96" s="77" t="s">
-        <v>379</v>
-      </c>
-      <c r="K96" s="76" t="s">
-        <v>386</v>
-      </c>
-      <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="124"/>
-      <c r="B97" s="104"/>
-      <c r="C97" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="D97" s="79" t="s">
-        <v>229</v>
-      </c>
-      <c r="E97" s="81"/>
-      <c r="F97" s="67" t="s">
+      <c r="D98" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E98" s="94"/>
+      <c r="F98" s="67" t="s">
+        <v>254</v>
+      </c>
+      <c r="G98" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" s="94"/>
+      <c r="I98" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="G97" s="79" t="s">
-        <v>230</v>
-      </c>
-      <c r="H97" s="81"/>
-      <c r="I97" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="J97" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="K97" s="52" t="s">
+      <c r="J98" s="65" t="s">
+        <v>254</v>
+      </c>
+      <c r="K98" s="52" t="s">
+        <v>326</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="81"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="56" t="s">
+        <v>233</v>
+      </c>
+      <c r="D99" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E99" s="96"/>
+      <c r="F99" s="96"/>
+      <c r="G99" s="96"/>
+      <c r="H99" s="94"/>
+      <c r="I99" s="66" t="s">
+        <v>255</v>
+      </c>
+      <c r="J99" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="K99" s="52" t="s">
         <v>327</v>
       </c>
-      <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="124"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="D98" s="79" t="s">
-        <v>231</v>
-      </c>
-      <c r="E98" s="81"/>
-      <c r="F98" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="G98" s="79" t="s">
-        <v>232</v>
-      </c>
-      <c r="H98" s="81"/>
-      <c r="I98" s="66" t="s">
-        <v>254</v>
-      </c>
-      <c r="J98" s="65" t="s">
-        <v>255</v>
-      </c>
-      <c r="K98" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="124"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="56" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="79" t="s">
-        <v>233</v>
-      </c>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="81"/>
-      <c r="I99" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="J99" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="K99" s="52" t="s">
-        <v>329</v>
-      </c>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="B100" s="103" t="s">
-        <v>208</v>
+      <c r="A100" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B100" s="90" t="s">
+        <v>207</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="106" t="s">
-        <v>274</v>
-      </c>
-      <c r="E100" s="114"/>
-      <c r="F100" s="114"/>
-      <c r="G100" s="114"/>
-      <c r="H100" s="114"/>
-      <c r="I100" s="114"/>
+      <c r="D100" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="E100" s="95"/>
+      <c r="F100" s="95"/>
+      <c r="G100" s="95"/>
+      <c r="H100" s="95"/>
+      <c r="I100" s="95"/>
       <c r="J100" s="60" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K100" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="124"/>
-      <c r="B101" s="104"/>
+      <c r="A101" s="81"/>
+      <c r="B101" s="91"/>
       <c r="C101" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="107"/>
+      <c r="D101" s="115" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="116"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="116"/>
       <c r="J101" s="60" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K101" s="46" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="124"/>
-      <c r="B102" s="104"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="91"/>
       <c r="C102" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" s="107"/>
-      <c r="F102" s="107"/>
-      <c r="G102" s="107"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="107"/>
+      <c r="D102" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="116"/>
+      <c r="H102" s="116"/>
+      <c r="I102" s="116"/>
       <c r="J102" s="60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K102" s="46" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="124"/>
-      <c r="B103" s="104"/>
+      <c r="A103" s="81"/>
+      <c r="B103" s="91"/>
       <c r="C103" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="107"/>
+      <c r="D103" s="115" t="s">
+        <v>202</v>
+      </c>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="116"/>
+      <c r="H103" s="116"/>
+      <c r="I103" s="116"/>
       <c r="J103" s="60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K103" s="46" t="s">
+        <v>330</v>
+      </c>
+      <c r="L103" s="9"/>
+    </row>
+    <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="81"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="116"/>
+      <c r="H104" s="116"/>
+      <c r="I104" s="116"/>
+      <c r="J104" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="K104" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="L104" s="9"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="81"/>
+      <c r="B105" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="D105" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E105" s="95"/>
+      <c r="F105" s="95"/>
+      <c r="G105" s="95"/>
+      <c r="H105" s="95"/>
+      <c r="I105" s="95"/>
+      <c r="J105" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K105" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="L103" s="9"/>
-    </row>
-    <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="124"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="42" t="s">
-        <v>217</v>
-      </c>
-      <c r="D104" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="K104" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="L104" s="9"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="124"/>
-      <c r="B105" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="C105" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="D105" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="E105" s="114"/>
-      <c r="F105" s="114"/>
-      <c r="G105" s="114"/>
-      <c r="H105" s="114"/>
-      <c r="I105" s="114"/>
-      <c r="J105" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="K105" s="46" t="s">
-        <v>334</v>
-      </c>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="124"/>
-      <c r="B106" s="102"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="112" t="s">
-        <v>151</v>
-      </c>
-      <c r="E106" s="112"/>
-      <c r="F106" s="112"/>
+      <c r="D106" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="E106" s="98"/>
+      <c r="F106" s="98"/>
       <c r="G106" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H106" s="122" t="s">
         <v>135</v>
       </c>
-      <c r="H106" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="I106" s="132"/>
+      <c r="I106" s="122"/>
       <c r="J106" s="60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K106" s="46" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="124"/>
-      <c r="B107" s="102"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="114" t="s">
+      <c r="D107" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="114"/>
-      <c r="F107" s="114"/>
-      <c r="G107" s="114"/>
-      <c r="H107" s="114"/>
-      <c r="I107" s="114"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="95"/>
+      <c r="G107" s="95"/>
+      <c r="H107" s="95"/>
+      <c r="I107" s="95"/>
       <c r="J107" s="60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K107" s="46" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="L107" s="58"/>
     </row>
     <row r="108" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="124"/>
-      <c r="B108" s="102"/>
+      <c r="A108" s="81"/>
+      <c r="B108" s="88"/>
       <c r="C108" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="114" t="s">
-        <v>242</v>
-      </c>
-      <c r="E108" s="114"/>
-      <c r="F108" s="114"/>
-      <c r="G108" s="114"/>
-      <c r="H108" s="114"/>
-      <c r="I108" s="114"/>
+      <c r="D108" s="95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E108" s="95"/>
+      <c r="F108" s="95"/>
+      <c r="G108" s="95"/>
+      <c r="H108" s="95"/>
+      <c r="I108" s="95"/>
       <c r="J108" s="60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K108" s="46" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="125"/>
-      <c r="B109" s="102"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="88"/>
       <c r="C109" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="114" t="s">
+      <c r="D109" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="114"/>
-      <c r="F109" s="114"/>
-      <c r="G109" s="114"/>
-      <c r="H109" s="114"/>
-      <c r="I109" s="114"/>
+      <c r="E109" s="95"/>
+      <c r="F109" s="95"/>
+      <c r="G109" s="95"/>
+      <c r="H109" s="95"/>
+      <c r="I109" s="95"/>
       <c r="J109" s="60" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K109" s="46" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L109" s="9"/>
     </row>
@@ -5549,13 +5550,13 @@
       <c r="D114" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="128"/>
-      <c r="F114" s="128"/>
+      <c r="E114" s="112"/>
+      <c r="F114" s="112"/>
       <c r="G114" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H114" s="129"/>
-      <c r="I114" s="129"/>
+      <c r="H114" s="113"/>
+      <c r="I114" s="113"/>
       <c r="J114" s="8" t="s">
         <v>66</v>
       </c>
@@ -5563,41 +5564,165 @@
     </row>
   </sheetData>
   <mergeCells count="219">
-    <mergeCell ref="A100:A109"/>
-    <mergeCell ref="A57:A99"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A18:A56"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J75:J82"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B70:B87"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="B57:B69"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="K59:K66"/>
+    <mergeCell ref="K75:K82"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="H114:I114"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="H106:I106"/>
     <mergeCell ref="J5:K6"/>
     <mergeCell ref="D105:I105"/>
     <mergeCell ref="G81:H81"/>
@@ -5622,166 +5747,42 @@
     <mergeCell ref="D12:I12"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A100:A109"/>
+    <mergeCell ref="A57:A99"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A18:A56"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D31:E31"/>
     <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="K59:K66"/>
-    <mergeCell ref="K75:K82"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B70:B87"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="B57:B69"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J75:J82"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="D49:E49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J57 J52:J55 J13:J25 J73 J27:J35 J40:J50 J75:J109 J59:J71">

--- a/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{556F206C-0090-49B4-B62C-63B4BD3797A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB66A144-C02E-4BD5-BC62-157779A664CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="440">
   <si>
     <t>检测项目</t>
   </si>
@@ -392,11 +392,11 @@
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>控制器贴有已检标记</t>
@@ -424,38 +424,38 @@
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试前准备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>BOOT版本检查</t>
   </si>
   <si>
     <t>BOOT版本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表1编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表2编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>读取电表1编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>读取电表2编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -500,163 +500,163 @@
       </rPr>
       <t>”标识</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GPRS上线状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>断电后读取系统时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铁存功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RS485功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表2功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表1功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Flash功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>时钟功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>用钳表（交流20A）测量A 相电流，观察静态功耗不大于150mA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测量值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>插枪后测量值：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电流：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电压：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>按下手动解锁按钮，10秒后能停止充电，充电枪能解锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪头温度测温点1温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪头温度测温点2温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LED面板显示读数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>软件测试值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>判断软件读出的值与电表值及LED读数值一致</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>直流档板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示板盖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>直流回路安装直流档板</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示板盖安装好，螺丝装齐，无压住线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -682,150 +682,150 @@
   </si>
   <si>
     <t>检查结果：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>检查人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>日  期：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>审核人：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">TCCE </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>广东万城万充电动车运营股份有限公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>生产批号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>资产编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整机编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>型号规格：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>控制器编号:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SIM卡编号:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>表格版本：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示板号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继电板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">■ MQC6000-90  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝缘检测板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>K60（DCM）板编号:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CPU板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>4G模块编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>电源板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>背板编号：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>直流充电机整机出厂检验报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>辅助电源输出应为12V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>输出电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> V2.0-180131</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>result1</t>
   </si>
   <si>
     <t>value28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result29</t>
@@ -838,685 +838,685 @@
   </si>
   <si>
     <t>value21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
   </si>
   <si>
     <t>result35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{24,25,39,40,41,42}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{35,36}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{37,38}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{51,52}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result53</t>
   </si>
   <si>
     <t>result54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{90,93}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{91,94}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{92,95}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result108</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>当前枪为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result22</t>
   </si>
   <si>
     <t>result23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>龙立/多思达</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗（手填）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>看门狗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K60应用程序版本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K64应用程序版本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DCM板（K60)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>触点情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制板（K64)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{24,25}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>调试插座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上电,读取软件版本，版本无误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LED面板全亮5秒，无显示块亮度偏暗、显示缺划、亮度不一致现象
 2、喇叭播放语音。 （程序暂未支持,不能操作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上电及版本检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>参数设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>系统时间设置
 及核对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制板（K64)看门狗有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发送校正命令，对DCM板进行校正，返回报文显示校正成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>校正、时间检查、看门狗功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>插座及整机功耗检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K60应用程序编译时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K64应用程序编译时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上电前检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、 插上SIM卡，登记卡号，桩编号
 2、 做好上电准备，检查输入接线正确，地线紧固</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1温度检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2温度检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电枪温度检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>APP能启动充电，充电正常后，按下急停后可以停止充电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电池反接故障解除，显示面板故障指示灯显示“X”消失，显示正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电池反接故障状态下，显示面板中故障指示灯显示“X”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝缘告警状态，显示面板中故障指示灯显示“X”，模块正常输出电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电正常后，接入负载，看电表读数电流2.77A，电压:AC 350V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>枪1 APP充电功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2 APP充电功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能检测到急停按钮按下和正常状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能检测到门节点门关和门开状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>能检测到防雷器告警和正常状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通讯功能正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗插片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>拔除K60板串口线时，检查K60看门狗短路插片JP2不安装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>下电检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>外部IO口检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制反馈情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电表编号检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝缘告警状态，显示面板中故障指示灯显示“X”，模块正常输出电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝缘故障状态，显示面板中故障指示灯显示“X”，模块不能输出电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>绝缘故障状态，显示面板中故障指示灯显示“X”，模块不能输出电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>充电流程启动后，4D-4,6D-6有220V电压输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- -</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>发送交流复位指令，控制盒正常断电重启</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>闭合1枪K1K2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块1测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块2输出（电表1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块1输出（电表1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块3输出（电表1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块6测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块5测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块5输出（电表2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块6输出（电表2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块1、2泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块3泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块4、5泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块6泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所有直流继电器恢复到出厂状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继电器还原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块2测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块3测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块4测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电模块检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铭牌、二维码信息确认对应</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>插座电压正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result121</t>
   </si>
   <si>
     <t>result121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{82,83}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{80,81}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>确保充电枪连接成功，启动充电，模块能正常输出电压,充电进度条滚动，对应枪有电压输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>value56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{67,68}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、 插枪1==》APP扫码启动充电
@@ -1524,359 +1524,359 @@
 正常充电中，按下急停按钮，接触器应全部断开，且操作面板显示充电枪“X”
 刷卡1结算充电，刷卡2结算充电 
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result122</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result136</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result138</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result142</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time82</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time53</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time96</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time121</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time119</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time92</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>time111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>result107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>result{72,73}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{56,57}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{120,96}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AC220V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time87</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>result27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块7测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块8测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>闭合2枪K1K2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块4输出（电表1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块7输出（电表2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块8输出（电表2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value156</t>
@@ -1901,11 +1901,11 @@
   </si>
   <si>
     <t>result155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time155</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result156</t>
@@ -1951,34 +1951,521 @@
   </si>
   <si>
     <t>继电器反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time181</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:华为 1:英可瑞 2:麦格米特</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time71</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件版本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整机状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室外温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温告警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内温感失效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外风机故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制冷回差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>低温点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内风机停止点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调参数检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result184</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime184</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime185</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime186</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime187</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime188</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime189</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime190</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime191</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime192</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime194</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime195</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime196</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ime197</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>result185</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result186</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result187</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result188</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result189</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result190</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result191</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result192</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result193</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result194</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result195</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result196</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result197</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶斯君</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑俊贤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1986,11 +2473,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2080,14 +2574,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -2143,6 +2629,13 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2283,101 +2776,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2392,34 +2879,31 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2458,7 +2942,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,10 +2966,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2509,7 +2993,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2525,6 +3009,198 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2548,196 +3224,16 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2745,7 +3241,25 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3116,10 +3630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L114"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H127" sqref="H127:I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3150,27 +3664,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="32" t="s">
+      <c r="B3" s="138"/>
+      <c r="C3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="103" t="s">
+      <c r="E3" s="138"/>
+      <c r="F3" s="141" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="103"/>
-      <c r="H3" s="104" t="s">
+      <c r="G3" s="141"/>
+      <c r="H3" s="135" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3179,113 +3693,113 @@
       <c r="E4" s="12"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="68" t="s">
+      <c r="E5" s="135"/>
+      <c r="F5" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="65"/>
+      <c r="H5" s="136" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="107" t="s">
+      <c r="I5" s="136"/>
+      <c r="J5" s="132" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="107"/>
+      <c r="K5" s="132"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="106"/>
-      <c r="C6" s="72" t="s">
+      <c r="B6" s="138"/>
+      <c r="C6" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="136" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="69" t="s">
+      <c r="E6" s="136"/>
+      <c r="F6" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="111" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="139" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="104" t="s">
+      <c r="E8" s="139"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="104"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="134"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="102" t="s">
+      <c r="A9" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="102"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="104" t="s">
+      <c r="E9" s="135"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="140" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="102"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="24"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3294,7 +3808,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="22"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="30"/>
+      <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
@@ -3310,2371 +3824,2636 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="88" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="42" t="s">
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="39" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="59" t="s">
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K13" s="46" t="s">
+      <c r="K13" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L13" s="123"/>
+      <c r="L13" s="126"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="43" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="59" t="s">
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="46" t="s">
+      <c r="K14" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L14" s="123"/>
+      <c r="L14" s="126"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="102"/>
+      <c r="B15" s="149"/>
+      <c r="C15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="59" t="s">
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L15" s="123"/>
+      <c r="L15" s="126"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="43" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="59" t="s">
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K16" s="46" t="s">
+      <c r="K16" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L16" s="123"/>
+      <c r="L16" s="126"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="43" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="59" t="s">
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="46" t="s">
+      <c r="K17" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L17" s="123"/>
+      <c r="L17" s="126"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="90" t="s">
+      <c r="A18" s="103" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="60" t="s">
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="K18" s="46" t="s">
+      <c r="K18" s="43" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="47" t="s">
+      <c r="A19" s="104"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="106" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="60" t="s">
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="L19" s="38"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="47" t="s">
+      <c r="A20" s="104"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="115" t="s">
+      <c r="D20" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="60" t="s">
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="K20" s="46" t="s">
+      <c r="K20" s="43" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="98" t="s">
+      <c r="A21" s="104"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="99"/>
-      <c r="F21" s="100" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="60" t="s">
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="K21" s="46" t="s">
+      <c r="K21" s="43" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="91"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="99" t="s">
+      <c r="A22" s="104"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="100" t="s">
+      <c r="E22" s="82"/>
+      <c r="F22" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="60" t="s">
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="43" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99" t="s">
+      <c r="A23" s="104"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="82" t="s">
         <v>171</v>
       </c>
-      <c r="E23" s="99"/>
-      <c r="F23" s="100" t="s">
+      <c r="E23" s="82"/>
+      <c r="F23" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="60" t="s">
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="K23" s="46" t="s">
+      <c r="K23" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="L23" s="38"/>
+      <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="98" t="s">
+      <c r="A24" s="104"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="100" t="s">
+      <c r="E24" s="82"/>
+      <c r="F24" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="60" t="s">
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K24" s="46" t="s">
+      <c r="K24" s="43" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99" t="s">
+      <c r="A25" s="104"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="82" t="s">
         <v>155</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="100" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="116" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="60" t="s">
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="46" t="s">
+      <c r="K25" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="L25" s="38"/>
+      <c r="L25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99" t="s">
+      <c r="A26" s="104"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100" t="s">
+      <c r="E26" s="82"/>
+      <c r="F26" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="60" t="s">
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="K26" s="46" t="s">
+      <c r="K26" s="43" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="88" t="s">
+      <c r="A27" s="104"/>
+      <c r="B27" s="102" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="98" t="s">
+      <c r="C27" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="100" t="s">
+      <c r="E27" s="82"/>
+      <c r="F27" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="60" t="s">
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="K27" s="46" t="s">
+      <c r="K27" s="43" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="99" t="s">
+      <c r="A28" s="104"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="E28" s="99"/>
-      <c r="F28" s="100" t="s">
+      <c r="E28" s="82"/>
+      <c r="F28" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="60" t="s">
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="K28" s="46" t="s">
+      <c r="K28" s="43" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99" t="s">
+      <c r="A29" s="104"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="99"/>
-      <c r="F29" s="100" t="s">
+      <c r="E29" s="82"/>
+      <c r="F29" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="60" t="s">
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="46" t="s">
+      <c r="K29" s="43" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99" t="s">
+      <c r="A30" s="104"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="100" t="s">
+      <c r="E30" s="82"/>
+      <c r="F30" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="60" t="s">
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="43" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99" t="s">
+      <c r="A31" s="104"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="99"/>
-      <c r="F31" s="100" t="s">
+      <c r="E31" s="82"/>
+      <c r="F31" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="60" t="s">
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="K31" s="43" t="s">
         <v>298</v>
       </c>
       <c r="L31" s="25"/>
     </row>
     <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99" t="s">
+      <c r="A32" s="104"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="100" t="s">
+      <c r="E32" s="82"/>
+      <c r="F32" s="116" t="s">
         <v>136</v>
       </c>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="60" t="s">
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="K32" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="L32" s="29"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99" t="s">
+      <c r="A33" s="104"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="100" t="s">
+      <c r="E33" s="82"/>
+      <c r="F33" s="116" t="s">
         <v>137</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="60" t="s">
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="K33" s="43" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="98" t="s">
+      <c r="A34" s="104"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="100" t="s">
+      <c r="E34" s="82"/>
+      <c r="F34" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="138" t="s">
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="K34" s="129" t="s">
+      <c r="K34" s="83" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99" t="s">
+      <c r="A35" s="104"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="100" t="s">
+      <c r="E35" s="82"/>
+      <c r="F35" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="131"/>
-    </row>
-    <row r="36" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="81" t="s">
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="84"/>
+    </row>
+    <row r="36" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="104"/>
+      <c r="B36" s="142" t="s">
         <v>385</v>
       </c>
-      <c r="C36" s="54" t="s">
+      <c r="C36" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="54" t="s">
+      <c r="D36" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="F36" s="54" t="s">
+      <c r="F36" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="H36" s="54"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="39"/>
-    </row>
-    <row r="37" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="81"/>
-      <c r="C37" s="54" t="s">
+      <c r="H36" s="51"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="58"/>
+      <c r="L36" s="36"/>
+    </row>
+    <row r="37" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="104"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="54" t="s">
+      <c r="D37" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="F37" s="54" t="s">
+      <c r="F37" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="61" t="s">
+      <c r="G37" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="H37" s="54" t="s">
+      <c r="H37" s="51" t="s">
         <v>274</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="I37" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="51" t="s">
         <v>275</v>
       </c>
-      <c r="K37" s="61" t="s">
+      <c r="K37" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="L37" s="39"/>
-    </row>
-    <row r="38" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="54" t="s">
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="104"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="51" t="s">
         <v>208</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="G38" s="61" t="s">
+      <c r="G38" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="H38" s="54"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="39"/>
-    </row>
-    <row r="39" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="54" t="s">
+      <c r="H38" s="51"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="58"/>
+      <c r="L38" s="36"/>
+    </row>
+    <row r="39" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="104"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="F39" s="54" t="s">
+      <c r="F39" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="G39" s="61" t="s">
+      <c r="G39" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="H39" s="54" t="s">
+      <c r="H39" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="J39" s="54" t="s">
+      <c r="J39" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="K39" s="61" t="s">
+      <c r="K39" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="L39" s="39"/>
-    </row>
-    <row r="40" spans="1:12" s="40" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="89" t="s">
+      <c r="L39" s="36"/>
+    </row>
+    <row r="40" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="104"/>
+      <c r="B40" s="112" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D40" s="124" t="s">
+      <c r="D40" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="62" t="s">
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="59" t="s">
         <v>247</v>
       </c>
-      <c r="K40" s="49" t="s">
+      <c r="K40" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="L40" s="39"/>
-    </row>
-    <row r="41" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="99" t="s">
+      <c r="L40" s="36"/>
+    </row>
+    <row r="41" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="104"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="82" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="114"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="114"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="139" t="s">
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
+      <c r="J41" s="100" t="s">
         <v>347</v>
       </c>
-      <c r="K41" s="110" t="s">
+      <c r="K41" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="L41" s="39"/>
-    </row>
-    <row r="42" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="50" t="s">
+      <c r="L41" s="36"/>
+    </row>
+    <row r="42" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="104"/>
+      <c r="B42" s="112"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="82"/>
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="132" t="s">
+      <c r="H42" s="117" t="s">
         <v>346</v>
       </c>
-      <c r="I42" s="134"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="39"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="91"/>
-      <c r="B43" s="88" t="s">
+      <c r="A43" s="104"/>
+      <c r="B43" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="D43" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="62" t="s">
+      <c r="E43" s="82"/>
+      <c r="F43" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="G43" s="99" t="s">
+      <c r="G43" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="99"/>
-      <c r="I43" s="62" t="s">
+      <c r="H43" s="82"/>
+      <c r="I43" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="J43" s="138" t="s">
+      <c r="J43" s="79" t="s">
         <v>118</v>
       </c>
-      <c r="K43" s="128" t="s">
+      <c r="K43" s="85" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="99" t="s">
+      <c r="A44" s="104"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="99"/>
-      <c r="F44" s="62" t="s">
+      <c r="E44" s="82"/>
+      <c r="F44" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="G44" s="99" t="s">
+      <c r="G44" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="99"/>
-      <c r="I44" s="62" t="s">
+      <c r="H44" s="82"/>
+      <c r="I44" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="J44" s="138"/>
-      <c r="K44" s="128"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="85"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="99" t="s">
+      <c r="A45" s="104"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="99"/>
-      <c r="F45" s="62" t="s">
+      <c r="E45" s="82"/>
+      <c r="F45" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="99" t="s">
+      <c r="G45" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="62" t="s">
+      <c r="H45" s="82"/>
+      <c r="I45" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="138"/>
-      <c r="K45" s="128"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="85"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99" t="s">
+      <c r="A46" s="104"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="99"/>
-      <c r="F46" s="62" t="s">
+      <c r="E46" s="82"/>
+      <c r="F46" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="138"/>
-      <c r="K46" s="128"/>
-    </row>
-    <row r="47" spans="1:12" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="88" t="s">
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="85"/>
+    </row>
+    <row r="47" spans="1:12" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="104"/>
+      <c r="B47" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D47" s="114" t="s">
+      <c r="D47" s="86" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-      <c r="G47" s="114"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="62" t="s">
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
+      <c r="J47" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="K47" s="49" t="s">
+      <c r="K47" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="L47" s="39"/>
+      <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="42" t="s">
+      <c r="A48" s="104"/>
+      <c r="B48" s="102"/>
+      <c r="C48" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="125" t="s">
+      <c r="E48" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="126"/>
-      <c r="G48" s="48" t="s">
+      <c r="F48" s="124"/>
+      <c r="G48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="125" t="s">
+      <c r="H48" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="126"/>
-      <c r="J48" s="60" t="s">
+      <c r="I48" s="124"/>
+      <c r="J48" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="K48" s="46" t="s">
+      <c r="K48" s="43" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88" t="s">
+      <c r="A49" s="104"/>
+      <c r="B49" s="102"/>
+      <c r="C49" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="99" t="s">
+      <c r="D49" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="99"/>
-      <c r="F49" s="125" t="s">
+      <c r="E49" s="82"/>
+      <c r="F49" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="126"/>
-      <c r="H49" s="48" t="s">
+      <c r="G49" s="124"/>
+      <c r="H49" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="I49" s="74" t="s">
+      <c r="I49" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="145" t="s">
+      <c r="J49" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="129" t="s">
+      <c r="K49" s="83" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="99" t="s">
+      <c r="A50" s="104"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="99"/>
-      <c r="F50" s="126" t="s">
+      <c r="E50" s="82"/>
+      <c r="F50" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="G50" s="126"/>
-      <c r="H50" s="48" t="s">
+      <c r="G50" s="124"/>
+      <c r="H50" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="I50" s="74" t="s">
+      <c r="I50" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="151"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="38"/>
-    </row>
-    <row r="51" spans="1:12" s="40" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="48" t="s">
+      <c r="J50" s="81"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="35"/>
+    </row>
+    <row r="51" spans="1:12" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="104"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="114" t="s">
+      <c r="D51" s="86" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="114"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="114"/>
-      <c r="H51" s="114"/>
-      <c r="I51" s="114"/>
-      <c r="J51" s="62" t="s">
+      <c r="E51" s="86"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
+      <c r="J51" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="K51" s="49" t="s">
+      <c r="K51" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="L51" s="39"/>
+      <c r="L51" s="36"/>
     </row>
     <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="88" t="s">
+      <c r="A52" s="104"/>
+      <c r="B52" s="102" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D52" s="127" t="s">
+      <c r="D52" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E52" s="127"/>
-      <c r="F52" s="75" t="s">
+      <c r="E52" s="89"/>
+      <c r="F52" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="127" t="s">
+      <c r="G52" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="127"/>
-      <c r="I52" s="75" t="s">
+      <c r="H52" s="89"/>
+      <c r="I52" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="J52" s="60" t="s">
+      <c r="J52" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="K52" s="46" t="s">
+      <c r="K52" s="43" t="s">
         <v>309</v>
       </c>
       <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="42" t="s">
+      <c r="A53" s="104"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D53" s="127" t="s">
+      <c r="D53" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="127"/>
-      <c r="F53" s="75" t="s">
+      <c r="E53" s="89"/>
+      <c r="F53" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="G53" s="127" t="s">
+      <c r="G53" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="127"/>
-      <c r="I53" s="75" t="s">
+      <c r="H53" s="89"/>
+      <c r="I53" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="J53" s="60" t="s">
+      <c r="J53" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="K53" s="46" t="s">
+      <c r="K53" s="43" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="88" t="s">
+      <c r="A54" s="104"/>
+      <c r="B54" s="102" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="99"/>
-      <c r="F54" s="63" t="s">
+      <c r="E54" s="82"/>
+      <c r="F54" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="99" t="s">
+      <c r="G54" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="99"/>
-      <c r="I54" s="63" t="s">
+      <c r="H54" s="82"/>
+      <c r="I54" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J54" s="60" t="s">
+      <c r="J54" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="46" t="s">
+      <c r="K54" s="43" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="91"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="98" t="s">
+      <c r="A55" s="104"/>
+      <c r="B55" s="102"/>
+      <c r="C55" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="D55" s="114" t="s">
+      <c r="D55" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="86" t="s">
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="147" t="s">
         <v>124</v>
       </c>
-      <c r="K55" s="128" t="s">
+      <c r="K55" s="85" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="92"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="95" t="s">
+      <c r="A56" s="105"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="128"/>
-    </row>
-    <row r="57" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="83" t="s">
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="148"/>
+      <c r="K56" s="85"/>
+    </row>
+    <row r="57" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="144" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="102" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="D57" s="124" t="s">
+      <c r="D57" s="94" t="s">
         <v>211</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="84" t="s">
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
+      <c r="G57" s="94"/>
+      <c r="H57" s="94"/>
+      <c r="I57" s="94"/>
+      <c r="J57" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="K57" s="143" t="s">
+      <c r="K57" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="L57" s="39"/>
-    </row>
-    <row r="58" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="81"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="124" t="s">
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="142"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="94" t="s">
         <v>212</v>
       </c>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="144"/>
-      <c r="L58" s="39"/>
-    </row>
-    <row r="59" spans="1:12" s="40" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="81"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="137" t="s">
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="146"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="36"/>
+    </row>
+    <row r="59" spans="1:12" s="37" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="142"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="122" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="124" t="s">
+      <c r="D59" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="124"/>
-      <c r="F59" s="124"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="124"/>
-      <c r="J59" s="148" t="s">
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="94"/>
+      <c r="I59" s="94"/>
+      <c r="J59" s="91" t="s">
         <v>339</v>
       </c>
-      <c r="K59" s="129" t="s">
+      <c r="K59" s="83" t="s">
         <v>314</v>
       </c>
-      <c r="L59" s="39"/>
+      <c r="L59" s="36"/>
     </row>
     <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="81"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="137"/>
-      <c r="D60" s="95" t="s">
+      <c r="A60" s="142"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="122"/>
+      <c r="D60" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="130"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="125"/>
     </row>
     <row r="61" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="81"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="137"/>
-      <c r="D61" s="99" t="s">
+      <c r="A61" s="142"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="99"/>
-      <c r="F61" s="63" t="s">
+      <c r="E61" s="82"/>
+      <c r="F61" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="G61" s="99" t="s">
+      <c r="G61" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="99"/>
-      <c r="I61" s="63" t="s">
+      <c r="H61" s="82"/>
+      <c r="I61" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="J61" s="149"/>
-      <c r="K61" s="130"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="125"/>
       <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="81"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="114" t="s">
+      <c r="A62" s="142"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="130"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="125"/>
     </row>
     <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="81"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="99" t="s">
+      <c r="A63" s="142"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="99"/>
-      <c r="F63" s="63" t="s">
+      <c r="E63" s="82"/>
+      <c r="F63" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="G63" s="99" t="s">
+      <c r="G63" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="99"/>
-      <c r="I63" s="63" t="s">
+      <c r="H63" s="82"/>
+      <c r="I63" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="J63" s="149"/>
-      <c r="K63" s="130"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="125"/>
       <c r="L63" s="9"/>
     </row>
     <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="81"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="137"/>
-      <c r="D64" s="114" t="s">
+      <c r="A64" s="142"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
-      <c r="G64" s="114"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="114"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="130"/>
+      <c r="E64" s="86"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="H64" s="86"/>
+      <c r="I64" s="86"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="125"/>
     </row>
     <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="81"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="99" t="s">
+      <c r="A65" s="142"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="99"/>
-      <c r="F65" s="63" t="s">
+      <c r="E65" s="82"/>
+      <c r="F65" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="G65" s="99" t="s">
+      <c r="G65" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="99"/>
-      <c r="I65" s="63" t="s">
+      <c r="H65" s="82"/>
+      <c r="I65" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="J65" s="149"/>
-      <c r="K65" s="130"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="125"/>
       <c r="L65" s="26"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="81"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="137"/>
-      <c r="D66" s="114" t="s">
+      <c r="A66" s="142"/>
+      <c r="B66" s="102"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="114"/>
-      <c r="F66" s="114"/>
-      <c r="G66" s="114"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="114"/>
-      <c r="J66" s="150"/>
-      <c r="K66" s="131"/>
+      <c r="E66" s="86"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="86"/>
+      <c r="I66" s="86"/>
+      <c r="J66" s="93"/>
+      <c r="K66" s="84"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="81"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="42" t="s">
+      <c r="A67" s="142"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="127" t="s">
+      <c r="D67" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="99" t="s">
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="99"/>
-      <c r="I67" s="63" t="s">
+      <c r="H67" s="82"/>
+      <c r="I67" s="60" t="s">
         <v>262</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="J67" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="K67" s="46" t="s">
+      <c r="K67" s="43" t="s">
         <v>315</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="81"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="42" t="s">
+      <c r="A68" s="142"/>
+      <c r="B68" s="102"/>
+      <c r="C68" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="135" t="s">
+      <c r="D68" s="120" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="136"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="136"/>
-      <c r="I68" s="136"/>
-      <c r="J68" s="60" t="s">
+      <c r="E68" s="121"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="K68" s="46" t="s">
+      <c r="K68" s="43" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="81"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="42" t="s">
+      <c r="A69" s="142"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="140" t="s">
+      <c r="D69" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="142"/>
-      <c r="J69" s="60" t="s">
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="K69" s="46" t="s">
+      <c r="K69" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="L69" s="38"/>
+      <c r="L69" s="35"/>
     </row>
     <row r="70" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="81"/>
-      <c r="B70" s="90" t="s">
+      <c r="A70" s="142"/>
+      <c r="B70" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="99" t="s">
+      <c r="D70" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="99"/>
-      <c r="F70" s="63" t="s">
+      <c r="E70" s="82"/>
+      <c r="F70" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="99" t="s">
+      <c r="G70" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="H70" s="99"/>
-      <c r="I70" s="63" t="s">
+      <c r="H70" s="82"/>
+      <c r="I70" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="J70" s="60" t="s">
+      <c r="J70" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="K70" s="46" t="s">
+      <c r="K70" s="43" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="81"/>
-      <c r="B71" s="91"/>
-      <c r="C71" s="98" t="s">
+      <c r="A71" s="142"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="D71" s="114" t="s">
+      <c r="D71" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
-      <c r="G71" s="114"/>
-      <c r="H71" s="114"/>
-      <c r="I71" s="114"/>
-      <c r="J71" s="86" t="s">
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="K71" s="128" t="s">
+      <c r="K71" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="L71" s="38"/>
+      <c r="L71" s="35"/>
     </row>
     <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="81"/>
-      <c r="B72" s="91"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="95" t="s">
+      <c r="A72" s="142"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="111"/>
+      <c r="D72" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="E72" s="95"/>
-      <c r="F72" s="95"/>
-      <c r="G72" s="95"/>
-      <c r="H72" s="95"/>
-      <c r="I72" s="95"/>
-      <c r="J72" s="87"/>
-      <c r="K72" s="128"/>
-      <c r="L72" s="38"/>
-    </row>
-    <row r="73" spans="1:12" s="40" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81"/>
-      <c r="B73" s="91"/>
-      <c r="C73" s="89" t="s">
+      <c r="E72" s="113"/>
+      <c r="F72" s="113"/>
+      <c r="G72" s="113"/>
+      <c r="H72" s="113"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="148"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="35"/>
+    </row>
+    <row r="73" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="142"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="124" t="s">
+      <c r="D73" s="94" t="s">
         <v>187</v>
       </c>
-      <c r="E73" s="124"/>
-      <c r="F73" s="124"/>
-      <c r="G73" s="124"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="124"/>
-      <c r="J73" s="84" t="s">
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
+      <c r="H73" s="94"/>
+      <c r="I73" s="94"/>
+      <c r="J73" s="145" t="s">
         <v>191</v>
       </c>
-      <c r="K73" s="143" t="s">
+      <c r="K73" s="95" t="s">
         <v>320</v>
       </c>
-      <c r="L73" s="39"/>
-    </row>
-    <row r="74" spans="1:12" s="40" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="81"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="124" t="s">
+      <c r="L73" s="36"/>
+    </row>
+    <row r="74" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="142"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="94" t="s">
         <v>213</v>
       </c>
-      <c r="E74" s="124"/>
-      <c r="F74" s="124"/>
-      <c r="G74" s="124"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="124"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="144"/>
-      <c r="L74" s="39"/>
+      <c r="E74" s="94"/>
+      <c r="F74" s="94"/>
+      <c r="G74" s="94"/>
+      <c r="H74" s="94"/>
+      <c r="I74" s="94"/>
+      <c r="J74" s="146"/>
+      <c r="K74" s="96"/>
+      <c r="L74" s="36"/>
     </row>
     <row r="75" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="81"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="98" t="s">
+      <c r="A75" s="142"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="D75" s="124" t="s">
+      <c r="D75" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="E75" s="124"/>
-      <c r="F75" s="124"/>
-      <c r="G75" s="124"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="145" t="s">
+      <c r="E75" s="94"/>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+      <c r="H75" s="94"/>
+      <c r="I75" s="94"/>
+      <c r="J75" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="K75" s="129" t="s">
+      <c r="K75" s="83" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="81"/>
-      <c r="B76" s="91"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="114" t="s">
+      <c r="A76" s="142"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="E76" s="114"/>
-      <c r="F76" s="114"/>
-      <c r="G76" s="114"/>
-      <c r="H76" s="114"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="146"/>
-      <c r="K76" s="130"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="86"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="125"/>
     </row>
     <row r="77" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="81"/>
-      <c r="B77" s="91"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="99" t="s">
+      <c r="A77" s="142"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="99"/>
-      <c r="F77" s="63" t="s">
+      <c r="E77" s="82"/>
+      <c r="F77" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="G77" s="99" t="s">
+      <c r="G77" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="99"/>
-      <c r="I77" s="63" t="s">
+      <c r="H77" s="82"/>
+      <c r="I77" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="J77" s="146"/>
-      <c r="K77" s="130"/>
+      <c r="J77" s="87"/>
+      <c r="K77" s="125"/>
       <c r="L77" s="9"/>
     </row>
     <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="81"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="114" t="s">
+      <c r="A78" s="142"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="146"/>
-      <c r="K78" s="130"/>
+      <c r="E78" s="86"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="86"/>
+      <c r="J78" s="87"/>
+      <c r="K78" s="125"/>
     </row>
     <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="81"/>
-      <c r="B79" s="91"/>
-      <c r="C79" s="98"/>
-      <c r="D79" s="99" t="s">
+      <c r="A79" s="142"/>
+      <c r="B79" s="104"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="99"/>
-      <c r="F79" s="63" t="s">
+      <c r="E79" s="82"/>
+      <c r="F79" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="G79" s="99" t="s">
+      <c r="G79" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="99"/>
-      <c r="I79" s="63" t="s">
+      <c r="H79" s="82"/>
+      <c r="I79" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="J79" s="146"/>
-      <c r="K79" s="130"/>
+      <c r="J79" s="87"/>
+      <c r="K79" s="125"/>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="81"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="114" t="s">
+      <c r="A80" s="142"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="111"/>
+      <c r="D80" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E80" s="114"/>
-      <c r="F80" s="114"/>
-      <c r="G80" s="114"/>
-      <c r="H80" s="114"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="146"/>
-      <c r="K80" s="130"/>
+      <c r="E80" s="86"/>
+      <c r="F80" s="86"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="86"/>
+      <c r="J80" s="87"/>
+      <c r="K80" s="125"/>
     </row>
     <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="81"/>
-      <c r="B81" s="91"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="99" t="s">
+      <c r="A81" s="142"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="111"/>
+      <c r="D81" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="E81" s="99"/>
-      <c r="F81" s="63" t="s">
+      <c r="E81" s="82"/>
+      <c r="F81" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="G81" s="99" t="s">
+      <c r="G81" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H81" s="99"/>
-      <c r="I81" s="63" t="s">
+      <c r="H81" s="82"/>
+      <c r="I81" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="J81" s="146"/>
-      <c r="K81" s="130"/>
+      <c r="J81" s="87"/>
+      <c r="K81" s="125"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="81"/>
-      <c r="B82" s="91"/>
-      <c r="C82" s="98"/>
-      <c r="D82" s="114" t="s">
+      <c r="A82" s="142"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="114"/>
-      <c r="F82" s="114"/>
-      <c r="G82" s="114"/>
-      <c r="H82" s="114"/>
-      <c r="I82" s="114"/>
-      <c r="J82" s="147"/>
-      <c r="K82" s="131"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="86"/>
+      <c r="J82" s="88"/>
+      <c r="K82" s="84"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="81"/>
-      <c r="B83" s="91"/>
-      <c r="C83" s="42" t="s">
+      <c r="A83" s="142"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="127" t="s">
+      <c r="D83" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E83" s="127"/>
-      <c r="F83" s="127"/>
-      <c r="G83" s="99" t="s">
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="99"/>
-      <c r="I83" s="63" t="s">
+      <c r="H83" s="82"/>
+      <c r="I83" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="J83" s="60" t="s">
+      <c r="J83" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="K83" s="46" t="s">
+      <c r="K83" s="43" t="s">
         <v>322</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="81"/>
-      <c r="B84" s="91"/>
-      <c r="C84" s="42" t="s">
+      <c r="A84" s="142"/>
+      <c r="B84" s="104"/>
+      <c r="C84" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="117" t="s">
+      <c r="D84" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="E84" s="118"/>
-      <c r="F84" s="118"/>
-      <c r="G84" s="118"/>
-      <c r="H84" s="118"/>
-      <c r="I84" s="118"/>
-      <c r="J84" s="60" t="s">
+      <c r="E84" s="130"/>
+      <c r="F84" s="130"/>
+      <c r="G84" s="130"/>
+      <c r="H84" s="130"/>
+      <c r="I84" s="130"/>
+      <c r="J84" s="57" t="s">
         <v>391</v>
       </c>
-      <c r="K84" s="46" t="s">
+      <c r="K84" s="43" t="s">
         <v>392</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="81"/>
-      <c r="B85" s="91"/>
-      <c r="C85" s="42" t="s">
+      <c r="A85" s="142"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="D85" s="93" t="s">
+      <c r="D85" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="E85" s="96"/>
-      <c r="F85" s="96"/>
-      <c r="G85" s="96"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="60" t="s">
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="98"/>
+      <c r="I85" s="99"/>
+      <c r="J85" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="K85" s="46" t="s">
+      <c r="K85" s="43" t="s">
         <v>323</v>
       </c>
-      <c r="L85" s="38"/>
-    </row>
-    <row r="86" spans="1:12" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="81"/>
-      <c r="B86" s="91"/>
-      <c r="C86" s="48" t="s">
+      <c r="L85" s="35"/>
+    </row>
+    <row r="86" spans="1:12" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="142"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="114" t="s">
+      <c r="D86" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
-      <c r="G86" s="119"/>
-      <c r="H86" s="51" t="s">
+      <c r="E86" s="90"/>
+      <c r="F86" s="90"/>
+      <c r="G86" s="90"/>
+      <c r="H86" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="I86" s="64" t="s">
+      <c r="I86" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="J86" s="139" t="s">
+      <c r="J86" s="100" t="s">
         <v>272</v>
       </c>
-      <c r="K86" s="110" t="s">
+      <c r="K86" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="L86" s="41"/>
-    </row>
-    <row r="87" spans="1:12" s="40" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="81"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="48" t="s">
+      <c r="L86" s="38"/>
+    </row>
+    <row r="87" spans="1:12" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="142"/>
+      <c r="B87" s="105"/>
+      <c r="C87" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="114" t="s">
+      <c r="D87" s="86" t="s">
         <v>203</v>
       </c>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
-      <c r="G87" s="119"/>
-      <c r="H87" s="51" t="s">
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
+      <c r="G87" s="90"/>
+      <c r="H87" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="I87" s="55" t="s">
+      <c r="I87" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="J87" s="139"/>
-      <c r="K87" s="110"/>
-      <c r="L87" s="41"/>
-    </row>
-    <row r="88" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="81"/>
-      <c r="B88" s="90" t="s">
+      <c r="J87" s="100"/>
+      <c r="K87" s="101"/>
+      <c r="L87" s="38"/>
+    </row>
+    <row r="88" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="142"/>
+      <c r="B88" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="C88" s="56" t="s">
+      <c r="C88" s="53" t="s">
         <v>386</v>
       </c>
-      <c r="D88" s="132" t="s">
+      <c r="D88" s="117" t="s">
         <v>390</v>
       </c>
-      <c r="E88" s="133"/>
-      <c r="F88" s="133"/>
-      <c r="G88" s="133"/>
-      <c r="H88" s="134"/>
-      <c r="I88" s="79" t="s">
+      <c r="E88" s="118"/>
+      <c r="F88" s="118"/>
+      <c r="G88" s="118"/>
+      <c r="H88" s="119"/>
+      <c r="I88" s="76" t="s">
         <v>387</v>
       </c>
-      <c r="J88" s="80" t="s">
+      <c r="J88" s="77" t="s">
         <v>388</v>
       </c>
-      <c r="K88" s="78" t="s">
+      <c r="K88" s="75" t="s">
         <v>389</v>
       </c>
-      <c r="L88" s="41"/>
+      <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="81"/>
-      <c r="B89" s="91"/>
-      <c r="C89" s="56" t="s">
+      <c r="A89" s="142"/>
+      <c r="B89" s="104"/>
+      <c r="C89" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="93" t="s">
+      <c r="D89" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E89" s="96"/>
-      <c r="F89" s="94"/>
-      <c r="G89" s="93" t="s">
+      <c r="E89" s="98"/>
+      <c r="F89" s="99"/>
+      <c r="G89" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="H89" s="94"/>
-      <c r="I89" s="66" t="s">
+      <c r="H89" s="99"/>
+      <c r="I89" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="J89" s="65" t="s">
+      <c r="J89" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="K89" s="52" t="s">
+      <c r="K89" s="49" t="s">
         <v>370</v>
       </c>
       <c r="L89" s="9"/>
     </row>
     <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="81"/>
-      <c r="B90" s="91"/>
-      <c r="C90" s="56" t="s">
+      <c r="A90" s="142"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="D90" s="93" t="s">
+      <c r="D90" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E90" s="96"/>
-      <c r="F90" s="94"/>
-      <c r="G90" s="93" t="s">
+      <c r="E90" s="98"/>
+      <c r="F90" s="99"/>
+      <c r="G90" s="97" t="s">
         <v>220</v>
       </c>
-      <c r="H90" s="94"/>
-      <c r="I90" s="66" t="s">
+      <c r="H90" s="99"/>
+      <c r="I90" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="J90" s="77" t="s">
+      <c r="J90" s="74" t="s">
         <v>371</v>
       </c>
-      <c r="K90" s="76" t="s">
+      <c r="K90" s="73" t="s">
         <v>378</v>
       </c>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="81"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="57" t="s">
+    <row r="91" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="142"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="D91" s="93" t="s">
+      <c r="D91" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E91" s="96"/>
-      <c r="F91" s="94"/>
-      <c r="G91" s="120" t="s">
+      <c r="E91" s="98"/>
+      <c r="F91" s="99"/>
+      <c r="G91" s="114" t="s">
         <v>222</v>
       </c>
-      <c r="H91" s="121"/>
-      <c r="I91" s="66" t="s">
+      <c r="H91" s="115"/>
+      <c r="I91" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="J91" s="77" t="s">
+      <c r="J91" s="74" t="s">
         <v>372</v>
       </c>
-      <c r="K91" s="76" t="s">
+      <c r="K91" s="73" t="s">
         <v>379</v>
       </c>
-      <c r="L91" s="44"/>
-    </row>
-    <row r="92" spans="1:12" s="45" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="81"/>
-      <c r="B92" s="91"/>
-      <c r="C92" s="57" t="s">
+      <c r="L91" s="41"/>
+    </row>
+    <row r="92" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="142"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="D92" s="93" t="s">
+      <c r="D92" s="97" t="s">
         <v>218</v>
       </c>
-      <c r="E92" s="96"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="120" t="s">
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
+      <c r="G92" s="114" t="s">
         <v>358</v>
       </c>
-      <c r="H92" s="121"/>
-      <c r="I92" s="66" t="s">
+      <c r="H92" s="115"/>
+      <c r="I92" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="J92" s="77" t="s">
+      <c r="J92" s="74" t="s">
         <v>373</v>
       </c>
-      <c r="K92" s="76" t="s">
+      <c r="K92" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="L92" s="44"/>
+      <c r="L92" s="41"/>
     </row>
     <row r="93" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="81"/>
-      <c r="B93" s="91"/>
-      <c r="C93" s="56" t="s">
+      <c r="A93" s="142"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="D93" s="93" t="s">
+      <c r="D93" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="E93" s="96"/>
-      <c r="F93" s="94"/>
-      <c r="G93" s="120" t="s">
+      <c r="E93" s="98"/>
+      <c r="F93" s="99"/>
+      <c r="G93" s="114" t="s">
         <v>225</v>
       </c>
-      <c r="H93" s="121"/>
-      <c r="I93" s="66" t="s">
+      <c r="H93" s="115"/>
+      <c r="I93" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="J93" s="77" t="s">
+      <c r="J93" s="74" t="s">
         <v>374</v>
       </c>
-      <c r="K93" s="76" t="s">
+      <c r="K93" s="73" t="s">
         <v>381</v>
       </c>
       <c r="L93" s="9"/>
     </row>
     <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="81"/>
-      <c r="B94" s="91"/>
-      <c r="C94" s="56" t="s">
+      <c r="A94" s="142"/>
+      <c r="B94" s="104"/>
+      <c r="C94" s="53" t="s">
         <v>223</v>
       </c>
-      <c r="D94" s="93" t="s">
+      <c r="D94" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="E94" s="96"/>
-      <c r="F94" s="94"/>
-      <c r="G94" s="120" t="s">
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
+      <c r="G94" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="H94" s="121"/>
-      <c r="I94" s="66" t="s">
+      <c r="H94" s="115"/>
+      <c r="I94" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="J94" s="77" t="s">
+      <c r="J94" s="74" t="s">
         <v>375</v>
       </c>
-      <c r="K94" s="76" t="s">
+      <c r="K94" s="73" t="s">
         <v>382</v>
       </c>
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="81"/>
-      <c r="B95" s="91"/>
-      <c r="C95" s="56" t="s">
+      <c r="A95" s="142"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="93" t="s">
+      <c r="D95" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="E95" s="96"/>
-      <c r="F95" s="94"/>
-      <c r="G95" s="120" t="s">
+      <c r="E95" s="98"/>
+      <c r="F95" s="99"/>
+      <c r="G95" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="H95" s="121"/>
-      <c r="I95" s="66" t="s">
+      <c r="H95" s="115"/>
+      <c r="I95" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="J95" s="77" t="s">
+      <c r="J95" s="74" t="s">
         <v>376</v>
       </c>
-      <c r="K95" s="76" t="s">
+      <c r="K95" s="73" t="s">
         <v>383</v>
       </c>
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="81"/>
-      <c r="B96" s="91"/>
-      <c r="C96" s="56" t="s">
+      <c r="A96" s="142"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="D96" s="93" t="s">
+      <c r="D96" s="97" t="s">
         <v>357</v>
       </c>
-      <c r="E96" s="96"/>
-      <c r="F96" s="94"/>
-      <c r="G96" s="120" t="s">
+      <c r="E96" s="98"/>
+      <c r="F96" s="99"/>
+      <c r="G96" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="H96" s="121"/>
-      <c r="I96" s="66" t="s">
+      <c r="H96" s="115"/>
+      <c r="I96" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="J96" s="77" t="s">
+      <c r="J96" s="74" t="s">
         <v>377</v>
       </c>
-      <c r="K96" s="76" t="s">
+      <c r="K96" s="73" t="s">
         <v>384</v>
       </c>
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="81"/>
-      <c r="B97" s="91"/>
-      <c r="C97" s="56" t="s">
+      <c r="A97" s="142"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="D97" s="93" t="s">
+      <c r="D97" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="E97" s="94"/>
-      <c r="F97" s="67" t="s">
+      <c r="E97" s="99"/>
+      <c r="F97" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="G97" s="93" t="s">
+      <c r="G97" s="97" t="s">
         <v>229</v>
       </c>
-      <c r="H97" s="94"/>
-      <c r="I97" s="66" t="s">
+      <c r="H97" s="99"/>
+      <c r="I97" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="J97" s="65" t="s">
+      <c r="J97" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="K97" s="52" t="s">
+      <c r="K97" s="49" t="s">
         <v>325</v>
       </c>
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="81"/>
-      <c r="B98" s="91"/>
-      <c r="C98" s="56" t="s">
+      <c r="A98" s="142"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="D98" s="93" t="s">
+      <c r="D98" s="97" t="s">
         <v>230</v>
       </c>
-      <c r="E98" s="94"/>
-      <c r="F98" s="67" t="s">
+      <c r="E98" s="99"/>
+      <c r="F98" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="G98" s="93" t="s">
+      <c r="G98" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="H98" s="94"/>
-      <c r="I98" s="66" t="s">
+      <c r="H98" s="99"/>
+      <c r="I98" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="J98" s="65" t="s">
+      <c r="J98" s="62" t="s">
         <v>254</v>
       </c>
-      <c r="K98" s="52" t="s">
+      <c r="K98" s="49" t="s">
         <v>326</v>
       </c>
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="56" t="s">
+      <c r="A99" s="142"/>
+      <c r="B99" s="105"/>
+      <c r="C99" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="D99" s="93" t="s">
+      <c r="D99" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="E99" s="96"/>
-      <c r="F99" s="96"/>
-      <c r="G99" s="96"/>
-      <c r="H99" s="94"/>
-      <c r="I99" s="66" t="s">
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="98"/>
+      <c r="H99" s="99"/>
+      <c r="I99" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="J99" s="65" t="s">
+      <c r="J99" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="K99" s="52" t="s">
+      <c r="K99" s="49" t="s">
         <v>327</v>
       </c>
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="81" t="s">
+      <c r="A100" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="B100" s="90" t="s">
+      <c r="B100" s="103" t="s">
         <v>207</v>
       </c>
-      <c r="C100" s="42" t="s">
+      <c r="C100" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="115" t="s">
+      <c r="D100" s="106" t="s">
         <v>273</v>
       </c>
-      <c r="E100" s="95"/>
-      <c r="F100" s="95"/>
-      <c r="G100" s="95"/>
-      <c r="H100" s="95"/>
-      <c r="I100" s="95"/>
-      <c r="J100" s="60" t="s">
+      <c r="E100" s="113"/>
+      <c r="F100" s="113"/>
+      <c r="G100" s="113"/>
+      <c r="H100" s="113"/>
+      <c r="I100" s="113"/>
+      <c r="J100" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="K100" s="46" t="s">
+      <c r="K100" s="43" t="s">
         <v>352</v>
       </c>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="81"/>
-      <c r="B101" s="91"/>
-      <c r="C101" s="42" t="s">
+      <c r="A101" s="142"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="115" t="s">
+      <c r="D101" s="106" t="s">
         <v>201</v>
       </c>
-      <c r="E101" s="116"/>
-      <c r="F101" s="116"/>
-      <c r="G101" s="116"/>
-      <c r="H101" s="116"/>
-      <c r="I101" s="116"/>
-      <c r="J101" s="60" t="s">
+      <c r="E101" s="107"/>
+      <c r="F101" s="107"/>
+      <c r="G101" s="107"/>
+      <c r="H101" s="107"/>
+      <c r="I101" s="107"/>
+      <c r="J101" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="K101" s="46" t="s">
+      <c r="K101" s="43" t="s">
         <v>328</v>
       </c>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="81"/>
-      <c r="B102" s="91"/>
-      <c r="C102" s="42" t="s">
+      <c r="A102" s="142"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="115" t="s">
+      <c r="D102" s="106" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="116"/>
-      <c r="F102" s="116"/>
-      <c r="G102" s="116"/>
-      <c r="H102" s="116"/>
-      <c r="I102" s="116"/>
-      <c r="J102" s="60" t="s">
+      <c r="E102" s="107"/>
+      <c r="F102" s="107"/>
+      <c r="G102" s="107"/>
+      <c r="H102" s="107"/>
+      <c r="I102" s="107"/>
+      <c r="J102" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="K102" s="46" t="s">
+      <c r="K102" s="43" t="s">
         <v>329</v>
       </c>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="81"/>
-      <c r="B103" s="91"/>
-      <c r="C103" s="42" t="s">
+      <c r="A103" s="142"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="115" t="s">
+      <c r="D103" s="106" t="s">
         <v>202</v>
       </c>
-      <c r="E103" s="116"/>
-      <c r="F103" s="116"/>
-      <c r="G103" s="116"/>
-      <c r="H103" s="116"/>
-      <c r="I103" s="116"/>
-      <c r="J103" s="60" t="s">
+      <c r="E103" s="107"/>
+      <c r="F103" s="107"/>
+      <c r="G103" s="107"/>
+      <c r="H103" s="107"/>
+      <c r="I103" s="107"/>
+      <c r="J103" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="K103" s="46" t="s">
+      <c r="K103" s="43" t="s">
         <v>330</v>
       </c>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="81"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="42" t="s">
+      <c r="A104" s="142"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D104" s="115" t="s">
+      <c r="D104" s="106" t="s">
         <v>217</v>
       </c>
-      <c r="E104" s="116"/>
-      <c r="F104" s="116"/>
-      <c r="G104" s="116"/>
-      <c r="H104" s="116"/>
-      <c r="I104" s="116"/>
-      <c r="J104" s="60" t="s">
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="K104" s="46" t="s">
+      <c r="K104" s="43" t="s">
         <v>331</v>
       </c>
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="81"/>
-      <c r="B105" s="88" t="s">
+      <c r="A105" s="142"/>
+      <c r="B105" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="D105" s="95" t="s">
+      <c r="D105" s="113" t="s">
         <v>205</v>
       </c>
-      <c r="E105" s="95"/>
-      <c r="F105" s="95"/>
-      <c r="G105" s="95"/>
-      <c r="H105" s="95"/>
-      <c r="I105" s="95"/>
-      <c r="J105" s="60" t="s">
+      <c r="E105" s="113"/>
+      <c r="F105" s="113"/>
+      <c r="G105" s="113"/>
+      <c r="H105" s="113"/>
+      <c r="I105" s="113"/>
+      <c r="J105" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="K105" s="46" t="s">
+      <c r="K105" s="43" t="s">
         <v>332</v>
       </c>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="81"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="42" t="s">
+      <c r="A106" s="142"/>
+      <c r="B106" s="102"/>
+      <c r="C106" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="98" t="s">
+      <c r="D106" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="E106" s="98"/>
-      <c r="F106" s="98"/>
-      <c r="G106" s="53" t="s">
+      <c r="E106" s="111"/>
+      <c r="F106" s="111"/>
+      <c r="G106" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="H106" s="122" t="s">
+      <c r="H106" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="I106" s="122"/>
-      <c r="J106" s="60" t="s">
+      <c r="I106" s="131"/>
+      <c r="J106" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="K106" s="46" t="s">
+      <c r="K106" s="43" t="s">
         <v>333</v>
       </c>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="81"/>
-      <c r="B107" s="88"/>
-      <c r="C107" s="42" t="s">
+      <c r="A107" s="142"/>
+      <c r="B107" s="102"/>
+      <c r="C107" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="95" t="s">
+      <c r="D107" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="95"/>
-      <c r="G107" s="95"/>
-      <c r="H107" s="95"/>
-      <c r="I107" s="95"/>
-      <c r="J107" s="60" t="s">
+      <c r="E107" s="113"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="113"/>
+      <c r="H107" s="113"/>
+      <c r="I107" s="113"/>
+      <c r="J107" s="57" t="s">
         <v>336</v>
       </c>
-      <c r="K107" s="46" t="s">
+      <c r="K107" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="L107" s="58"/>
+      <c r="L107" s="55"/>
     </row>
     <row r="108" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="81"/>
-      <c r="B108" s="88"/>
-      <c r="C108" s="42" t="s">
+      <c r="A108" s="142"/>
+      <c r="B108" s="102"/>
+      <c r="C108" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="95" t="s">
+      <c r="D108" s="113" t="s">
         <v>241</v>
       </c>
-      <c r="E108" s="95"/>
-      <c r="F108" s="95"/>
-      <c r="G108" s="95"/>
-      <c r="H108" s="95"/>
-      <c r="I108" s="95"/>
-      <c r="J108" s="60" t="s">
+      <c r="E108" s="113"/>
+      <c r="F108" s="113"/>
+      <c r="G108" s="113"/>
+      <c r="H108" s="113"/>
+      <c r="I108" s="113"/>
+      <c r="J108" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="K108" s="46" t="s">
+      <c r="K108" s="43" t="s">
         <v>334</v>
       </c>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="82"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="42" t="s">
+      <c r="A109" s="143"/>
+      <c r="B109" s="102"/>
+      <c r="C109" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="95" t="s">
+      <c r="D109" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="95"/>
-      <c r="F109" s="95"/>
-      <c r="G109" s="95"/>
-      <c r="H109" s="95"/>
-      <c r="I109" s="95"/>
-      <c r="J109" s="60" t="s">
+      <c r="E109" s="113"/>
+      <c r="F109" s="113"/>
+      <c r="G109" s="113"/>
+      <c r="H109" s="113"/>
+      <c r="I109" s="113"/>
+      <c r="J109" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="K109" s="46" t="s">
+      <c r="K109" s="43" t="s">
         <v>335</v>
       </c>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="27"/>
-      <c r="B110" s="27"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="36"/>
+    <row r="110" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="B110" s="151" t="s">
+        <v>407</v>
+      </c>
+      <c r="C110" s="150" t="s">
+        <v>393</v>
+      </c>
+      <c r="D110" s="150"/>
+      <c r="E110" s="150"/>
+      <c r="F110" s="150"/>
+      <c r="G110" s="150"/>
+      <c r="H110" s="150"/>
+      <c r="I110" s="150"/>
+      <c r="J110" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="K110" s="152" t="s">
+        <v>410</v>
+      </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C112" s="10" t="s">
+    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A111" s="151"/>
+      <c r="B111" s="151"/>
+      <c r="C111" s="150" t="s">
+        <v>394</v>
+      </c>
+      <c r="D111" s="150"/>
+      <c r="E111" s="150"/>
+      <c r="F111" s="150"/>
+      <c r="G111" s="150"/>
+      <c r="H111" s="150"/>
+      <c r="I111" s="150"/>
+      <c r="J111" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="K111" s="152" t="s">
+        <v>411</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A112" s="151"/>
+      <c r="B112" s="151"/>
+      <c r="C112" s="150" t="s">
+        <v>395</v>
+      </c>
+      <c r="D112" s="150"/>
+      <c r="E112" s="150"/>
+      <c r="F112" s="150"/>
+      <c r="G112" s="150"/>
+      <c r="H112" s="150"/>
+      <c r="I112" s="150"/>
+      <c r="J112" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="K112" s="152" t="s">
+        <v>412</v>
+      </c>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A113" s="151"/>
+      <c r="B113" s="151"/>
+      <c r="C113" s="150" t="s">
+        <v>396</v>
+      </c>
+      <c r="D113" s="150"/>
+      <c r="E113" s="150"/>
+      <c r="F113" s="150"/>
+      <c r="G113" s="150"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="150"/>
+      <c r="J113" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="K113" s="152" t="s">
+        <v>413</v>
+      </c>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A114" s="151"/>
+      <c r="B114" s="151"/>
+      <c r="C114" s="150" t="s">
+        <v>397</v>
+      </c>
+      <c r="D114" s="150"/>
+      <c r="E114" s="150"/>
+      <c r="F114" s="150"/>
+      <c r="G114" s="150"/>
+      <c r="H114" s="150"/>
+      <c r="I114" s="150"/>
+      <c r="J114" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="K114" s="152" t="s">
+        <v>414</v>
+      </c>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A115" s="151"/>
+      <c r="B115" s="151"/>
+      <c r="C115" s="150" t="s">
+        <v>398</v>
+      </c>
+      <c r="D115" s="150"/>
+      <c r="E115" s="150"/>
+      <c r="F115" s="150"/>
+      <c r="G115" s="150"/>
+      <c r="H115" s="150"/>
+      <c r="I115" s="150"/>
+      <c r="J115" s="78" t="s">
+        <v>428</v>
+      </c>
+      <c r="K115" s="152" t="s">
+        <v>415</v>
+      </c>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A116" s="151"/>
+      <c r="B116" s="151"/>
+      <c r="C116" s="150" t="s">
+        <v>399</v>
+      </c>
+      <c r="D116" s="150"/>
+      <c r="E116" s="150"/>
+      <c r="F116" s="150"/>
+      <c r="G116" s="150"/>
+      <c r="H116" s="150"/>
+      <c r="I116" s="150"/>
+      <c r="J116" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="K116" s="152" t="s">
+        <v>416</v>
+      </c>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A117" s="151"/>
+      <c r="B117" s="151"/>
+      <c r="C117" s="150" t="s">
+        <v>400</v>
+      </c>
+      <c r="D117" s="150"/>
+      <c r="E117" s="150"/>
+      <c r="F117" s="150"/>
+      <c r="G117" s="150"/>
+      <c r="H117" s="150"/>
+      <c r="I117" s="150"/>
+      <c r="J117" s="78" t="s">
+        <v>430</v>
+      </c>
+      <c r="K117" s="152" t="s">
+        <v>417</v>
+      </c>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A118" s="151"/>
+      <c r="B118" s="151"/>
+      <c r="C118" s="150" t="s">
+        <v>401</v>
+      </c>
+      <c r="D118" s="150"/>
+      <c r="E118" s="150"/>
+      <c r="F118" s="150"/>
+      <c r="G118" s="150"/>
+      <c r="H118" s="150"/>
+      <c r="I118" s="150"/>
+      <c r="J118" s="78" t="s">
+        <v>431</v>
+      </c>
+      <c r="K118" s="152" t="s">
+        <v>418</v>
+      </c>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A119" s="151"/>
+      <c r="B119" s="151"/>
+      <c r="C119" s="150" t="s">
+        <v>402</v>
+      </c>
+      <c r="D119" s="150"/>
+      <c r="E119" s="150"/>
+      <c r="F119" s="150"/>
+      <c r="G119" s="150"/>
+      <c r="H119" s="150"/>
+      <c r="I119" s="150"/>
+      <c r="J119" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="K119" s="152" t="s">
+        <v>419</v>
+      </c>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A120" s="151"/>
+      <c r="B120" s="151"/>
+      <c r="C120" s="150" t="s">
+        <v>403</v>
+      </c>
+      <c r="D120" s="150"/>
+      <c r="E120" s="150"/>
+      <c r="F120" s="150"/>
+      <c r="G120" s="150"/>
+      <c r="H120" s="150"/>
+      <c r="I120" s="150"/>
+      <c r="J120" s="78" t="s">
+        <v>433</v>
+      </c>
+      <c r="K120" s="152" t="s">
+        <v>420</v>
+      </c>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A121" s="151"/>
+      <c r="B121" s="151"/>
+      <c r="C121" s="150" t="s">
+        <v>404</v>
+      </c>
+      <c r="D121" s="150"/>
+      <c r="E121" s="150"/>
+      <c r="F121" s="150"/>
+      <c r="G121" s="150"/>
+      <c r="H121" s="150"/>
+      <c r="I121" s="150"/>
+      <c r="J121" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="K121" s="152" t="s">
+        <v>421</v>
+      </c>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A122" s="151"/>
+      <c r="B122" s="151"/>
+      <c r="C122" s="150" t="s">
+        <v>405</v>
+      </c>
+      <c r="D122" s="150"/>
+      <c r="E122" s="150"/>
+      <c r="F122" s="150"/>
+      <c r="G122" s="150"/>
+      <c r="H122" s="150"/>
+      <c r="I122" s="150"/>
+      <c r="J122" s="78" t="s">
+        <v>435</v>
+      </c>
+      <c r="K122" s="152" t="s">
+        <v>422</v>
+      </c>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A123" s="151"/>
+      <c r="B123" s="151"/>
+      <c r="C123" s="150" t="s">
+        <v>406</v>
+      </c>
+      <c r="D123" s="150"/>
+      <c r="E123" s="150"/>
+      <c r="F123" s="150"/>
+      <c r="G123" s="150"/>
+      <c r="H123" s="150"/>
+      <c r="I123" s="150"/>
+      <c r="J123" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="K123" s="152" t="s">
+        <v>423</v>
+      </c>
+      <c r="L123" s="9"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C125" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B114" s="11" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C114" s="13" t="str">
-        <f>IF(COUNTIF(A1:L111,"不合格")&gt;0,"不合格","合格")</f>
+      <c r="C127" s="13" t="str">
+        <f>IF(COUNTIF(A1:L124,"不合格")&gt;0,"不合格","合格")</f>
         <v>合格</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D127" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E114" s="112"/>
-      <c r="F114" s="112"/>
-      <c r="G114" s="12" t="s">
+      <c r="E127" s="127" t="s">
+        <v>437</v>
+      </c>
+      <c r="F127" s="127"/>
+      <c r="G127" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H114" s="113"/>
-      <c r="I114" s="113"/>
-      <c r="J114" s="8" t="s">
+      <c r="H127" s="128" t="s">
+        <v>439</v>
+      </c>
+      <c r="I127" s="128"/>
+      <c r="J127" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="K114" s="37"/>
+      <c r="K127" s="34" t="s">
+        <v>438</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="219">
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="D76:I76"/>
-    <mergeCell ref="J75:J82"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="J59:J66"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K73:K74"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="B70:B87"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="B57:B69"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:I71"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D89:F89"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B88:B99"/>
-    <mergeCell ref="D88:H88"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D68:I68"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="C59:C66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C75:C82"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K71:K72"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D83:F83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="K59:K66"/>
-    <mergeCell ref="K75:K82"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K34:K35"/>
+  <mergeCells count="235">
+    <mergeCell ref="C118:I118"/>
+    <mergeCell ref="C119:I119"/>
+    <mergeCell ref="C120:I120"/>
+    <mergeCell ref="C121:I121"/>
+    <mergeCell ref="C122:I122"/>
+    <mergeCell ref="C123:I123"/>
+    <mergeCell ref="B110:B123"/>
+    <mergeCell ref="A110:A123"/>
+    <mergeCell ref="C110:I110"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="C112:I112"/>
+    <mergeCell ref="C113:I113"/>
+    <mergeCell ref="C114:I114"/>
+    <mergeCell ref="C115:I115"/>
+    <mergeCell ref="C116:I116"/>
+    <mergeCell ref="C117:I117"/>
+    <mergeCell ref="A100:A109"/>
+    <mergeCell ref="A57:A99"/>
+    <mergeCell ref="J57:J58"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="J73:J74"/>
+    <mergeCell ref="J71:J72"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A18:A56"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="H127:I127"/>
+    <mergeCell ref="D82:I82"/>
+    <mergeCell ref="D100:I100"/>
+    <mergeCell ref="D78:I78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D84:I84"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="H106:I106"/>
     <mergeCell ref="L13:L17"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D27:E27"/>
@@ -5699,93 +6478,128 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E114:F114"/>
-    <mergeCell ref="H114:I114"/>
-    <mergeCell ref="D82:I82"/>
-    <mergeCell ref="D100:I100"/>
-    <mergeCell ref="D78:I78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D84:I84"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A100:A109"/>
-    <mergeCell ref="A57:A99"/>
-    <mergeCell ref="J57:J58"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J71:J72"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A18:A56"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K71:K72"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D83:F83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="K59:K66"/>
+    <mergeCell ref="K75:K82"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="B57:B69"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D68:I68"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="C59:C66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="B105:B109"/>
+    <mergeCell ref="B70:B87"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:I71"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D89:F89"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="B88:B99"/>
+    <mergeCell ref="D88:H88"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="D76:I76"/>
+    <mergeCell ref="J75:J82"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="J59:J66"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D51:I51"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K34:K35"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J57 J52:J55 J13:J25 J73 J27:J35 J40:J50 J75:J109 J59:J71">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"不合格"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"合格"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
     <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -5793,11 +6607,11 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="J110:J123">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB66A144-C02E-4BD5-BC62-157779A664CE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2C1DBE2A-8D54-4E96-ABC5-C113DC45CF81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="439">
   <si>
     <t>检测项目</t>
   </si>
@@ -392,11 +392,11 @@
   </si>
   <si>
     <t>测试结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制器贴有已检标记</t>
@@ -424,38 +424,38 @@
   </si>
   <si>
     <t>流程卡检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试前准备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BOOT版本检查</t>
   </si>
   <si>
     <t>BOOT版本检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表1编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表2编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铭牌编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>读取电表1编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>读取电表2编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -500,163 +500,163 @@
       </rPr>
       <t>”标识</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>硬件自检</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPRS上线状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>断电后读取系统时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铁存功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RS485功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表2功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表1功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Flash功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时钟功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表时间核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用钳表（交流20A）测量A 相电流，观察静态功耗不大于150mA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1电平连接状态检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测量值：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插枪前测量值：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1电池反接告警</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插枪后测量值：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电流：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电压：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1辅助电源输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2电平连接状态检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2绝缘检测功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2辅助电源输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1手动解锁功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>按下手动解锁按钮，10秒后能停止充电，充电枪能解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪头温度测温点1温度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪头温度测温点2温度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪2手动解锁功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LED面板显示读数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件测试值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>判断软件读出的值与电表值及LED读数值一致</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>急停功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>热交换机检测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直流档板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>铭牌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示板盖</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直流回路安装直流档板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示板盖安装好，螺丝装齐，无压住线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -682,150 +682,150 @@
   </si>
   <si>
     <t>检查结果：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>检查人：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日  期：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>审核人：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">TCCE </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>广东万城万充电动车运营股份有限公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生产批号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>资产编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整机编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>型号规格：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>控制器编号:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SIM卡编号:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>表格版本：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示板号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继电板编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">■ MQC6000-90  </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝缘检测板编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>K60（DCM）板编号:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CPU板编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4G模块编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>电源板编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>背板编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直流充电机整机出厂检验报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>桩编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辅助电源输出应为12V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>输出电压</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>门节点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>防雷器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>显示模块检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> V2.0-180131</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪型号记录</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result1</t>
   </si>
   <si>
     <t>value28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result29</t>
@@ -838,685 +838,677 @@
   </si>
   <si>
     <t>value21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value23</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value29</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>设置系统时间</t>
   </si>
   <si>
     <t>result35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{24,25,39,40,41,42}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{35,36}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{37,38}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value52</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{51,52}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result53</t>
   </si>
   <si>
     <t>result54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{90,93}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{91,94}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{92,95}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result108</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result111</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当前枪为</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value106</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value98</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制盒编号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result22</t>
   </si>
   <si>
     <t>result23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result105</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>龙立/多思达</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整机功耗（手填）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>看门狗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K60应用程序版本检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K64应用程序版本检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DCM板（K60)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>触点情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制板（K64)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{24,25}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调试插座</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上电,读取软件版本，版本无误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LED面板全亮5秒，无显示块亮度偏暗、显示缺划、亮度不一致现象
 2、喇叭播放语音。 （程序暂未支持,不能操作）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上电及版本检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统时间设置
 及核对</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制板（K64)看门狗有效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>发送校正命令，对DCM板进行校正，返回报文显示校正成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>校正、时间检查、看门狗功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插座及整机功耗检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K60应用程序编译时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K64应用程序编译时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>上电前检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、 插上SIM卡，登记卡号，桩编号
 2、 做好上电准备，检查输入接线正确，地线紧固</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充电枪1温度检测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电枪2温度检测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value82</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value83</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充电枪温度检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1充电功能检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>APP能启动充电，充电正常后，按下急停后可以停止充电</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电池反接故障解除，显示面板故障指示灯显示“X”消失，显示正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电池反接故障状态下，显示面板中故障指示灯显示“X”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>绝缘告警状态，显示面板中故障指示灯显示“X”，模块正常输出电压</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result69</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2电池反接检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充电正常后，接入负载，看电表读数电流2.77A，电压:AC 350V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>枪1 APP充电功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2 APP充电功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2充电功能检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1枪K1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1枪K2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2枪K1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2枪K2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>能检测到急停按钮按下和正常状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能检测到门节点门关和门开状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能检测到防雷器告警和正常状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>通讯功能正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K60看门狗插片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>拔除K60板串口线时，检查K60看门狗短路插片JP2不安装</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>下电检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外部IO口检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制反馈情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>电表编号检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1绝缘检测功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝缘告警状态，显示面板中故障指示灯显示“X”，模块正常输出电压</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝缘故障状态，显示面板中故障指示灯显示“X”，模块不能输出电压</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>绝缘故障状态，显示面板中故障指示灯显示“X”，模块不能输出电压</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>充电流程启动后，4D-4,6D-6有220V电压输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>- -</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>交流复位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发送交流复位指令，控制盒正常断电重启</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>闭合1枪K1K2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块1测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块2输出（电表1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块1输出（电表1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块3输出（电表1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块6测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块5测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块5输出（电表2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块6输出（电表2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块1、2泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块3泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块4、5泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块6泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有直流继电器恢复到出厂状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>继电器还原</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整机功能
 测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块2测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块3测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块4测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1泄放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>充电模块检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>铭牌、二维码信息确认对应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪1二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>枪2二维码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>插座电压正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result121</t>
   </si>
   <si>
     <t>result121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result86</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{82,83}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{80,81}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>确保充电枪连接成功，启动充电，模块能正常输出电压,充电进度条滚动，对应枪有电压输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>value56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value57</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{67,68}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result78</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1、 插枪1==》APP扫码启动充电
@@ -1524,359 +1516,359 @@
 正常充电中，按下急停按钮，接触器应全部断开，且操作面板显示充电枪“X”
 刷卡1结算充电，刷卡2结算充电 
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1枪K3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1枪K4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2枪K4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2枪K3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result122</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result124</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result125</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result136</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result137</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result138</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result139</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result142</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time101</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time105</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time35</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time82</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time53</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time54</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time56</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time96</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time69</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time70</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time72</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time78</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time97</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time85</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time121</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time119</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time90</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time91</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time92</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time86</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time110</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time106</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time108</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>time111</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result107</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time107</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result{72,73}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{56,57}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result{120,96}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result42</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result41</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AC220V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result46</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time96</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块7测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块8测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闭合2枪K1K2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块4输出（电表1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块7输出（电表2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块8输出（电表2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value155</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>value156</t>
@@ -1901,11 +1893,11 @@
   </si>
   <si>
     <t>result155</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time155</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result156</t>
@@ -1951,540 +1943,212 @@
   </si>
   <si>
     <t>继电器反馈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模块厂家代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0:华为 1:英可瑞 2:麦格米特</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>time71</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件版本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>整机状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>室外温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>室内温度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高温告警</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低温告警</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内温感失效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内风机故障</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外风机故障</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制冷点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>制冷回差</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高温点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>低温点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内风机停止点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调参数检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空调测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>result184</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime184</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime185</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime186</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime187</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime188</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime189</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime190</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime191</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime192</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime193</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime194</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime195</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime196</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ime197</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result185</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑俊贤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>result186</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result187</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result188</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result189</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result191</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result192</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result193</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result194</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result195</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result196</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>result197</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶斯君</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑俊贤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>result198</t>
+  </si>
+  <si>
+    <t>time185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time186</t>
+  </si>
+  <si>
+    <t>time187</t>
+  </si>
+  <si>
+    <t>time188</t>
+  </si>
+  <si>
+    <t>time189</t>
+  </si>
+  <si>
+    <t>time190</t>
+  </si>
+  <si>
+    <t>time191</t>
+  </si>
+  <si>
+    <t>time192</t>
+  </si>
+  <si>
+    <t>time193</t>
+  </si>
+  <si>
+    <t>time194</t>
+  </si>
+  <si>
+    <t>time195</t>
+  </si>
+  <si>
+    <t>time196</t>
+  </si>
+  <si>
+    <t>time197</t>
+  </si>
+  <si>
+    <t>time198</t>
+  </si>
+  <si>
+    <t>value183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2772,150 +2436,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2924,317 +2627,281 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3632,8 +3299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H127" sqref="H127:I127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3664,27 +3331,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="138"/>
+      <c r="B3" s="140"/>
       <c r="C3" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="138"/>
-      <c r="F3" s="141" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="143" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="135" t="s">
+      <c r="G3" s="143"/>
+      <c r="H3" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3699,50 +3366,50 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="140"/>
       <c r="C5" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="65" t="s">
-        <v>138</v>
+      <c r="E5" s="137"/>
+      <c r="F5" s="69" t="s">
+        <v>137</v>
       </c>
       <c r="G5" s="65"/>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="132" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="132"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="134" t="s">
+        <v>438</v>
+      </c>
+      <c r="K5" s="134"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="138"/>
+      <c r="B6" s="140"/>
       <c r="C6" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="E6" s="136"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="66" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6" s="66"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="135"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
@@ -3758,48 +3425,48 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="138" t="s">
+      <c r="A8" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="138"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="69"/>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="141" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="139"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="135" t="s">
+      <c r="E8" s="141"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="135"/>
-      <c r="J8" s="134"/>
-      <c r="K8" s="134"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="136"/>
+      <c r="K8" s="136"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="140"/>
+      <c r="B9" s="142"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="135" t="s">
+      <c r="E9" s="137"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="135"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="136"/>
+      <c r="K9" s="136"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="140"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="24"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3824,19 +3491,19 @@
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="102" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="39" t="s">
         <v>2</v>
       </c>
@@ -3845,531 +3512,531 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="149" t="s">
+      <c r="B13" s="151" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="137" t="s">
+      <c r="D13" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
       <c r="J13" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K13" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="126"/>
+        <v>286</v>
+      </c>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="103"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
       <c r="J14" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K14" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="126"/>
+        <v>286</v>
+      </c>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="103"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="137" t="s">
+      <c r="D15" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="137"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
       <c r="J15" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K15" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L15" s="126"/>
+        <v>286</v>
+      </c>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="137"/>
-      <c r="H16" s="137"/>
-      <c r="I16" s="137"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
       <c r="J16" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K16" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L16" s="126"/>
+        <v>286</v>
+      </c>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="149"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="137" t="s">
+      <c r="D17" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="137"/>
-      <c r="F17" s="137"/>
-      <c r="G17" s="137"/>
-      <c r="H17" s="137"/>
-      <c r="I17" s="137"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
       <c r="J17" s="56" t="s">
         <v>97</v>
       </c>
       <c r="K17" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L17" s="126"/>
+        <v>286</v>
+      </c>
+      <c r="L17" s="128"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="103" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>164</v>
+      <c r="A18" s="104" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>162</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" s="106" t="s">
-        <v>174</v>
-      </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+        <v>171</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>172</v>
+      </c>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
       <c r="J18" s="57" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K18" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="104"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="106" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
+      <c r="D19" s="107" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="57" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K19" s="43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="104"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="106" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
+      <c r="D20" s="107" t="s">
+        <v>160</v>
+      </c>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="57" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K20" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="104"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="111" t="s">
-        <v>156</v>
-      </c>
-      <c r="D21" s="82" t="s">
+      <c r="A21" s="105"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="109" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="116" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="126"/>
       <c r="J21" s="57" t="s">
         <v>99</v>
       </c>
       <c r="K21" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="104"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="116" t="s">
+      <c r="A22" s="105"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
       <c r="J22" s="57" t="s">
         <v>100</v>
       </c>
       <c r="K22" s="43" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="104"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
+      <c r="A23" s="105"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="84" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
       <c r="J23" s="57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K23" s="43" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L23" s="35"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="104"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="D24" s="82" t="s">
+      <c r="A24" s="105"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="109" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="116" t="s">
+      <c r="E24" s="84"/>
+      <c r="F24" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
       <c r="J24" s="57" t="s">
         <v>101</v>
       </c>
       <c r="K24" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="104"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="82" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="116" t="s">
+      <c r="A25" s="105"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
       <c r="J25" s="57" t="s">
         <v>102</v>
       </c>
       <c r="K25" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="105"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="84"/>
+      <c r="F26" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="126"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" s="43" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="105"/>
+      <c r="B27" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="126"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="K27" s="43" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="105"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" s="84"/>
+      <c r="F28" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="126"/>
+      <c r="H28" s="126"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K28" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="L25" s="35"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="104"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="116" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="K26" s="43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="104"/>
-      <c r="B27" s="102" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="82" t="s">
-        <v>244</v>
-      </c>
-      <c r="E27" s="82"/>
-      <c r="F27" s="116" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="43" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="104"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="82" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="82"/>
-      <c r="F28" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" s="43" t="s">
-        <v>295</v>
-      </c>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="82" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="116" t="s">
+      <c r="E29" s="84"/>
+      <c r="F29" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="126"/>
+      <c r="I29" s="126"/>
       <c r="J29" s="57" t="s">
         <v>116</v>
       </c>
       <c r="K29" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="104"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="82" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="116" t="s">
+      <c r="E30" s="84"/>
+      <c r="F30" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="126"/>
+      <c r="I30" s="126"/>
       <c r="J30" s="57" t="s">
         <v>117</v>
       </c>
       <c r="K30" s="43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="105"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="84"/>
+      <c r="F31" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" s="25"/>
+    </row>
+    <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="105"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="84"/>
+      <c r="F32" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="126"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="43" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="82" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="82"/>
-      <c r="F31" s="116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="57" t="s">
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="105"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="84"/>
+      <c r="F33" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="126"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="K31" s="43" t="s">
+      <c r="K33" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="L31" s="25"/>
-    </row>
-    <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="82" t="s">
+    </row>
+    <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="105"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="109" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="84"/>
+      <c r="F34" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="K34" s="85" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="105"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="84"/>
+      <c r="F35" s="126" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="116" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="K33" s="43" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="116" t="s">
-        <v>143</v>
-      </c>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="79" t="s">
-        <v>159</v>
-      </c>
-      <c r="K34" s="83" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="116" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="84"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="86"/>
     </row>
     <row r="36" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="104"/>
-      <c r="B36" s="142" t="s">
-        <v>385</v>
+      <c r="A36" s="105"/>
+      <c r="B36" s="144" t="s">
+        <v>383</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E36" s="58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G36" s="58" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H36" s="51"/>
       <c r="I36" s="58"/>
@@ -4378,54 +4045,54 @@
       <c r="L36" s="36"/>
     </row>
     <row r="37" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="104"/>
-      <c r="B37" s="142"/>
+      <c r="A37" s="105"/>
+      <c r="B37" s="144"/>
       <c r="C37" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D37" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="I37" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="J37" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="K37" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" s="36"/>
+    </row>
+    <row r="38" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="105"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="51" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="F37" s="51" t="s">
+      <c r="E38" s="58" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="G37" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="H37" s="51" t="s">
-        <v>274</v>
-      </c>
-      <c r="I37" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="J37" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="K37" s="58" t="s">
-        <v>286</v>
-      </c>
-      <c r="L37" s="36"/>
-    </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="104"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>199</v>
-      </c>
       <c r="G38" s="58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H38" s="51"/>
       <c r="I38" s="58"/>
@@ -4434,387 +4101,387 @@
       <c r="L38" s="36"/>
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="104"/>
-      <c r="B39" s="143"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="145"/>
       <c r="C39" s="51" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E39" s="58" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G39" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>275</v>
+      </c>
+      <c r="I39" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="H39" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="I39" s="58" t="s">
-        <v>287</v>
-      </c>
       <c r="J39" s="51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K39" s="58" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L39" s="36"/>
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="104"/>
-      <c r="B40" s="112" t="s">
-        <v>170</v>
+      <c r="A40" s="105"/>
+      <c r="B40" s="111" t="s">
+        <v>168</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="D40" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
+        <v>158</v>
+      </c>
+      <c r="D40" s="96" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
       <c r="J40" s="59" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K40" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L40" s="36"/>
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="104"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="82" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="86" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="86"/>
-      <c r="F41" s="86"/>
-      <c r="G41" s="86"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="100" t="s">
-        <v>347</v>
-      </c>
-      <c r="K41" s="101" t="s">
-        <v>303</v>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="101" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" s="102" t="s">
+        <v>301</v>
       </c>
       <c r="L41" s="36"/>
     </row>
     <row r="42" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="104"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="84"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
       <c r="G42" s="47" t="s">
         <v>37</v>
       </c>
       <c r="H42" s="117" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I42" s="119"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="102"/>
       <c r="L42" s="36"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="104"/>
-      <c r="B43" s="102" t="s">
+      <c r="A43" s="105"/>
+      <c r="B43" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="111" t="s">
+      <c r="C43" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="82"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="59" t="s">
+        <v>339</v>
+      </c>
+      <c r="G43" s="84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="84"/>
+      <c r="I43" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="G43" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="J43" s="79" t="s">
+      <c r="J43" s="81" t="s">
         <v>118</v>
       </c>
-      <c r="K43" s="85" t="s">
-        <v>304</v>
+      <c r="K43" s="87" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="104"/>
-      <c r="B44" s="102"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="82" t="s">
+      <c r="A44" s="105"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="82"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="59" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" s="84" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="84"/>
+      <c r="I44" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="G44" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="H44" s="82"/>
-      <c r="I44" s="59" t="s">
-        <v>344</v>
-      </c>
-      <c r="J44" s="79"/>
-      <c r="K44" s="85"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="87"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="104"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="82" t="s">
+      <c r="A45" s="105"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="82"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="G45" s="82" t="s">
+      <c r="G45" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="82"/>
+      <c r="H45" s="84"/>
       <c r="I45" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="85"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="87"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="104"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="82" t="s">
+      <c r="A46" s="105"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="82"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="84"/>
       <c r="I46" s="59"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="85"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="87"/>
     </row>
     <row r="47" spans="1:12" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="104"/>
-      <c r="B47" s="102" t="s">
-        <v>169</v>
+      <c r="A47" s="105"/>
+      <c r="B47" s="103" t="s">
+        <v>167</v>
       </c>
       <c r="C47" s="45" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
+        <v>150</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
       <c r="J47" s="59" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K47" s="46" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L47" s="36"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="104"/>
-      <c r="B48" s="102"/>
+      <c r="A48" s="105"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="39" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="123" t="s">
+      <c r="E48" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="F48" s="124"/>
+      <c r="F48" s="100"/>
       <c r="G48" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="123" t="s">
+      <c r="H48" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="I48" s="124"/>
+      <c r="I48" s="100"/>
       <c r="J48" s="57" t="s">
         <v>120</v>
       </c>
       <c r="K48" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="104"/>
-      <c r="B49" s="102"/>
-      <c r="C49" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="82" t="s">
+      <c r="A49" s="105"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="103" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="82"/>
-      <c r="F49" s="123" t="s">
-        <v>249</v>
-      </c>
-      <c r="G49" s="124"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="G49" s="100"/>
       <c r="H49" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I49" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="J49" s="80" t="s">
+      <c r="J49" s="82" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="83" t="s">
-        <v>307</v>
+      <c r="K49" s="85" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="104"/>
-      <c r="B50" s="102"/>
-      <c r="C50" s="102"/>
-      <c r="D50" s="82" t="s">
+      <c r="A50" s="105"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="82"/>
-      <c r="F50" s="124" t="s">
-        <v>250</v>
-      </c>
-      <c r="G50" s="124"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="G50" s="100"/>
       <c r="H50" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I50" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="J50" s="81"/>
-      <c r="K50" s="84"/>
+      <c r="J50" s="83"/>
+      <c r="K50" s="86"/>
       <c r="L50" s="35"/>
     </row>
     <row r="51" spans="1:12" s="37" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="104"/>
-      <c r="B51" s="102"/>
+      <c r="A51" s="105"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
+        <v>151</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
       <c r="J51" s="59" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K51" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="L51" s="36"/>
+    </row>
+    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="105"/>
+      <c r="B52" s="103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="91"/>
+      <c r="F52" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="91"/>
+      <c r="I52" s="72" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="K52" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L52" s="9"/>
+    </row>
+    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="105"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="91"/>
+      <c r="F53" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" s="91"/>
+      <c r="I53" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>256</v>
+      </c>
+      <c r="K53" s="43" t="s">
         <v>308</v>
       </c>
-      <c r="L51" s="36"/>
-    </row>
-    <row r="52" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="104"/>
-      <c r="B52" s="102" t="s">
-        <v>181</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" s="89"/>
-      <c r="F52" s="72" t="s">
-        <v>177</v>
-      </c>
-      <c r="G52" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" s="89"/>
-      <c r="I52" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" s="57" t="s">
-        <v>257</v>
-      </c>
-      <c r="K52" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="104"/>
-      <c r="B53" s="102"/>
-      <c r="C53" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="89"/>
-      <c r="F53" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="G53" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" s="89"/>
-      <c r="I53" s="72" t="s">
+    </row>
+    <row r="54" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="105"/>
+      <c r="B54" s="103" t="s">
         <v>180</v>
-      </c>
-      <c r="J53" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="K53" s="43" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="104"/>
-      <c r="B54" s="102" t="s">
-        <v>182</v>
       </c>
       <c r="C54" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E54" s="82"/>
+      <c r="E54" s="84"/>
       <c r="F54" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="G54" s="82" t="s">
+      <c r="G54" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="H54" s="82"/>
+      <c r="H54" s="84"/>
       <c r="I54" s="60" t="s">
         <v>122</v>
       </c>
@@ -4822,1499 +4489,1499 @@
         <v>123</v>
       </c>
       <c r="K54" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="105"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="88"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="88"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
+      <c r="J55" s="149" t="s">
+        <v>124</v>
+      </c>
+      <c r="K55" s="87" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="106"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="109"/>
+      <c r="D56" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="150"/>
+      <c r="K56" s="87"/>
+    </row>
+    <row r="57" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="147" t="s">
+        <v>125</v>
+      </c>
+      <c r="K57" s="97" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="104"/>
-      <c r="B55" s="102"/>
-      <c r="C55" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="147" t="s">
-        <v>124</v>
-      </c>
-      <c r="K55" s="85" t="s">
+      <c r="L57" s="36"/>
+    </row>
+    <row r="58" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="144"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="96" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="148"/>
+      <c r="K58" s="98"/>
+      <c r="L58" s="36"/>
+    </row>
+    <row r="59" spans="1:12" s="37" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="144"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="K59" s="85" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="148"/>
-      <c r="K56" s="85"/>
-    </row>
-    <row r="57" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="B57" s="102" t="s">
-        <v>183</v>
-      </c>
-      <c r="C57" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="D57" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="K57" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="L57" s="36"/>
-    </row>
-    <row r="58" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="142"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="112"/>
-      <c r="D58" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
-      <c r="G58" s="94"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="94"/>
-      <c r="J58" s="146"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="36"/>
-    </row>
-    <row r="59" spans="1:12" s="37" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="142"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="122" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="94" t="s">
+      <c r="L59" s="36"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="144"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="94"/>
+      <c r="K60" s="127"/>
+    </row>
+    <row r="61" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="144"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="84"/>
+      <c r="F61" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="84"/>
+      <c r="I61" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
-      <c r="G59" s="94"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="94"/>
-      <c r="J59" s="91" t="s">
-        <v>339</v>
-      </c>
-      <c r="K59" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="L59" s="36"/>
-    </row>
-    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="142"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="125"/>
-    </row>
-    <row r="61" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="142"/>
-      <c r="B61" s="102"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="82" t="s">
+      <c r="J61" s="94"/>
+      <c r="K61" s="127"/>
+      <c r="L61" s="9"/>
+    </row>
+    <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="144"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="88"/>
+      <c r="F62" s="88"/>
+      <c r="G62" s="88"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="88"/>
+      <c r="J62" s="94"/>
+      <c r="K62" s="127"/>
+    </row>
+    <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="144"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="82"/>
-      <c r="F61" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G61" s="82" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G63" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="82"/>
-      <c r="I61" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J61" s="92"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="142"/>
-      <c r="B62" s="102"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="92"/>
-      <c r="K62" s="125"/>
-    </row>
-    <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="142"/>
-      <c r="B63" s="102"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="82" t="s">
+      <c r="H63" s="84"/>
+      <c r="I63" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="J63" s="94"/>
+      <c r="K63" s="127"/>
+      <c r="L63" s="9"/>
+    </row>
+    <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="144"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="88"/>
+      <c r="F64" s="88"/>
+      <c r="G64" s="88"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="88"/>
+      <c r="J64" s="94"/>
+      <c r="K64" s="127"/>
+    </row>
+    <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="144"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E63" s="82"/>
-      <c r="F63" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G63" s="82" t="s">
+      <c r="E65" s="84"/>
+      <c r="F65" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="G65" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="82"/>
-      <c r="I63" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J63" s="92"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="9"/>
-    </row>
-    <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="142"/>
-      <c r="B64" s="102"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E64" s="86"/>
-      <c r="F64" s="86"/>
-      <c r="G64" s="86"/>
-      <c r="H64" s="86"/>
-      <c r="I64" s="86"/>
-      <c r="J64" s="92"/>
-      <c r="K64" s="125"/>
-    </row>
-    <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="142"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="82"/>
-      <c r="F65" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="G65" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="H65" s="82"/>
+      <c r="H65" s="84"/>
       <c r="I65" s="60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J65" s="92"/>
-      <c r="K65" s="125"/>
+        <v>259</v>
+      </c>
+      <c r="J65" s="94"/>
+      <c r="K65" s="127"/>
       <c r="L65" s="26"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="142"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="86" t="s">
+      <c r="A66" s="144"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="86"/>
-      <c r="I66" s="86"/>
-      <c r="J66" s="93"/>
-      <c r="K66" s="84"/>
+      <c r="E66" s="88"/>
+      <c r="F66" s="88"/>
+      <c r="G66" s="88"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="88"/>
+      <c r="J66" s="95"/>
+      <c r="K66" s="86"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="142"/>
-      <c r="B67" s="102"/>
+      <c r="A67" s="144"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D67" s="89" t="s">
+      <c r="D67" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="82" t="s">
+      <c r="E67" s="91"/>
+      <c r="F67" s="91"/>
+      <c r="G67" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="82"/>
+      <c r="H67" s="84"/>
       <c r="I67" s="60" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J67" s="57" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K67" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L67" s="9"/>
     </row>
     <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="142"/>
-      <c r="B68" s="102"/>
+      <c r="A68" s="144"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D68" s="120" t="s">
+      <c r="D68" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="E68" s="121"/>
-      <c r="F68" s="121"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="121"/>
+      <c r="E68" s="124"/>
+      <c r="F68" s="124"/>
+      <c r="G68" s="124"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="124"/>
       <c r="J68" s="57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K68" s="43" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="144"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D69" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="E69" s="121"/>
+      <c r="F69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="122"/>
+      <c r="J69" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" s="43" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="142"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="39" t="s">
+      <c r="L69" s="35"/>
+    </row>
+    <row r="70" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="144"/>
+      <c r="B70" s="104" t="s">
         <v>193</v>
-      </c>
-      <c r="D69" s="108" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="110"/>
-      <c r="J69" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="K69" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="L69" s="35"/>
-    </row>
-    <row r="70" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="142"/>
-      <c r="B70" s="103" t="s">
-        <v>195</v>
       </c>
       <c r="C70" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="E70" s="82"/>
+      <c r="E70" s="84"/>
       <c r="F70" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="G70" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H70" s="84"/>
+      <c r="I70" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="J70" s="57" t="s">
         <v>265</v>
       </c>
-      <c r="G70" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="H70" s="82"/>
-      <c r="I70" s="60" t="s">
+      <c r="K70" s="43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="144"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="109" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="88"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="88"/>
+      <c r="J71" s="149" t="s">
+        <v>187</v>
+      </c>
+      <c r="K71" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="L71" s="35"/>
+    </row>
+    <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="144"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="109"/>
+      <c r="D72" s="110" t="s">
+        <v>183</v>
+      </c>
+      <c r="E72" s="110"/>
+      <c r="F72" s="110"/>
+      <c r="G72" s="110"/>
+      <c r="H72" s="110"/>
+      <c r="I72" s="110"/>
+      <c r="J72" s="150"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="35"/>
+    </row>
+    <row r="73" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="144"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="96"/>
+      <c r="H73" s="96"/>
+      <c r="I73" s="96"/>
+      <c r="J73" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="K73" s="97" t="s">
+        <v>318</v>
+      </c>
+      <c r="L73" s="36"/>
+    </row>
+    <row r="74" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="144"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="148"/>
+      <c r="K74" s="98"/>
+      <c r="L74" s="36"/>
+    </row>
+    <row r="75" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="144"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="109" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="K75" s="85" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="144"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="109"/>
+      <c r="D76" s="88" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="88"/>
+      <c r="F76" s="88"/>
+      <c r="G76" s="88"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="88"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="127"/>
+    </row>
+    <row r="77" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="144"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="84"/>
+      <c r="F77" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="J70" s="57" t="s">
+      <c r="G77" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" s="84"/>
+      <c r="I77" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="K70" s="43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="142"/>
-      <c r="B71" s="104"/>
-      <c r="C71" s="111" t="s">
-        <v>190</v>
-      </c>
-      <c r="D71" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="86"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="86"/>
-      <c r="I71" s="86"/>
-      <c r="J71" s="147" t="s">
-        <v>189</v>
-      </c>
-      <c r="K71" s="85" t="s">
-        <v>319</v>
-      </c>
-      <c r="L71" s="35"/>
-    </row>
-    <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="142"/>
-      <c r="B72" s="104"/>
-      <c r="C72" s="111"/>
-      <c r="D72" s="113" t="s">
-        <v>185</v>
-      </c>
-      <c r="E72" s="113"/>
-      <c r="F72" s="113"/>
-      <c r="G72" s="113"/>
-      <c r="H72" s="113"/>
-      <c r="I72" s="113"/>
-      <c r="J72" s="148"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="35"/>
-    </row>
-    <row r="73" spans="1:12" s="37" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="142"/>
-      <c r="B73" s="104"/>
-      <c r="C73" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="94" t="s">
-        <v>187</v>
-      </c>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="94"/>
-      <c r="J73" s="145" t="s">
-        <v>191</v>
-      </c>
-      <c r="K73" s="95" t="s">
-        <v>320</v>
-      </c>
-      <c r="L73" s="36"/>
-    </row>
-    <row r="74" spans="1:12" s="37" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="142"/>
-      <c r="B74" s="104"/>
-      <c r="C74" s="112"/>
-      <c r="D74" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="E74" s="94"/>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94"/>
-      <c r="H74" s="94"/>
-      <c r="I74" s="94"/>
-      <c r="J74" s="146"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="36"/>
-    </row>
-    <row r="75" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="142"/>
-      <c r="B75" s="104"/>
-      <c r="C75" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="D75" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="K75" s="83" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="142"/>
-      <c r="B76" s="104"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E76" s="86"/>
-      <c r="F76" s="86"/>
-      <c r="G76" s="86"/>
-      <c r="H76" s="86"/>
-      <c r="I76" s="86"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="125"/>
-    </row>
-    <row r="77" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="142"/>
-      <c r="B77" s="104"/>
-      <c r="C77" s="111"/>
-      <c r="D77" s="82" t="s">
+      <c r="J77" s="89"/>
+      <c r="K77" s="127"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="144"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="88"/>
+      <c r="F78" s="88"/>
+      <c r="G78" s="88"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="88"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="127"/>
+    </row>
+    <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="144"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="109"/>
+      <c r="D79" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E77" s="82"/>
-      <c r="F77" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="G77" s="82" t="s">
+      <c r="E79" s="84"/>
+      <c r="F79" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G79" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H77" s="82"/>
-      <c r="I77" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="J77" s="87"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="142"/>
-      <c r="B78" s="104"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="E78" s="86"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="86"/>
-      <c r="I78" s="86"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="125"/>
-    </row>
-    <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="142"/>
-      <c r="B79" s="104"/>
-      <c r="C79" s="111"/>
-      <c r="D79" s="82" t="s">
+      <c r="H79" s="84"/>
+      <c r="I79" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="J79" s="89"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="144"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="109"/>
+      <c r="D80" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="E80" s="88"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="88"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="88"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="127"/>
+    </row>
+    <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="144"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="109"/>
+      <c r="D81" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="E79" s="82"/>
-      <c r="F79" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="G79" s="82" t="s">
+      <c r="E81" s="84"/>
+      <c r="F81" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H79" s="82"/>
-      <c r="I79" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="J79" s="87"/>
-      <c r="K79" s="125"/>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="142"/>
-      <c r="B80" s="104"/>
-      <c r="C80" s="111"/>
-      <c r="D80" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="E80" s="86"/>
-      <c r="F80" s="86"/>
-      <c r="G80" s="86"/>
-      <c r="H80" s="86"/>
-      <c r="I80" s="86"/>
-      <c r="J80" s="87"/>
-      <c r="K80" s="125"/>
-    </row>
-    <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="142"/>
-      <c r="B81" s="104"/>
-      <c r="C81" s="111"/>
-      <c r="D81" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="82"/>
-      <c r="F81" s="60" t="s">
-        <v>268</v>
-      </c>
-      <c r="G81" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="H81" s="82"/>
+      <c r="H81" s="84"/>
       <c r="I81" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="J81" s="87"/>
-      <c r="K81" s="125"/>
+        <v>267</v>
+      </c>
+      <c r="J81" s="89"/>
+      <c r="K81" s="127"/>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="142"/>
-      <c r="B82" s="104"/>
-      <c r="C82" s="111"/>
-      <c r="D82" s="86" t="s">
+      <c r="A82" s="144"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="109"/>
+      <c r="D82" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-      <c r="J82" s="88"/>
-      <c r="K82" s="84"/>
+      <c r="E82" s="88"/>
+      <c r="F82" s="88"/>
+      <c r="G82" s="88"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="88"/>
+      <c r="J82" s="90"/>
+      <c r="K82" s="86"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="142"/>
-      <c r="B83" s="104"/>
+      <c r="A83" s="144"/>
+      <c r="B83" s="105"/>
       <c r="C83" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="89" t="s">
+      <c r="D83" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E83" s="89"/>
-      <c r="F83" s="89"/>
-      <c r="G83" s="82" t="s">
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="H83" s="82"/>
+      <c r="H83" s="84"/>
       <c r="I83" s="60" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J83" s="57" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K83" s="43" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="L83" s="9"/>
     </row>
     <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="142"/>
-      <c r="B84" s="104"/>
+      <c r="A84" s="144"/>
+      <c r="B84" s="105"/>
       <c r="C84" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D84" s="129" t="s">
+      <c r="D84" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="E84" s="130"/>
-      <c r="F84" s="130"/>
-      <c r="G84" s="130"/>
-      <c r="H84" s="130"/>
-      <c r="I84" s="130"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="132"/>
+      <c r="G84" s="132"/>
+      <c r="H84" s="132"/>
+      <c r="I84" s="132"/>
       <c r="J84" s="57" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="K84" s="43" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="142"/>
-      <c r="B85" s="104"/>
+      <c r="A85" s="144"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D85" s="97" t="s">
-        <v>184</v>
-      </c>
-      <c r="E85" s="98"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="98"/>
-      <c r="H85" s="98"/>
-      <c r="I85" s="99"/>
+        <v>192</v>
+      </c>
+      <c r="D85" s="112" t="s">
+        <v>182</v>
+      </c>
+      <c r="E85" s="113"/>
+      <c r="F85" s="113"/>
+      <c r="G85" s="113"/>
+      <c r="H85" s="113"/>
+      <c r="I85" s="114"/>
       <c r="J85" s="57" t="s">
         <v>129</v>
       </c>
       <c r="K85" s="43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L85" s="35"/>
     </row>
     <row r="86" spans="1:12" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="142"/>
-      <c r="B86" s="104"/>
+      <c r="A86" s="144"/>
+      <c r="B86" s="105"/>
       <c r="C86" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D86" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
+      <c r="D86" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
       <c r="H86" s="48" t="s">
         <v>90</v>
       </c>
       <c r="I86" s="61" t="s">
-        <v>345</v>
-      </c>
-      <c r="J86" s="100" t="s">
-        <v>272</v>
-      </c>
-      <c r="K86" s="101" t="s">
-        <v>324</v>
+        <v>343</v>
+      </c>
+      <c r="J86" s="101" t="s">
+        <v>270</v>
+      </c>
+      <c r="K86" s="102" t="s">
+        <v>322</v>
       </c>
       <c r="L86" s="38"/>
     </row>
     <row r="87" spans="1:12" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="142"/>
-      <c r="B87" s="105"/>
+      <c r="A87" s="144"/>
+      <c r="B87" s="106"/>
       <c r="C87" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="86" t="s">
-        <v>203</v>
-      </c>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
+      <c r="D87" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
       <c r="H87" s="48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I87" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J87" s="100"/>
-      <c r="K87" s="101"/>
+        <v>213</v>
+      </c>
+      <c r="J87" s="101"/>
+      <c r="K87" s="102"/>
       <c r="L87" s="38"/>
     </row>
     <row r="88" spans="1:12" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="142"/>
-      <c r="B88" s="103" t="s">
-        <v>240</v>
+      <c r="A88" s="144"/>
+      <c r="B88" s="104" t="s">
+        <v>238</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D88" s="117" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E88" s="118"/>
       <c r="F88" s="118"/>
       <c r="G88" s="118"/>
       <c r="H88" s="119"/>
       <c r="I88" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="J88" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="K88" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="J88" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="K88" s="75" t="s">
-        <v>389</v>
-      </c>
       <c r="L88" s="38"/>
     </row>
     <row r="89" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="142"/>
-      <c r="B89" s="104"/>
+      <c r="A89" s="144"/>
+      <c r="B89" s="105"/>
       <c r="C89" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="D89" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E89" s="113"/>
+      <c r="F89" s="114"/>
+      <c r="G89" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="D89" s="97" t="s">
+      <c r="H89" s="114"/>
+      <c r="I89" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="J89" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="K89" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="L89" s="9"/>
+    </row>
+    <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="144"/>
+      <c r="B90" s="105"/>
+      <c r="C90" s="53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E90" s="113"/>
+      <c r="F90" s="114"/>
+      <c r="G90" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="E89" s="98"/>
-      <c r="F89" s="99"/>
-      <c r="G89" s="97" t="s">
+      <c r="H90" s="114"/>
+      <c r="I90" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="J90" s="74" t="s">
+        <v>369</v>
+      </c>
+      <c r="K90" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="L90" s="9"/>
+    </row>
+    <row r="91" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="144"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="54" t="s">
+        <v>235</v>
+      </c>
+      <c r="D91" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E91" s="113"/>
+      <c r="F91" s="114"/>
+      <c r="G91" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="H91" s="116"/>
+      <c r="I91" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="J91" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="K91" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="L91" s="41"/>
+    </row>
+    <row r="92" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="144"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="54" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="112" t="s">
+        <v>216</v>
+      </c>
+      <c r="E92" s="113"/>
+      <c r="F92" s="114"/>
+      <c r="G92" s="115" t="s">
+        <v>356</v>
+      </c>
+      <c r="H92" s="116"/>
+      <c r="I92" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="J92" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="K92" s="73" t="s">
+        <v>378</v>
+      </c>
+      <c r="L92" s="41"/>
+    </row>
+    <row r="93" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="144"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E93" s="113"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="115" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" s="116"/>
+      <c r="I93" s="63" t="s">
+        <v>363</v>
+      </c>
+      <c r="J93" s="74" t="s">
+        <v>372</v>
+      </c>
+      <c r="K93" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="L93" s="9"/>
+    </row>
+    <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="144"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="H89" s="99"/>
-      <c r="I89" s="63" t="s">
-        <v>361</v>
-      </c>
-      <c r="J89" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="K89" s="49" t="s">
-        <v>370</v>
-      </c>
-      <c r="L89" s="9"/>
-    </row>
-    <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="142"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="99"/>
-      <c r="G90" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="H90" s="99"/>
-      <c r="I90" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="J90" s="74" t="s">
-        <v>371</v>
-      </c>
-      <c r="K90" s="73" t="s">
-        <v>378</v>
-      </c>
-      <c r="L90" s="9"/>
-    </row>
-    <row r="91" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="142"/>
-      <c r="B91" s="104"/>
-      <c r="C91" s="54" t="s">
+      <c r="D94" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E94" s="113"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="H94" s="116"/>
+      <c r="I94" s="63" t="s">
+        <v>364</v>
+      </c>
+      <c r="J94" s="74" t="s">
+        <v>373</v>
+      </c>
+      <c r="K94" s="73" t="s">
+        <v>380</v>
+      </c>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="144"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="53" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="113"/>
+      <c r="F95" s="114"/>
+      <c r="G95" s="115" t="s">
+        <v>357</v>
+      </c>
+      <c r="H95" s="116"/>
+      <c r="I95" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="J95" s="74" t="s">
+        <v>374</v>
+      </c>
+      <c r="K95" s="73" t="s">
+        <v>381</v>
+      </c>
+      <c r="L95" s="9"/>
+    </row>
+    <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="144"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="53" t="s">
+        <v>354</v>
+      </c>
+      <c r="D96" s="112" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96" s="113"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="115" t="s">
+        <v>358</v>
+      </c>
+      <c r="H96" s="116"/>
+      <c r="I96" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="J96" s="74" t="s">
+        <v>375</v>
+      </c>
+      <c r="K96" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="L96" s="9"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="144"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="D91" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="99"/>
-      <c r="G91" s="114" t="s">
-        <v>222</v>
-      </c>
-      <c r="H91" s="115"/>
-      <c r="I91" s="63" t="s">
-        <v>363</v>
-      </c>
-      <c r="J91" s="74" t="s">
-        <v>372</v>
-      </c>
-      <c r="K91" s="73" t="s">
-        <v>379</v>
-      </c>
-      <c r="L91" s="41"/>
-    </row>
-    <row r="92" spans="1:12" s="42" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="142"/>
-      <c r="B92" s="104"/>
-      <c r="C92" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="D92" s="97" t="s">
-        <v>218</v>
-      </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="99"/>
-      <c r="G92" s="114" t="s">
-        <v>358</v>
-      </c>
-      <c r="H92" s="115"/>
-      <c r="I92" s="63" t="s">
-        <v>364</v>
-      </c>
-      <c r="J92" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="K92" s="73" t="s">
-        <v>380</v>
-      </c>
-      <c r="L92" s="41"/>
-    </row>
-    <row r="93" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="142"/>
-      <c r="B93" s="104"/>
-      <c r="C93" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="D93" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="99"/>
-      <c r="G93" s="114" t="s">
+      <c r="D97" s="112" t="s">
+        <v>226</v>
+      </c>
+      <c r="E97" s="114"/>
+      <c r="F97" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="G97" s="112" t="s">
+        <v>227</v>
+      </c>
+      <c r="H97" s="114"/>
+      <c r="I97" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="J97" s="62" t="s">
+        <v>250</v>
+      </c>
+      <c r="K97" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="L97" s="9"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="144"/>
+      <c r="B98" s="105"/>
+      <c r="C98" s="53" t="s">
         <v>225</v>
       </c>
-      <c r="H93" s="115"/>
-      <c r="I93" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="J93" s="74" t="s">
-        <v>374</v>
-      </c>
-      <c r="K93" s="73" t="s">
-        <v>381</v>
-      </c>
-      <c r="L93" s="9"/>
-    </row>
-    <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="142"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="D94" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
-      <c r="G94" s="114" t="s">
-        <v>226</v>
-      </c>
-      <c r="H94" s="115"/>
-      <c r="I94" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="J94" s="74" t="s">
-        <v>375</v>
-      </c>
-      <c r="K94" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="L94" s="9"/>
-    </row>
-    <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="142"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="D95" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E95" s="98"/>
-      <c r="F95" s="99"/>
-      <c r="G95" s="114" t="s">
-        <v>359</v>
-      </c>
-      <c r="H95" s="115"/>
-      <c r="I95" s="63" t="s">
-        <v>367</v>
-      </c>
-      <c r="J95" s="74" t="s">
-        <v>376</v>
-      </c>
-      <c r="K95" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="L95" s="9"/>
-    </row>
-    <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="142"/>
-      <c r="B96" s="104"/>
-      <c r="C96" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="D96" s="97" t="s">
-        <v>357</v>
-      </c>
-      <c r="E96" s="98"/>
-      <c r="F96" s="99"/>
-      <c r="G96" s="114" t="s">
-        <v>360</v>
-      </c>
-      <c r="H96" s="115"/>
-      <c r="I96" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="J96" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="K96" s="73" t="s">
-        <v>384</v>
-      </c>
-      <c r="L96" s="9"/>
-    </row>
-    <row r="97" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="142"/>
-      <c r="B97" s="104"/>
-      <c r="C97" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D97" s="97" t="s">
+      <c r="D98" s="112" t="s">
         <v>228</v>
       </c>
-      <c r="E97" s="99"/>
-      <c r="F97" s="64" t="s">
+      <c r="E98" s="114"/>
+      <c r="F98" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="G97" s="97" t="s">
+      <c r="G98" s="112" t="s">
         <v>229</v>
       </c>
-      <c r="H97" s="99"/>
-      <c r="I97" s="63" t="s">
+      <c r="H98" s="114"/>
+      <c r="I98" s="63" t="s">
+        <v>251</v>
+      </c>
+      <c r="J98" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="J97" s="62" t="s">
-        <v>252</v>
-      </c>
-      <c r="K97" s="49" t="s">
+      <c r="K98" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="L98" s="9"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="144"/>
+      <c r="B99" s="106"/>
+      <c r="C99" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="D99" s="112" t="s">
+        <v>230</v>
+      </c>
+      <c r="E99" s="113"/>
+      <c r="F99" s="113"/>
+      <c r="G99" s="113"/>
+      <c r="H99" s="114"/>
+      <c r="I99" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="J99" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="K99" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="L97" s="9"/>
-    </row>
-    <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="142"/>
-      <c r="B98" s="104"/>
-      <c r="C98" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="D98" s="97" t="s">
-        <v>230</v>
-      </c>
-      <c r="E98" s="99"/>
-      <c r="F98" s="64" t="s">
-        <v>254</v>
-      </c>
-      <c r="G98" s="97" t="s">
-        <v>231</v>
-      </c>
-      <c r="H98" s="99"/>
-      <c r="I98" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="J98" s="62" t="s">
-        <v>254</v>
-      </c>
-      <c r="K98" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="L98" s="9"/>
-    </row>
-    <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="142"/>
-      <c r="B99" s="105"/>
-      <c r="C99" s="53" t="s">
+      <c r="L99" s="9"/>
+    </row>
+    <row r="100" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="D99" s="97" t="s">
-        <v>232</v>
-      </c>
-      <c r="E99" s="98"/>
-      <c r="F99" s="98"/>
-      <c r="G99" s="98"/>
-      <c r="H99" s="99"/>
-      <c r="I99" s="63" t="s">
-        <v>255</v>
-      </c>
-      <c r="J99" s="62" t="s">
-        <v>255</v>
-      </c>
-      <c r="K99" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="L99" s="9"/>
-    </row>
-    <row r="100" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="142" t="s">
-        <v>235</v>
-      </c>
-      <c r="B100" s="103" t="s">
-        <v>207</v>
+      <c r="B100" s="104" t="s">
+        <v>205</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="D100" s="106" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" s="113"/>
-      <c r="F100" s="113"/>
-      <c r="G100" s="113"/>
-      <c r="H100" s="113"/>
-      <c r="I100" s="113"/>
+      <c r="D100" s="107" t="s">
+        <v>271</v>
+      </c>
+      <c r="E100" s="110"/>
+      <c r="F100" s="110"/>
+      <c r="G100" s="110"/>
+      <c r="H100" s="110"/>
+      <c r="I100" s="110"/>
       <c r="J100" s="57" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K100" s="43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="142"/>
-      <c r="B101" s="104"/>
+      <c r="A101" s="144"/>
+      <c r="B101" s="105"/>
       <c r="C101" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D101" s="106" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="107"/>
-      <c r="F101" s="107"/>
-      <c r="G101" s="107"/>
-      <c r="H101" s="107"/>
-      <c r="I101" s="107"/>
+      <c r="D101" s="107" t="s">
+        <v>199</v>
+      </c>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
       <c r="J101" s="57" t="s">
         <v>126</v>
       </c>
       <c r="K101" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="142"/>
-      <c r="B102" s="104"/>
+      <c r="A102" s="144"/>
+      <c r="B102" s="105"/>
       <c r="C102" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="106" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="107"/>
-      <c r="F102" s="107"/>
-      <c r="G102" s="107"/>
-      <c r="H102" s="107"/>
-      <c r="I102" s="107"/>
+      <c r="D102" s="107" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="108"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="108"/>
+      <c r="H102" s="108"/>
+      <c r="I102" s="108"/>
       <c r="J102" s="57" t="s">
         <v>127</v>
       </c>
       <c r="K102" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="142"/>
-      <c r="B103" s="104"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="105"/>
       <c r="C103" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="D103" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="E103" s="107"/>
-      <c r="F103" s="107"/>
-      <c r="G103" s="107"/>
-      <c r="H103" s="107"/>
-      <c r="I103" s="107"/>
+      <c r="D103" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
       <c r="J103" s="57" t="s">
         <v>128</v>
       </c>
       <c r="K103" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="142"/>
-      <c r="B104" s="105"/>
+      <c r="A104" s="144"/>
+      <c r="B104" s="106"/>
       <c r="C104" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="D104" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
+        <v>214</v>
+      </c>
+      <c r="D104" s="107" t="s">
+        <v>215</v>
+      </c>
+      <c r="E104" s="108"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="108"/>
+      <c r="H104" s="108"/>
+      <c r="I104" s="108"/>
       <c r="J104" s="57" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K104" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="142"/>
-      <c r="B105" s="102" t="s">
-        <v>206</v>
+      <c r="A105" s="144"/>
+      <c r="B105" s="103" t="s">
+        <v>204</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="D105" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="E105" s="113"/>
-      <c r="F105" s="113"/>
-      <c r="G105" s="113"/>
-      <c r="H105" s="113"/>
-      <c r="I105" s="113"/>
+        <v>202</v>
+      </c>
+      <c r="D105" s="110" t="s">
+        <v>203</v>
+      </c>
+      <c r="E105" s="110"/>
+      <c r="F105" s="110"/>
+      <c r="G105" s="110"/>
+      <c r="H105" s="110"/>
+      <c r="I105" s="110"/>
       <c r="J105" s="57" t="s">
         <v>131</v>
       </c>
       <c r="K105" s="43" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="142"/>
-      <c r="B106" s="102"/>
+      <c r="A106" s="144"/>
+      <c r="B106" s="103"/>
       <c r="C106" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="D106" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="E106" s="111"/>
-      <c r="F106" s="111"/>
+      <c r="D106" s="109" t="s">
+        <v>148</v>
+      </c>
+      <c r="E106" s="109"/>
+      <c r="F106" s="109"/>
       <c r="G106" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="H106" s="131" t="s">
+      <c r="H106" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="I106" s="131"/>
+      <c r="I106" s="133"/>
       <c r="J106" s="57" t="s">
         <v>133</v>
       </c>
       <c r="K106" s="43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="142"/>
-      <c r="B107" s="102"/>
+      <c r="A107" s="144"/>
+      <c r="B107" s="103"/>
       <c r="C107" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D107" s="113" t="s">
+      <c r="D107" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="E107" s="113"/>
-      <c r="F107" s="113"/>
-      <c r="G107" s="113"/>
-      <c r="H107" s="113"/>
-      <c r="I107" s="113"/>
+      <c r="E107" s="110"/>
+      <c r="F107" s="110"/>
+      <c r="G107" s="110"/>
+      <c r="H107" s="110"/>
+      <c r="I107" s="110"/>
       <c r="J107" s="57" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K107" s="43" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L107" s="55"/>
     </row>
     <row r="108" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="142"/>
-      <c r="B108" s="102"/>
+      <c r="A108" s="144"/>
+      <c r="B108" s="103"/>
       <c r="C108" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="D108" s="113" t="s">
-        <v>241</v>
-      </c>
-      <c r="E108" s="113"/>
-      <c r="F108" s="113"/>
-      <c r="G108" s="113"/>
-      <c r="H108" s="113"/>
-      <c r="I108" s="113"/>
+      <c r="D108" s="110" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="110"/>
+      <c r="F108" s="110"/>
+      <c r="G108" s="110"/>
+      <c r="H108" s="110"/>
+      <c r="I108" s="110"/>
       <c r="J108" s="57" t="s">
         <v>130</v>
       </c>
       <c r="K108" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L108" s="9"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" s="143"/>
-      <c r="B109" s="102"/>
+      <c r="A109" s="145"/>
+      <c r="B109" s="103"/>
       <c r="C109" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="D109" s="113" t="s">
+      <c r="D109" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="E109" s="113"/>
-      <c r="F109" s="113"/>
-      <c r="G109" s="113"/>
-      <c r="H109" s="113"/>
-      <c r="I109" s="113"/>
+      <c r="E109" s="110"/>
+      <c r="F109" s="110"/>
+      <c r="G109" s="110"/>
+      <c r="H109" s="110"/>
+      <c r="I109" s="110"/>
       <c r="J109" s="57" t="s">
         <v>132</v>
       </c>
       <c r="K109" s="43" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="151" t="s">
-        <v>408</v>
-      </c>
-      <c r="B110" s="151" t="s">
+      <c r="A110" s="153" t="s">
+        <v>406</v>
+      </c>
+      <c r="B110" s="153" t="s">
+        <v>405</v>
+      </c>
+      <c r="C110" s="152" t="s">
+        <v>391</v>
+      </c>
+      <c r="D110" s="152"/>
+      <c r="E110" s="152"/>
+      <c r="F110" s="152"/>
+      <c r="G110" s="152"/>
+      <c r="H110" s="152"/>
+      <c r="I110" s="152"/>
+      <c r="J110" s="78" t="s">
         <v>407</v>
       </c>
-      <c r="C110" s="150" t="s">
+      <c r="K110" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="L110" s="9"/>
+    </row>
+    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A111" s="153"/>
+      <c r="B111" s="153"/>
+      <c r="C111" s="152" t="s">
+        <v>392</v>
+      </c>
+      <c r="D111" s="152"/>
+      <c r="E111" s="152"/>
+      <c r="F111" s="152"/>
+      <c r="G111" s="152"/>
+      <c r="H111" s="152"/>
+      <c r="I111" s="152"/>
+      <c r="J111" s="80" t="s">
+        <v>411</v>
+      </c>
+      <c r="K111" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A112" s="153"/>
+      <c r="B112" s="153"/>
+      <c r="C112" s="152" t="s">
         <v>393</v>
       </c>
-      <c r="D110" s="150"/>
-      <c r="E110" s="150"/>
-      <c r="F110" s="150"/>
-      <c r="G110" s="150"/>
-      <c r="H110" s="150"/>
-      <c r="I110" s="150"/>
-      <c r="J110" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="K110" s="152" t="s">
-        <v>410</v>
-      </c>
-      <c r="L110" s="9"/>
-    </row>
-    <row r="111" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A111" s="151"/>
-      <c r="B111" s="151"/>
-      <c r="C111" s="150" t="s">
+      <c r="D112" s="152"/>
+      <c r="E112" s="152"/>
+      <c r="F112" s="152"/>
+      <c r="G112" s="152"/>
+      <c r="H112" s="152"/>
+      <c r="I112" s="152"/>
+      <c r="J112" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="K112" s="79" t="s">
+        <v>426</v>
+      </c>
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A113" s="153"/>
+      <c r="B113" s="153"/>
+      <c r="C113" s="152" t="s">
         <v>394</v>
       </c>
-      <c r="D111" s="150"/>
-      <c r="E111" s="150"/>
-      <c r="F111" s="150"/>
-      <c r="G111" s="150"/>
-      <c r="H111" s="150"/>
-      <c r="I111" s="150"/>
-      <c r="J111" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="K111" s="152" t="s">
-        <v>411</v>
-      </c>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A112" s="151"/>
-      <c r="B112" s="151"/>
-      <c r="C112" s="150" t="s">
+      <c r="D113" s="152"/>
+      <c r="E113" s="152"/>
+      <c r="F113" s="152"/>
+      <c r="G113" s="152"/>
+      <c r="H113" s="152"/>
+      <c r="I113" s="152"/>
+      <c r="J113" s="80" t="s">
+        <v>413</v>
+      </c>
+      <c r="K113" s="79" t="s">
+        <v>427</v>
+      </c>
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A114" s="153"/>
+      <c r="B114" s="153"/>
+      <c r="C114" s="152" t="s">
         <v>395</v>
       </c>
-      <c r="D112" s="150"/>
-      <c r="E112" s="150"/>
-      <c r="F112" s="150"/>
-      <c r="G112" s="150"/>
-      <c r="H112" s="150"/>
-      <c r="I112" s="150"/>
-      <c r="J112" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="K112" s="152" t="s">
-        <v>412</v>
-      </c>
-      <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A113" s="151"/>
-      <c r="B113" s="151"/>
-      <c r="C113" s="150" t="s">
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152"/>
+      <c r="J114" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="K114" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A115" s="153"/>
+      <c r="B115" s="153"/>
+      <c r="C115" s="152" t="s">
         <v>396</v>
       </c>
-      <c r="D113" s="150"/>
-      <c r="E113" s="150"/>
-      <c r="F113" s="150"/>
-      <c r="G113" s="150"/>
-      <c r="H113" s="150"/>
-      <c r="I113" s="150"/>
-      <c r="J113" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="K113" s="152" t="s">
-        <v>413</v>
-      </c>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A114" s="151"/>
-      <c r="B114" s="151"/>
-      <c r="C114" s="150" t="s">
+      <c r="D115" s="152"/>
+      <c r="E115" s="152"/>
+      <c r="F115" s="152"/>
+      <c r="G115" s="152"/>
+      <c r="H115" s="152"/>
+      <c r="I115" s="152"/>
+      <c r="J115" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="K115" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A116" s="153"/>
+      <c r="B116" s="153"/>
+      <c r="C116" s="152" t="s">
         <v>397</v>
       </c>
-      <c r="D114" s="150"/>
-      <c r="E114" s="150"/>
-      <c r="F114" s="150"/>
-      <c r="G114" s="150"/>
-      <c r="H114" s="150"/>
-      <c r="I114" s="150"/>
-      <c r="J114" s="78" t="s">
-        <v>427</v>
-      </c>
-      <c r="K114" s="152" t="s">
-        <v>414</v>
-      </c>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A115" s="151"/>
-      <c r="B115" s="151"/>
-      <c r="C115" s="150" t="s">
+      <c r="D116" s="152"/>
+      <c r="E116" s="152"/>
+      <c r="F116" s="152"/>
+      <c r="G116" s="152"/>
+      <c r="H116" s="152"/>
+      <c r="I116" s="152"/>
+      <c r="J116" s="80" t="s">
+        <v>416</v>
+      </c>
+      <c r="K116" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A117" s="153"/>
+      <c r="B117" s="153"/>
+      <c r="C117" s="152" t="s">
         <v>398</v>
       </c>
-      <c r="D115" s="150"/>
-      <c r="E115" s="150"/>
-      <c r="F115" s="150"/>
-      <c r="G115" s="150"/>
-      <c r="H115" s="150"/>
-      <c r="I115" s="150"/>
-      <c r="J115" s="78" t="s">
-        <v>428</v>
-      </c>
-      <c r="K115" s="152" t="s">
-        <v>415</v>
-      </c>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A116" s="151"/>
-      <c r="B116" s="151"/>
-      <c r="C116" s="150" t="s">
+      <c r="D117" s="152"/>
+      <c r="E117" s="152"/>
+      <c r="F117" s="152"/>
+      <c r="G117" s="152"/>
+      <c r="H117" s="152"/>
+      <c r="I117" s="152"/>
+      <c r="J117" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="K117" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A118" s="153"/>
+      <c r="B118" s="153"/>
+      <c r="C118" s="152" t="s">
         <v>399</v>
       </c>
-      <c r="D116" s="150"/>
-      <c r="E116" s="150"/>
-      <c r="F116" s="150"/>
-      <c r="G116" s="150"/>
-      <c r="H116" s="150"/>
-      <c r="I116" s="150"/>
-      <c r="J116" s="78" t="s">
-        <v>429</v>
-      </c>
-      <c r="K116" s="152" t="s">
-        <v>416</v>
-      </c>
-      <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A117" s="151"/>
-      <c r="B117" s="151"/>
-      <c r="C117" s="150" t="s">
+      <c r="D118" s="152"/>
+      <c r="E118" s="152"/>
+      <c r="F118" s="152"/>
+      <c r="G118" s="152"/>
+      <c r="H118" s="152"/>
+      <c r="I118" s="152"/>
+      <c r="J118" s="80" t="s">
+        <v>418</v>
+      </c>
+      <c r="K118" s="79" t="s">
+        <v>432</v>
+      </c>
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A119" s="153"/>
+      <c r="B119" s="153"/>
+      <c r="C119" s="152" t="s">
         <v>400</v>
       </c>
-      <c r="D117" s="150"/>
-      <c r="E117" s="150"/>
-      <c r="F117" s="150"/>
-      <c r="G117" s="150"/>
-      <c r="H117" s="150"/>
-      <c r="I117" s="150"/>
-      <c r="J117" s="78" t="s">
-        <v>430</v>
-      </c>
-      <c r="K117" s="152" t="s">
-        <v>417</v>
-      </c>
-      <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A118" s="151"/>
-      <c r="B118" s="151"/>
-      <c r="C118" s="150" t="s">
+      <c r="D119" s="152"/>
+      <c r="E119" s="152"/>
+      <c r="F119" s="152"/>
+      <c r="G119" s="152"/>
+      <c r="H119" s="152"/>
+      <c r="I119" s="152"/>
+      <c r="J119" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="K119" s="79" t="s">
+        <v>433</v>
+      </c>
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A120" s="153"/>
+      <c r="B120" s="153"/>
+      <c r="C120" s="152" t="s">
         <v>401</v>
       </c>
-      <c r="D118" s="150"/>
-      <c r="E118" s="150"/>
-      <c r="F118" s="150"/>
-      <c r="G118" s="150"/>
-      <c r="H118" s="150"/>
-      <c r="I118" s="150"/>
-      <c r="J118" s="78" t="s">
-        <v>431</v>
-      </c>
-      <c r="K118" s="152" t="s">
-        <v>418</v>
-      </c>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A119" s="151"/>
-      <c r="B119" s="151"/>
-      <c r="C119" s="150" t="s">
+      <c r="D120" s="152"/>
+      <c r="E120" s="152"/>
+      <c r="F120" s="152"/>
+      <c r="G120" s="152"/>
+      <c r="H120" s="152"/>
+      <c r="I120" s="152"/>
+      <c r="J120" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="K120" s="79" t="s">
+        <v>434</v>
+      </c>
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A121" s="153"/>
+      <c r="B121" s="153"/>
+      <c r="C121" s="152" t="s">
         <v>402</v>
       </c>
-      <c r="D119" s="150"/>
-      <c r="E119" s="150"/>
-      <c r="F119" s="150"/>
-      <c r="G119" s="150"/>
-      <c r="H119" s="150"/>
-      <c r="I119" s="150"/>
-      <c r="J119" s="78" t="s">
-        <v>432</v>
-      </c>
-      <c r="K119" s="152" t="s">
-        <v>419</v>
-      </c>
-      <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A120" s="151"/>
-      <c r="B120" s="151"/>
-      <c r="C120" s="150" t="s">
+      <c r="D121" s="152"/>
+      <c r="E121" s="152"/>
+      <c r="F121" s="152"/>
+      <c r="G121" s="152"/>
+      <c r="H121" s="152"/>
+      <c r="I121" s="152"/>
+      <c r="J121" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="K121" s="79" t="s">
+        <v>435</v>
+      </c>
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A122" s="153"/>
+      <c r="B122" s="153"/>
+      <c r="C122" s="152" t="s">
         <v>403</v>
       </c>
-      <c r="D120" s="150"/>
-      <c r="E120" s="150"/>
-      <c r="F120" s="150"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="150"/>
-      <c r="I120" s="150"/>
-      <c r="J120" s="78" t="s">
-        <v>433</v>
-      </c>
-      <c r="K120" s="152" t="s">
-        <v>420</v>
-      </c>
-      <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A121" s="151"/>
-      <c r="B121" s="151"/>
-      <c r="C121" s="150" t="s">
+      <c r="D122" s="152"/>
+      <c r="E122" s="152"/>
+      <c r="F122" s="152"/>
+      <c r="G122" s="152"/>
+      <c r="H122" s="152"/>
+      <c r="I122" s="152"/>
+      <c r="J122" s="80" t="s">
+        <v>422</v>
+      </c>
+      <c r="K122" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A123" s="153"/>
+      <c r="B123" s="153"/>
+      <c r="C123" s="152" t="s">
         <v>404</v>
       </c>
-      <c r="D121" s="150"/>
-      <c r="E121" s="150"/>
-      <c r="F121" s="150"/>
-      <c r="G121" s="150"/>
-      <c r="H121" s="150"/>
-      <c r="I121" s="150"/>
-      <c r="J121" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="K121" s="152" t="s">
-        <v>421</v>
-      </c>
-      <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A122" s="151"/>
-      <c r="B122" s="151"/>
-      <c r="C122" s="150" t="s">
-        <v>405</v>
-      </c>
-      <c r="D122" s="150"/>
-      <c r="E122" s="150"/>
-      <c r="F122" s="150"/>
-      <c r="G122" s="150"/>
-      <c r="H122" s="150"/>
-      <c r="I122" s="150"/>
-      <c r="J122" s="78" t="s">
-        <v>435</v>
-      </c>
-      <c r="K122" s="152" t="s">
-        <v>422</v>
-      </c>
-      <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A123" s="151"/>
-      <c r="B123" s="151"/>
-      <c r="C123" s="150" t="s">
-        <v>406</v>
-      </c>
-      <c r="D123" s="150"/>
-      <c r="E123" s="150"/>
-      <c r="F123" s="150"/>
-      <c r="G123" s="150"/>
-      <c r="H123" s="150"/>
-      <c r="I123" s="150"/>
-      <c r="J123" s="78" t="s">
-        <v>436</v>
-      </c>
-      <c r="K123" s="152" t="s">
+      <c r="D123" s="152"/>
+      <c r="E123" s="152"/>
+      <c r="F123" s="152"/>
+      <c r="G123" s="152"/>
+      <c r="H123" s="152"/>
+      <c r="I123" s="152"/>
+      <c r="J123" s="80" t="s">
         <v>423</v>
+      </c>
+      <c r="K123" s="79" t="s">
+        <v>437</v>
       </c>
       <c r="L123" s="9"/>
     </row>
@@ -6334,22 +6001,22 @@
       <c r="D127" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E127" s="127" t="s">
-        <v>437</v>
-      </c>
-      <c r="F127" s="127"/>
+      <c r="E127" s="129" t="s">
+        <v>410</v>
+      </c>
+      <c r="F127" s="129"/>
       <c r="G127" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H127" s="128" t="s">
-        <v>439</v>
-      </c>
-      <c r="I127" s="128"/>
+      <c r="H127" s="130" t="s">
+        <v>409</v>
+      </c>
+      <c r="I127" s="130"/>
       <c r="J127" s="8" t="s">
         <v>66</v>
       </c>
       <c r="K127" s="34" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -6478,10 +6145,6 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D62:I62"/>
-    <mergeCell ref="D64:I64"/>
-    <mergeCell ref="K55:K56"/>
     <mergeCell ref="K71:K72"/>
     <mergeCell ref="D85:I85"/>
     <mergeCell ref="D83:F83"/>
@@ -6497,6 +6160,11 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="D47:I47"/>
     <mergeCell ref="D42:F42"/>
@@ -6544,13 +6212,8 @@
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="C59:C66"/>
     <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="D62:I62"/>
+    <mergeCell ref="D64:I64"/>
     <mergeCell ref="B105:B109"/>
     <mergeCell ref="B70:B87"/>
     <mergeCell ref="D104:I104"/>
@@ -6568,6 +6231,7 @@
     <mergeCell ref="B88:B99"/>
     <mergeCell ref="D88:H88"/>
     <mergeCell ref="C75:C82"/>
+    <mergeCell ref="D103:I103"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="D49:E49"/>
@@ -6589,8 +6253,11 @@
     <mergeCell ref="J43:J46"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="K34:K35"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="K55:K56"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J57 J52:J55 J13:J25 J73 J27:J35 J40:J50 J75:J109 J59:J71">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"不合格"</formula>

--- a/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
+++ b/config/project/Integrate_120KW_increase/IntegrateReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\测试软件\MCMC\platDemo\config\project\Integrate_120KW_increase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9354171B-809B-4438-A61D-93D1A93BE691}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2B56E7EF-12A3-4692-A720-C631F603AC7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6910" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="468">
   <si>
     <t>检测项目</t>
   </si>
@@ -2237,6 +2237,22 @@
   </si>
   <si>
     <t>value198</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空调编码录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value199</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time199</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2540,7 +2556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2787,264 +2803,273 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <b/>
@@ -3487,10 +3512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L128"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111:K124"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -3521,27 +3546,27 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="108"/>
+      <c r="B3" s="150"/>
       <c r="C3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="D3" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="108"/>
-      <c r="F3" s="105" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="153"/>
+      <c r="H3" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="11"/>
@@ -3556,50 +3581,50 @@
       <c r="K4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="147" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="147"/>
       <c r="F5" s="68" t="s">
         <v>136</v>
       </c>
       <c r="G5" s="64"/>
-      <c r="H5" s="107" t="s">
+      <c r="H5" s="148" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="107"/>
-      <c r="J5" s="109" t="s">
+      <c r="I5" s="148"/>
+      <c r="J5" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="K5" s="109"/>
+      <c r="K5" s="144"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="107"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="65" t="s">
         <v>137</v>
       </c>
       <c r="G6" s="65"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
@@ -3615,48 +3640,48 @@
       <c r="K7" s="27"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
+      <c r="A8" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="150"/>
       <c r="C8" s="68"/>
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="106" t="s">
+      <c r="E8" s="151"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="146"/>
+      <c r="H8" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="106"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="146"/>
+      <c r="K8" s="146"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="104"/>
+      <c r="B9" s="152"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="106" t="s">
+      <c r="D9" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="106"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="106" t="s">
+      <c r="E9" s="147"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="147" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="106"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="152" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="104"/>
+      <c r="B10" s="152"/>
       <c r="C10" s="23"/>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
@@ -3681,19 +3706,19 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+      <c r="A12" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="90" t="s">
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="38" t="s">
         <v>2</v>
       </c>
@@ -3702,137 +3727,137 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="161" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
       <c r="J13" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K13" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="L13" s="125"/>
+      <c r="L13" s="138"/>
     </row>
     <row r="14" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="161"/>
       <c r="C14" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
       <c r="J14" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K14" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="L14" s="125"/>
+      <c r="L14" s="138"/>
     </row>
     <row r="15" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="99"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="161"/>
       <c r="C15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
       <c r="J15" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K15" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="L15" s="125"/>
+      <c r="L15" s="138"/>
     </row>
     <row r="16" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="99"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="161"/>
       <c r="C16" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="149" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
       <c r="J16" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K16" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="L16" s="125"/>
+      <c r="L16" s="138"/>
     </row>
     <row r="17" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="90"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
       <c r="J17" s="55" t="s">
         <v>96</v>
       </c>
       <c r="K17" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="L17" s="125"/>
+      <c r="L17" s="138"/>
     </row>
     <row r="18" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="116" t="s">
         <v>185</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="115" t="s">
         <v>161</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="117" t="s">
+      <c r="D18" s="119" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="56" t="s">
         <v>343</v>
       </c>
@@ -3841,19 +3866,19 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
-      <c r="B19" s="90"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="117" t="s">
+      <c r="D19" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="56" t="s">
         <v>345</v>
       </c>
@@ -3863,19 +3888,19 @@
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="26.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="117" t="s">
+      <c r="D20" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="56" t="s">
         <v>348</v>
       </c>
@@ -3884,21 +3909,21 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="100" t="s">
+      <c r="A21" s="117"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="101"/>
-      <c r="F21" s="102" t="s">
+      <c r="E21" s="96"/>
+      <c r="F21" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
       <c r="J21" s="56" t="s">
         <v>98</v>
       </c>
@@ -3907,19 +3932,19 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101" t="s">
+      <c r="A22" s="117"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="96" t="s">
         <v>151</v>
       </c>
-      <c r="E22" s="101"/>
-      <c r="F22" s="102" t="s">
+      <c r="E22" s="96"/>
+      <c r="F22" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
       <c r="J22" s="56" t="s">
         <v>99</v>
       </c>
@@ -3928,19 +3953,19 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101" t="s">
+      <c r="A23" s="117"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="96" t="s">
         <v>168</v>
       </c>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102" t="s">
+      <c r="E23" s="96"/>
+      <c r="F23" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
       <c r="J23" s="56" t="s">
         <v>240</v>
       </c>
@@ -3950,21 +3975,21 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="100" t="s">
+      <c r="A24" s="117"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="D24" s="101" t="s">
+      <c r="D24" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="101"/>
-      <c r="F24" s="102" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="135" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
       <c r="J24" s="56" t="s">
         <v>100</v>
       </c>
@@ -3973,19 +3998,19 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="101"/>
-      <c r="F25" s="102" t="s">
+      <c r="E25" s="96"/>
+      <c r="F25" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="56" t="s">
         <v>101</v>
       </c>
@@ -3995,19 +4020,19 @@
       <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101" t="s">
+      <c r="A26" s="117"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="96" t="s">
         <v>169</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="102" t="s">
+      <c r="E26" s="96"/>
+      <c r="F26" s="135" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
       <c r="J26" s="56" t="s">
         <v>240</v>
       </c>
@@ -4016,23 +4041,23 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="90" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="115" t="s">
         <v>162</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="E27" s="101"/>
-      <c r="F27" s="102" t="s">
+      <c r="E27" s="96"/>
+      <c r="F27" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
       <c r="J27" s="56" t="s">
         <v>142</v>
       </c>
@@ -4041,19 +4066,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101" t="s">
+      <c r="A28" s="117"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="96" t="s">
         <v>242</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="135"/>
+      <c r="I28" s="135"/>
       <c r="J28" s="56" t="s">
         <v>143</v>
       </c>
@@ -4062,19 +4087,19 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101" t="s">
+      <c r="A29" s="117"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="101"/>
-      <c r="F29" s="102" t="s">
+      <c r="E29" s="96"/>
+      <c r="F29" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
       <c r="J29" s="56" t="s">
         <v>115</v>
       </c>
@@ -4083,19 +4108,19 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="96" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="101"/>
-      <c r="F30" s="102" t="s">
+      <c r="E30" s="96"/>
+      <c r="F30" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
+      <c r="G30" s="135"/>
+      <c r="H30" s="135"/>
+      <c r="I30" s="135"/>
       <c r="J30" s="56" t="s">
         <v>116</v>
       </c>
@@ -4104,19 +4129,19 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101" t="s">
+      <c r="A31" s="117"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="101"/>
-      <c r="F31" s="102" t="s">
+      <c r="E31" s="96"/>
+      <c r="F31" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
       <c r="J31" s="56" t="s">
         <v>144</v>
       </c>
@@ -4126,19 +4151,19 @@
       <c r="L31" s="24"/>
     </row>
     <row r="32" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101" t="s">
+      <c r="A32" s="117"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="96" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="101"/>
-      <c r="F32" s="102" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
+      <c r="G32" s="135"/>
+      <c r="H32" s="135"/>
+      <c r="I32" s="135"/>
       <c r="J32" s="56" t="s">
         <v>145</v>
       </c>
@@ -4148,19 +4173,19 @@
       <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101" t="s">
+      <c r="A33" s="117"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="96"/>
+      <c r="F33" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
+      <c r="G33" s="135"/>
+      <c r="H33" s="135"/>
+      <c r="I33" s="135"/>
       <c r="J33" s="56" t="s">
         <v>146</v>
       </c>
@@ -4169,48 +4194,48 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="100" t="s">
+      <c r="A34" s="117"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="121" t="s">
         <v>206</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102" t="s">
+      <c r="E34" s="96"/>
+      <c r="F34" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="143" t="s">
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="K34" s="131" t="s">
+      <c r="K34" s="97" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="101" t="s">
+      <c r="A35" s="117"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="101"/>
-      <c r="F35" s="102" t="s">
+      <c r="E35" s="96"/>
+      <c r="F35" s="135" t="s">
         <v>141</v>
       </c>
-      <c r="G35" s="102"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="133"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="98"/>
     </row>
     <row r="36" spans="1:12" s="36" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="83" t="s">
+      <c r="A36" s="117"/>
+      <c r="B36" s="154" t="s">
         <v>380</v>
       </c>
       <c r="C36" s="50" t="s">
@@ -4235,8 +4260,8 @@
       <c r="L36" s="35"/>
     </row>
     <row r="37" spans="1:12" s="36" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="93"/>
-      <c r="B37" s="83"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="50" t="s">
         <v>154</v>
       </c>
@@ -4267,8 +4292,8 @@
       <c r="L37" s="35"/>
     </row>
     <row r="38" spans="1:12" s="36" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="93"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="50" t="s">
         <v>205</v>
       </c>
@@ -4291,8 +4316,8 @@
       <c r="L38" s="35"/>
     </row>
     <row r="39" spans="1:12" s="36" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93"/>
-      <c r="B39" s="84"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="155"/>
       <c r="C39" s="50" t="s">
         <v>154</v>
       </c>
@@ -4323,21 +4348,21 @@
       <c r="L39" s="35"/>
     </row>
     <row r="40" spans="1:12" s="36" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="93"/>
-      <c r="B40" s="91" t="s">
+      <c r="A40" s="117"/>
+      <c r="B40" s="123" t="s">
         <v>167</v>
       </c>
       <c r="C40" s="50" t="s">
         <v>157</v>
       </c>
-      <c r="D40" s="126" t="s">
+      <c r="D40" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="E40" s="126"/>
-      <c r="F40" s="126"/>
-      <c r="G40" s="126"/>
-      <c r="H40" s="126"/>
-      <c r="I40" s="126"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
       <c r="J40" s="58" t="s">
         <v>244</v>
       </c>
@@ -4347,149 +4372,149 @@
       <c r="L40" s="35"/>
     </row>
     <row r="41" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="93"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="101" t="s">
+      <c r="A41" s="117"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="96" t="s">
         <v>148</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="153" t="s">
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="113" t="s">
         <v>342</v>
       </c>
-      <c r="K41" s="112" t="s">
+      <c r="K41" s="114" t="s">
         <v>299</v>
       </c>
       <c r="L41" s="35"/>
     </row>
     <row r="42" spans="1:12" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="101"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
       <c r="G42" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="134" t="s">
+      <c r="H42" s="88" t="s">
         <v>341</v>
       </c>
-      <c r="I42" s="135"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="112"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="114"/>
       <c r="L42" s="35"/>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="93"/>
-      <c r="B43" s="90" t="s">
+      <c r="A43" s="117"/>
+      <c r="B43" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="101"/>
+      <c r="E43" s="96"/>
       <c r="F43" s="58" t="s">
         <v>336</v>
       </c>
-      <c r="G43" s="101" t="s">
+      <c r="G43" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="101"/>
+      <c r="H43" s="96"/>
       <c r="I43" s="58" t="s">
         <v>338</v>
       </c>
-      <c r="J43" s="143" t="s">
+      <c r="J43" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="K43" s="130" t="s">
+      <c r="K43" s="99" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="101" t="s">
+      <c r="A44" s="117"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="E44" s="101"/>
+      <c r="E44" s="96"/>
       <c r="F44" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="101" t="s">
+      <c r="G44" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="H44" s="101"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="58" t="s">
         <v>339</v>
       </c>
-      <c r="J44" s="143"/>
-      <c r="K44" s="130"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="99"/>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="101" t="s">
+      <c r="A45" s="117"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="E45" s="101"/>
+      <c r="E45" s="96"/>
       <c r="F45" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="G45" s="101" t="s">
+      <c r="G45" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="101"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="58" t="s">
         <v>115</v>
       </c>
-      <c r="J45" s="143"/>
-      <c r="K45" s="130"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="99"/>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="101" t="s">
+      <c r="A46" s="117"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="101"/>
+      <c r="E46" s="96"/>
       <c r="F46" s="58" t="s">
         <v>116</v>
       </c>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
       <c r="I46" s="58"/>
-      <c r="J46" s="143"/>
-      <c r="K46" s="130"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="99"/>
     </row>
     <row r="47" spans="1:12" s="36" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="90" t="s">
+      <c r="A47" s="117"/>
+      <c r="B47" s="115" t="s">
         <v>166</v>
       </c>
       <c r="C47" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D47" s="116" t="s">
+      <c r="D47" s="100" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
       <c r="J47" s="58" t="s">
         <v>245</v>
       </c>
@@ -4499,25 +4524,25 @@
       <c r="L47" s="35"/>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="90"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="115"/>
       <c r="C48" s="38" t="s">
         <v>34</v>
       </c>
       <c r="D48" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="127" t="s">
+      <c r="E48" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="F48" s="128"/>
+      <c r="F48" s="112"/>
       <c r="G48" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="127" t="s">
+      <c r="H48" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="I48" s="128"/>
+      <c r="I48" s="112"/>
       <c r="J48" s="56" t="s">
         <v>119</v>
       </c>
@@ -4526,68 +4551,68 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90" t="s">
+      <c r="A49" s="117"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="115" t="s">
         <v>163</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="101"/>
-      <c r="F49" s="127" t="s">
+      <c r="E49" s="96"/>
+      <c r="F49" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="G49" s="128"/>
+      <c r="G49" s="112"/>
       <c r="H49" s="44" t="s">
         <v>160</v>
       </c>
       <c r="I49" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="J49" s="144" t="s">
+      <c r="J49" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="K49" s="131" t="s">
+      <c r="K49" s="97" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="101" t="s">
+      <c r="A50" s="117"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="128" t="s">
+      <c r="E50" s="96"/>
+      <c r="F50" s="112" t="s">
         <v>247</v>
       </c>
-      <c r="G50" s="128"/>
+      <c r="G50" s="112"/>
       <c r="H50" s="44" t="s">
         <v>160</v>
       </c>
       <c r="I50" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="J50" s="145"/>
-      <c r="K50" s="133"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="98"/>
       <c r="L50" s="34"/>
     </row>
     <row r="51" spans="1:12" s="36" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="90"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="100" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
       <c r="J51" s="58" t="s">
         <v>248</v>
       </c>
@@ -4597,24 +4622,24 @@
       <c r="L51" s="35"/>
     </row>
     <row r="52" spans="1:12" s="36" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="80" t="s">
         <v>438</v>
       </c>
       <c r="C52" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="D52" s="154" t="s">
+      <c r="D52" s="86" t="s">
         <v>440</v>
       </c>
-      <c r="E52" s="155"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="71" t="s">
         <v>441</v>
       </c>
-      <c r="G52" s="154" t="s">
+      <c r="G52" s="86" t="s">
         <v>442</v>
       </c>
-      <c r="H52" s="155"/>
+      <c r="H52" s="87"/>
       <c r="I52" s="71" t="s">
         <v>443</v>
       </c>
@@ -4627,24 +4652,24 @@
       <c r="L52" s="35"/>
     </row>
     <row r="53" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
-      <c r="B53" s="90" t="s">
+      <c r="A53" s="117"/>
+      <c r="B53" s="115" t="s">
         <v>178</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="129" t="s">
+      <c r="D53" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E53" s="129"/>
+      <c r="E53" s="103"/>
       <c r="F53" s="71" t="s">
         <v>174</v>
       </c>
-      <c r="G53" s="129" t="s">
+      <c r="G53" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="H53" s="129"/>
+      <c r="H53" s="103"/>
       <c r="I53" s="71" t="s">
         <v>176</v>
       </c>
@@ -4657,22 +4682,22 @@
       <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="93"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="117"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="D54" s="129" t="s">
+      <c r="D54" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="E54" s="129"/>
+      <c r="E54" s="103"/>
       <c r="F54" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="G54" s="129" t="s">
+      <c r="G54" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="H54" s="129"/>
+      <c r="H54" s="103"/>
       <c r="I54" s="71" t="s">
         <v>177</v>
       </c>
@@ -4684,24 +4709,24 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="93"/>
-      <c r="B55" s="90" t="s">
+      <c r="A55" s="117"/>
+      <c r="B55" s="115" t="s">
         <v>179</v>
       </c>
       <c r="C55" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E55" s="101"/>
+      <c r="E55" s="96"/>
       <c r="F55" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="G55" s="101" t="s">
+      <c r="G55" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H55" s="101"/>
+      <c r="H55" s="96"/>
       <c r="I55" s="59" t="s">
         <v>121</v>
       </c>
@@ -4713,246 +4738,246 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
-      <c r="B56" s="90"/>
-      <c r="C56" s="100" t="s">
+      <c r="A56" s="117"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="121" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="88" t="s">
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="K56" s="130" t="s">
+      <c r="K56" s="99" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="97" t="s">
+      <c r="A57" s="118"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="130"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
+      <c r="G57" s="122"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="122"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="99"/>
     </row>
     <row r="58" spans="1:12" s="36" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="156" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="90" t="s">
+      <c r="B58" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="91" t="s">
+      <c r="C58" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="D58" s="126" t="s">
+      <c r="D58" s="108" t="s">
         <v>208</v>
       </c>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="126"/>
-      <c r="H58" s="126"/>
-      <c r="I58" s="126"/>
-      <c r="J58" s="86" t="s">
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="K58" s="151" t="s">
+      <c r="K58" s="109" t="s">
         <v>309</v>
       </c>
       <c r="L58" s="35"/>
     </row>
     <row r="59" spans="1:12" s="36" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="126" t="s">
+      <c r="A59" s="154"/>
+      <c r="B59" s="115"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="126"/>
-      <c r="H59" s="126"/>
-      <c r="I59" s="126"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="152"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="158"/>
+      <c r="K59" s="110"/>
       <c r="L59" s="35"/>
     </row>
     <row r="60" spans="1:12" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="141" t="s">
+      <c r="A60" s="154"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="126" t="s">
+      <c r="D60" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="148" t="s">
+      <c r="E60" s="108"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="105" t="s">
         <v>334</v>
       </c>
-      <c r="K60" s="131" t="s">
+      <c r="K60" s="97" t="s">
         <v>310</v>
       </c>
       <c r="L60" s="35"/>
     </row>
     <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="97" t="s">
+      <c r="A61" s="154"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="134"/>
+      <c r="D61" s="122" t="s">
         <v>189</v>
       </c>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="132"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="137"/>
     </row>
     <row r="62" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="101" t="s">
+      <c r="A62" s="154"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E62" s="101"/>
+      <c r="E62" s="96"/>
       <c r="F62" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="101" t="s">
+      <c r="G62" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="101"/>
+      <c r="H62" s="96"/>
       <c r="I62" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="J62" s="149"/>
-      <c r="K62" s="132"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="137"/>
       <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="116" t="s">
+      <c r="A63" s="154"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="132"/>
+      <c r="E63" s="100"/>
+      <c r="F63" s="100"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="100"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="137"/>
     </row>
     <row r="64" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="101" t="s">
+      <c r="A64" s="154"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="101"/>
+      <c r="E64" s="96"/>
       <c r="F64" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="G64" s="101" t="s">
+      <c r="G64" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="101"/>
+      <c r="H64" s="96"/>
       <c r="I64" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="J64" s="149"/>
-      <c r="K64" s="132"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="137"/>
       <c r="L64" s="9"/>
     </row>
     <row r="65" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="116" t="s">
+      <c r="A65" s="154"/>
+      <c r="B65" s="115"/>
+      <c r="C65" s="134"/>
+      <c r="D65" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="132"/>
+      <c r="E65" s="100"/>
+      <c r="F65" s="100"/>
+      <c r="G65" s="100"/>
+      <c r="H65" s="100"/>
+      <c r="I65" s="100"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="137"/>
     </row>
     <row r="66" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="90"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="101" t="s">
+      <c r="A66" s="154"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="134"/>
+      <c r="D66" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="101"/>
+      <c r="E66" s="96"/>
       <c r="F66" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="G66" s="101" t="s">
+      <c r="G66" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H66" s="101"/>
+      <c r="H66" s="96"/>
       <c r="I66" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="J66" s="149"/>
-      <c r="K66" s="132"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="137"/>
       <c r="L66" s="25"/>
     </row>
     <row r="67" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="90"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="116" t="s">
+      <c r="A67" s="154"/>
+      <c r="B67" s="115"/>
+      <c r="C67" s="134"/>
+      <c r="D67" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E67" s="116"/>
-      <c r="F67" s="116"/>
-      <c r="G67" s="116"/>
-      <c r="H67" s="116"/>
-      <c r="I67" s="116"/>
-      <c r="J67" s="150"/>
-      <c r="K67" s="133"/>
+      <c r="E67" s="100"/>
+      <c r="F67" s="100"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="100"/>
+      <c r="J67" s="107"/>
+      <c r="K67" s="98"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="90"/>
+      <c r="A68" s="154"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D68" s="129" t="s">
+      <c r="D68" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="101" t="s">
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="101"/>
+      <c r="H68" s="96"/>
       <c r="I68" s="59" t="s">
         <v>259</v>
       </c>
@@ -4965,19 +4990,19 @@
       <c r="L68" s="9"/>
     </row>
     <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="90"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="139" t="s">
+      <c r="D69" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
+      <c r="E69" s="133"/>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
       <c r="J69" s="78" t="s">
         <v>446</v>
       </c>
@@ -4986,19 +5011,19 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="90"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="115"/>
       <c r="C70" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="D70" s="136" t="s">
+      <c r="D70" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="G70" s="137"/>
-      <c r="H70" s="137"/>
-      <c r="I70" s="138"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="131"/>
       <c r="J70" s="56" t="s">
         <v>138</v>
       </c>
@@ -5008,24 +5033,24 @@
       <c r="L70" s="34"/>
     </row>
     <row r="71" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="92" t="s">
+      <c r="A71" s="154"/>
+      <c r="B71" s="116" t="s">
         <v>192</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="101" t="s">
+      <c r="D71" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="E71" s="101"/>
+      <c r="E71" s="96"/>
       <c r="F71" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="G71" s="101" t="s">
+      <c r="G71" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="H71" s="101"/>
+      <c r="H71" s="96"/>
       <c r="I71" s="59" t="s">
         <v>262</v>
       </c>
@@ -5037,243 +5062,243 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="100" t="s">
+      <c r="A72" s="154"/>
+      <c r="B72" s="117"/>
+      <c r="C72" s="121" t="s">
         <v>187</v>
       </c>
-      <c r="D72" s="116" t="s">
+      <c r="D72" s="100" t="s">
         <v>183</v>
       </c>
-      <c r="E72" s="116"/>
-      <c r="F72" s="116"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="116"/>
-      <c r="I72" s="116"/>
-      <c r="J72" s="88" t="s">
+      <c r="E72" s="100"/>
+      <c r="F72" s="100"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="100"/>
+      <c r="J72" s="159" t="s">
         <v>186</v>
       </c>
-      <c r="K72" s="130" t="s">
+      <c r="K72" s="99" t="s">
         <v>314</v>
       </c>
       <c r="L72" s="34"/>
     </row>
     <row r="73" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="93"/>
-      <c r="C73" s="100"/>
-      <c r="D73" s="97" t="s">
+      <c r="A73" s="154"/>
+      <c r="B73" s="117"/>
+      <c r="C73" s="121"/>
+      <c r="D73" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="130"/>
+      <c r="E73" s="122"/>
+      <c r="F73" s="122"/>
+      <c r="G73" s="122"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
+      <c r="J73" s="160"/>
+      <c r="K73" s="99"/>
       <c r="L73" s="34"/>
     </row>
     <row r="74" spans="1:12" s="36" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="83"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="91" t="s">
+      <c r="A74" s="154"/>
+      <c r="B74" s="117"/>
+      <c r="C74" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="D74" s="126" t="s">
+      <c r="D74" s="108" t="s">
         <v>184</v>
       </c>
-      <c r="E74" s="126"/>
-      <c r="F74" s="126"/>
-      <c r="G74" s="126"/>
-      <c r="H74" s="126"/>
-      <c r="I74" s="126"/>
-      <c r="J74" s="86" t="s">
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="157" t="s">
         <v>188</v>
       </c>
-      <c r="K74" s="151" t="s">
+      <c r="K74" s="109" t="s">
         <v>315</v>
       </c>
       <c r="L74" s="35"/>
     </row>
     <row r="75" spans="1:12" s="36" customFormat="1" ht="41.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="83"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="126" t="s">
+      <c r="A75" s="154"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="123"/>
+      <c r="D75" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="126"/>
-      <c r="F75" s="126"/>
-      <c r="G75" s="126"/>
-      <c r="H75" s="126"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="152"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="110"/>
       <c r="L75" s="35"/>
     </row>
     <row r="76" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="83"/>
-      <c r="B76" s="93"/>
-      <c r="C76" s="100" t="s">
+      <c r="A76" s="154"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="121" t="s">
         <v>87</v>
       </c>
-      <c r="D76" s="126" t="s">
+      <c r="D76" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="G76" s="126"/>
-      <c r="H76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="144" t="s">
+      <c r="E76" s="108"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="K76" s="131" t="s">
+      <c r="K76" s="97" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="83"/>
-      <c r="B77" s="93"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="116" t="s">
+      <c r="A77" s="154"/>
+      <c r="B77" s="117"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
-      <c r="G77" s="116"/>
-      <c r="H77" s="116"/>
-      <c r="I77" s="116"/>
-      <c r="J77" s="146"/>
-      <c r="K77" s="132"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="101"/>
+      <c r="K77" s="137"/>
     </row>
     <row r="78" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="83"/>
-      <c r="B78" s="93"/>
-      <c r="C78" s="100"/>
-      <c r="D78" s="101" t="s">
+      <c r="A78" s="154"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="121"/>
+      <c r="D78" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="101"/>
+      <c r="E78" s="96"/>
       <c r="F78" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G78" s="101" t="s">
+      <c r="G78" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H78" s="101"/>
+      <c r="H78" s="96"/>
       <c r="I78" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="J78" s="146"/>
-      <c r="K78" s="132"/>
+      <c r="J78" s="101"/>
+      <c r="K78" s="137"/>
       <c r="L78" s="9"/>
     </row>
     <row r="79" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="83"/>
-      <c r="B79" s="93"/>
-      <c r="C79" s="100"/>
-      <c r="D79" s="116" t="s">
+      <c r="A79" s="154"/>
+      <c r="B79" s="117"/>
+      <c r="C79" s="121"/>
+      <c r="D79" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="E79" s="116"/>
-      <c r="F79" s="116"/>
-      <c r="G79" s="116"/>
-      <c r="H79" s="116"/>
-      <c r="I79" s="116"/>
-      <c r="J79" s="146"/>
-      <c r="K79" s="132"/>
+      <c r="E79" s="100"/>
+      <c r="F79" s="100"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="100"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="137"/>
     </row>
     <row r="80" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="101" t="s">
+      <c r="A80" s="154"/>
+      <c r="B80" s="117"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E80" s="101"/>
+      <c r="E80" s="96"/>
       <c r="F80" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G80" s="101" t="s">
+      <c r="G80" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H80" s="101"/>
+      <c r="H80" s="96"/>
       <c r="I80" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="J80" s="146"/>
-      <c r="K80" s="132"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="137"/>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="83"/>
-      <c r="B81" s="93"/>
-      <c r="C81" s="100"/>
-      <c r="D81" s="116" t="s">
+      <c r="A81" s="154"/>
+      <c r="B81" s="117"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E81" s="116"/>
-      <c r="F81" s="116"/>
-      <c r="G81" s="116"/>
-      <c r="H81" s="116"/>
-      <c r="I81" s="116"/>
-      <c r="J81" s="146"/>
-      <c r="K81" s="132"/>
+      <c r="E81" s="100"/>
+      <c r="F81" s="100"/>
+      <c r="G81" s="100"/>
+      <c r="H81" s="100"/>
+      <c r="I81" s="100"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="137"/>
     </row>
     <row r="82" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="83"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="100"/>
-      <c r="D82" s="101" t="s">
+      <c r="A82" s="154"/>
+      <c r="B82" s="117"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="101"/>
+      <c r="E82" s="96"/>
       <c r="F82" s="59" t="s">
         <v>264</v>
       </c>
-      <c r="G82" s="101" t="s">
+      <c r="G82" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H82" s="101"/>
+      <c r="H82" s="96"/>
       <c r="I82" s="59" t="s">
         <v>265</v>
       </c>
-      <c r="J82" s="146"/>
-      <c r="K82" s="132"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="137"/>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83"/>
-      <c r="B83" s="93"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="116" t="s">
+      <c r="A83" s="154"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="E83" s="116"/>
-      <c r="F83" s="116"/>
-      <c r="G83" s="116"/>
-      <c r="H83" s="116"/>
-      <c r="I83" s="116"/>
-      <c r="J83" s="147"/>
-      <c r="K83" s="133"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="102"/>
+      <c r="K83" s="98"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
-      <c r="B84" s="93"/>
+      <c r="A84" s="154"/>
+      <c r="B84" s="117"/>
       <c r="C84" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="129" t="s">
+      <c r="D84" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="101" t="s">
+      <c r="E84" s="103"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="H84" s="101"/>
+      <c r="H84" s="96"/>
       <c r="I84" s="59" t="s">
         <v>266</v>
       </c>
@@ -5286,19 +5311,19 @@
       <c r="L84" s="9"/>
     </row>
     <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="154"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="119" t="s">
+      <c r="D85" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="E85" s="120"/>
-      <c r="F85" s="120"/>
-      <c r="G85" s="120"/>
-      <c r="H85" s="120"/>
-      <c r="I85" s="120"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
       <c r="J85" s="56" t="s">
         <v>386</v>
       </c>
@@ -5308,19 +5333,19 @@
       <c r="L85" s="9"/>
     </row>
     <row r="86" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="93"/>
+      <c r="A86" s="154"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="D86" s="95" t="s">
+      <c r="D86" s="124" t="s">
         <v>181</v>
       </c>
-      <c r="E86" s="98"/>
-      <c r="F86" s="98"/>
-      <c r="G86" s="98"/>
-      <c r="H86" s="98"/>
-      <c r="I86" s="96"/>
+      <c r="E86" s="125"/>
+      <c r="F86" s="125"/>
+      <c r="G86" s="125"/>
+      <c r="H86" s="125"/>
+      <c r="I86" s="126"/>
       <c r="J86" s="56" t="s">
         <v>128</v>
       </c>
@@ -5330,67 +5355,67 @@
       <c r="L86" s="34"/>
     </row>
     <row r="87" spans="1:12" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
-      <c r="B87" s="93"/>
+      <c r="A87" s="154"/>
+      <c r="B87" s="117"/>
       <c r="C87" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D87" s="116" t="s">
+      <c r="D87" s="100" t="s">
         <v>211</v>
       </c>
-      <c r="E87" s="121"/>
-      <c r="F87" s="121"/>
-      <c r="G87" s="121"/>
+      <c r="E87" s="104"/>
+      <c r="F87" s="104"/>
+      <c r="G87" s="104"/>
       <c r="H87" s="47" t="s">
         <v>89</v>
       </c>
       <c r="I87" s="60" t="s">
         <v>340</v>
       </c>
-      <c r="J87" s="153" t="s">
+      <c r="J87" s="113" t="s">
         <v>268</v>
       </c>
-      <c r="K87" s="112" t="s">
+      <c r="K87" s="114" t="s">
         <v>319</v>
       </c>
       <c r="L87" s="37"/>
     </row>
     <row r="88" spans="1:12" s="36" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="94"/>
+      <c r="A88" s="154"/>
+      <c r="B88" s="118"/>
       <c r="C88" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D88" s="116" t="s">
+      <c r="D88" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="E88" s="121"/>
-      <c r="F88" s="121"/>
-      <c r="G88" s="121"/>
+      <c r="E88" s="104"/>
+      <c r="F88" s="104"/>
+      <c r="G88" s="104"/>
       <c r="H88" s="47" t="s">
         <v>160</v>
       </c>
       <c r="I88" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="J88" s="153"/>
-      <c r="K88" s="112"/>
+      <c r="J88" s="113"/>
+      <c r="K88" s="114"/>
       <c r="L88" s="37"/>
     </row>
     <row r="89" spans="1:12" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83"/>
-      <c r="B89" s="92" t="s">
+      <c r="A89" s="154"/>
+      <c r="B89" s="116" t="s">
         <v>237</v>
       </c>
       <c r="C89" s="52" t="s">
         <v>381</v>
       </c>
-      <c r="D89" s="134" t="s">
+      <c r="D89" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="E89" s="142"/>
-      <c r="F89" s="142"/>
-      <c r="G89" s="142"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
       <c r="H89" s="75" t="s">
         <v>382</v>
       </c>
@@ -5406,20 +5431,20 @@
       <c r="L89" s="37"/>
     </row>
     <row r="90" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
-      <c r="B90" s="93"/>
+      <c r="A90" s="154"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="52" t="s">
         <v>216</v>
       </c>
-      <c r="D90" s="95" t="s">
+      <c r="D90" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E90" s="98"/>
-      <c r="F90" s="96"/>
-      <c r="G90" s="95" t="s">
+      <c r="E90" s="125"/>
+      <c r="F90" s="126"/>
+      <c r="G90" s="124" t="s">
         <v>218</v>
       </c>
-      <c r="H90" s="96"/>
+      <c r="H90" s="126"/>
       <c r="I90" s="62" t="s">
         <v>356</v>
       </c>
@@ -5432,20 +5457,20 @@
       <c r="L90" s="9"/>
     </row>
     <row r="91" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="83"/>
-      <c r="B91" s="93"/>
+      <c r="A91" s="154"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="D91" s="95" t="s">
+      <c r="D91" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E91" s="98"/>
-      <c r="F91" s="96"/>
-      <c r="G91" s="95" t="s">
+      <c r="E91" s="125"/>
+      <c r="F91" s="126"/>
+      <c r="G91" s="124" t="s">
         <v>217</v>
       </c>
-      <c r="H91" s="96"/>
+      <c r="H91" s="126"/>
       <c r="I91" s="62" t="s">
         <v>357</v>
       </c>
@@ -5458,20 +5483,20 @@
       <c r="L91" s="9"/>
     </row>
     <row r="92" spans="1:12" s="41" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
-      <c r="B92" s="93"/>
+      <c r="A92" s="154"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="D92" s="95" t="s">
+      <c r="D92" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="96"/>
-      <c r="G92" s="122" t="s">
+      <c r="E92" s="125"/>
+      <c r="F92" s="126"/>
+      <c r="G92" s="127" t="s">
         <v>219</v>
       </c>
-      <c r="H92" s="123"/>
+      <c r="H92" s="128"/>
       <c r="I92" s="62" t="s">
         <v>358</v>
       </c>
@@ -5484,20 +5509,20 @@
       <c r="L92" s="40"/>
     </row>
     <row r="93" spans="1:12" s="41" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="83"/>
-      <c r="B93" s="93"/>
+      <c r="A93" s="154"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="D93" s="95" t="s">
+      <c r="D93" s="124" t="s">
         <v>215</v>
       </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="96"/>
-      <c r="G93" s="122" t="s">
+      <c r="E93" s="125"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="127" t="s">
         <v>353</v>
       </c>
-      <c r="H93" s="123"/>
+      <c r="H93" s="128"/>
       <c r="I93" s="62" t="s">
         <v>359</v>
       </c>
@@ -5510,20 +5535,20 @@
       <c r="L93" s="40"/>
     </row>
     <row r="94" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
-      <c r="B94" s="93"/>
+      <c r="A94" s="154"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="52" t="s">
         <v>221</v>
       </c>
-      <c r="D94" s="95" t="s">
+      <c r="D94" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E94" s="98"/>
-      <c r="F94" s="96"/>
-      <c r="G94" s="122" t="s">
+      <c r="E94" s="125"/>
+      <c r="F94" s="126"/>
+      <c r="G94" s="127" t="s">
         <v>222</v>
       </c>
-      <c r="H94" s="123"/>
+      <c r="H94" s="128"/>
       <c r="I94" s="62" t="s">
         <v>360</v>
       </c>
@@ -5536,20 +5561,20 @@
       <c r="L94" s="9"/>
     </row>
     <row r="95" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="83"/>
-      <c r="B95" s="93"/>
+      <c r="A95" s="154"/>
+      <c r="B95" s="117"/>
       <c r="C95" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="D95" s="95" t="s">
+      <c r="D95" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E95" s="98"/>
-      <c r="F95" s="96"/>
-      <c r="G95" s="122" t="s">
+      <c r="E95" s="125"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="127" t="s">
         <v>223</v>
       </c>
-      <c r="H95" s="123"/>
+      <c r="H95" s="128"/>
       <c r="I95" s="62" t="s">
         <v>361</v>
       </c>
@@ -5562,20 +5587,20 @@
       <c r="L95" s="9"/>
     </row>
     <row r="96" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
-      <c r="B96" s="93"/>
+      <c r="A96" s="154"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="52" t="s">
         <v>350</v>
       </c>
-      <c r="D96" s="95" t="s">
+      <c r="D96" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E96" s="98"/>
-      <c r="F96" s="96"/>
-      <c r="G96" s="122" t="s">
+      <c r="E96" s="125"/>
+      <c r="F96" s="126"/>
+      <c r="G96" s="127" t="s">
         <v>354</v>
       </c>
-      <c r="H96" s="123"/>
+      <c r="H96" s="128"/>
       <c r="I96" s="62" t="s">
         <v>362</v>
       </c>
@@ -5588,20 +5613,20 @@
       <c r="L96" s="9"/>
     </row>
     <row r="97" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="83"/>
-      <c r="B97" s="93"/>
+      <c r="A97" s="154"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="D97" s="95" t="s">
+      <c r="D97" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="E97" s="98"/>
-      <c r="F97" s="96"/>
-      <c r="G97" s="122" t="s">
+      <c r="E97" s="125"/>
+      <c r="F97" s="126"/>
+      <c r="G97" s="127" t="s">
         <v>355</v>
       </c>
-      <c r="H97" s="123"/>
+      <c r="H97" s="128"/>
       <c r="I97" s="62" t="s">
         <v>363</v>
       </c>
@@ -5614,22 +5639,22 @@
       <c r="L97" s="9"/>
     </row>
     <row r="98" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
-      <c r="B98" s="93"/>
+      <c r="A98" s="154"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D98" s="95" t="s">
+      <c r="D98" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="E98" s="96"/>
+      <c r="E98" s="126"/>
       <c r="F98" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="G98" s="95" t="s">
+      <c r="G98" s="124" t="s">
         <v>226</v>
       </c>
-      <c r="H98" s="96"/>
+      <c r="H98" s="126"/>
       <c r="I98" s="62" t="s">
         <v>249</v>
       </c>
@@ -5642,22 +5667,22 @@
       <c r="L98" s="9"/>
     </row>
     <row r="99" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="83"/>
-      <c r="B99" s="93"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D99" s="95" t="s">
+      <c r="D99" s="124" t="s">
         <v>227</v>
       </c>
-      <c r="E99" s="96"/>
+      <c r="E99" s="126"/>
       <c r="F99" s="63" t="s">
         <v>251</v>
       </c>
-      <c r="G99" s="95" t="s">
+      <c r="G99" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="H99" s="96"/>
+      <c r="H99" s="126"/>
       <c r="I99" s="62" t="s">
         <v>250</v>
       </c>
@@ -5670,18 +5695,18 @@
       <c r="L99" s="9"/>
     </row>
     <row r="100" spans="1:12" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="83"/>
-      <c r="B100" s="94"/>
+      <c r="A100" s="154"/>
+      <c r="B100" s="118"/>
       <c r="C100" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="D100" s="95" t="s">
+      <c r="D100" s="124" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="98"/>
-      <c r="F100" s="98"/>
-      <c r="G100" s="98"/>
-      <c r="H100" s="96"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="125"/>
+      <c r="G100" s="125"/>
+      <c r="H100" s="126"/>
       <c r="I100" s="62" t="s">
         <v>252</v>
       </c>
@@ -5694,23 +5719,23 @@
       <c r="L100" s="9"/>
     </row>
     <row r="101" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="154" t="s">
         <v>232</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="116" t="s">
         <v>204</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="D101" s="117" t="s">
+      <c r="D101" s="119" t="s">
         <v>269</v>
       </c>
-      <c r="E101" s="97"/>
-      <c r="F101" s="97"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="97"/>
+      <c r="E101" s="122"/>
+      <c r="F101" s="122"/>
+      <c r="G101" s="122"/>
+      <c r="H101" s="122"/>
+      <c r="I101" s="122"/>
       <c r="J101" s="56" t="s">
         <v>335</v>
       </c>
@@ -5720,19 +5745,19 @@
       <c r="L101" s="9"/>
     </row>
     <row r="102" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
-      <c r="B102" s="93"/>
+      <c r="A102" s="154"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="117" t="s">
+      <c r="D102" s="119" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="118"/>
-      <c r="F102" s="118"/>
-      <c r="G102" s="118"/>
-      <c r="H102" s="118"/>
-      <c r="I102" s="118"/>
+      <c r="E102" s="120"/>
+      <c r="F102" s="120"/>
+      <c r="G102" s="120"/>
+      <c r="H102" s="120"/>
+      <c r="I102" s="120"/>
       <c r="J102" s="56" t="s">
         <v>125</v>
       </c>
@@ -5742,19 +5767,19 @@
       <c r="L102" s="9"/>
     </row>
     <row r="103" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
-      <c r="B103" s="93"/>
+      <c r="A103" s="154"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D103" s="117" t="s">
+      <c r="D103" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="E103" s="118"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="118"/>
-      <c r="H103" s="118"/>
-      <c r="I103" s="118"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
+      <c r="H103" s="120"/>
+      <c r="I103" s="120"/>
       <c r="J103" s="56" t="s">
         <v>126</v>
       </c>
@@ -5764,19 +5789,19 @@
       <c r="L103" s="9"/>
     </row>
     <row r="104" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
-      <c r="B104" s="93"/>
+      <c r="A104" s="154"/>
+      <c r="B104" s="117"/>
       <c r="C104" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D104" s="117" t="s">
+      <c r="D104" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="E104" s="118"/>
-      <c r="F104" s="118"/>
-      <c r="G104" s="118"/>
-      <c r="H104" s="118"/>
-      <c r="I104" s="118"/>
+      <c r="E104" s="120"/>
+      <c r="F104" s="120"/>
+      <c r="G104" s="120"/>
+      <c r="H104" s="120"/>
+      <c r="I104" s="120"/>
       <c r="J104" s="56" t="s">
         <v>127</v>
       </c>
@@ -5786,19 +5811,19 @@
       <c r="L104" s="9"/>
     </row>
     <row r="105" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="83"/>
-      <c r="B105" s="94"/>
+      <c r="A105" s="154"/>
+      <c r="B105" s="118"/>
       <c r="C105" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="117" t="s">
+      <c r="D105" s="119" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="118"/>
-      <c r="F105" s="118"/>
-      <c r="G105" s="118"/>
-      <c r="H105" s="118"/>
-      <c r="I105" s="118"/>
+      <c r="E105" s="120"/>
+      <c r="F105" s="120"/>
+      <c r="G105" s="120"/>
+      <c r="H105" s="120"/>
+      <c r="I105" s="120"/>
       <c r="J105" s="56" t="s">
         <v>253</v>
       </c>
@@ -5808,21 +5833,21 @@
       <c r="L105" s="9"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="90" t="s">
+      <c r="A106" s="154"/>
+      <c r="B106" s="115" t="s">
         <v>203</v>
       </c>
       <c r="C106" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D106" s="97" t="s">
+      <c r="D106" s="122" t="s">
         <v>202</v>
       </c>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
+      <c r="E106" s="122"/>
+      <c r="F106" s="122"/>
+      <c r="G106" s="122"/>
+      <c r="H106" s="122"/>
+      <c r="I106" s="122"/>
       <c r="J106" s="56" t="s">
         <v>130</v>
       </c>
@@ -5832,23 +5857,23 @@
       <c r="L106" s="9"/>
     </row>
     <row r="107" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="83"/>
-      <c r="B107" s="90"/>
+      <c r="A107" s="154"/>
+      <c r="B107" s="115"/>
       <c r="C107" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="D107" s="100" t="s">
+      <c r="D107" s="121" t="s">
         <v>147</v>
       </c>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
       <c r="G107" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="H107" s="124" t="s">
+      <c r="H107" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="I107" s="124"/>
+      <c r="I107" s="143"/>
       <c r="J107" s="56" t="s">
         <v>132</v>
       </c>
@@ -5858,19 +5883,19 @@
       <c r="L107" s="9"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
-      <c r="B108" s="90"/>
+      <c r="A108" s="154"/>
+      <c r="B108" s="115"/>
       <c r="C108" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D108" s="97" t="s">
+      <c r="D108" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E108" s="97"/>
-      <c r="F108" s="97"/>
-      <c r="G108" s="97"/>
-      <c r="H108" s="97"/>
-      <c r="I108" s="97"/>
+      <c r="E108" s="122"/>
+      <c r="F108" s="122"/>
+      <c r="G108" s="122"/>
+      <c r="H108" s="122"/>
+      <c r="I108" s="122"/>
       <c r="J108" s="56" t="s">
         <v>331</v>
       </c>
@@ -5880,19 +5905,19 @@
       <c r="L108" s="54"/>
     </row>
     <row r="109" spans="1:12" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="83"/>
-      <c r="B109" s="90"/>
+      <c r="A109" s="154"/>
+      <c r="B109" s="115"/>
       <c r="C109" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="D109" s="97" t="s">
+      <c r="D109" s="122" t="s">
         <v>238</v>
       </c>
-      <c r="E109" s="97"/>
-      <c r="F109" s="97"/>
-      <c r="G109" s="97"/>
-      <c r="H109" s="97"/>
-      <c r="I109" s="97"/>
+      <c r="E109" s="122"/>
+      <c r="F109" s="122"/>
+      <c r="G109" s="122"/>
+      <c r="H109" s="122"/>
+      <c r="I109" s="122"/>
       <c r="J109" s="56" t="s">
         <v>129</v>
       </c>
@@ -5902,19 +5927,19 @@
       <c r="L109" s="9"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="90"/>
+      <c r="A110" s="155"/>
+      <c r="B110" s="115"/>
       <c r="C110" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D110" s="97" t="s">
+      <c r="D110" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="E110" s="97"/>
-      <c r="F110" s="97"/>
-      <c r="G110" s="97"/>
-      <c r="H110" s="97"/>
-      <c r="I110" s="97"/>
+      <c r="E110" s="122"/>
+      <c r="F110" s="122"/>
+      <c r="G110" s="122"/>
+      <c r="H110" s="122"/>
+      <c r="I110" s="122"/>
       <c r="J110" s="56" t="s">
         <v>131</v>
       </c>
@@ -5923,390 +5948,608 @@
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="82" t="s">
+    <row r="111" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="163" t="s">
         <v>403</v>
       </c>
       <c r="B111" s="82" t="s">
+        <v>464</v>
+      </c>
+      <c r="C111" s="166" t="s">
+        <v>465</v>
+      </c>
+      <c r="D111" s="167"/>
+      <c r="E111" s="167"/>
+      <c r="F111" s="167"/>
+      <c r="G111" s="167"/>
+      <c r="H111" s="167"/>
+      <c r="I111" s="168"/>
+      <c r="J111" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="K111" s="83" t="s">
+        <v>467</v>
+      </c>
+      <c r="L111" s="9"/>
+    </row>
+    <row r="112" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="164"/>
+      <c r="B112" s="162" t="s">
         <v>402</v>
       </c>
-      <c r="C111" s="156" t="s">
+      <c r="C112" s="90" t="s">
         <v>388</v>
       </c>
-      <c r="D111" s="157"/>
-      <c r="E111" s="157"/>
-      <c r="F111" s="157"/>
-      <c r="G111" s="158"/>
-      <c r="H111" s="159" t="s">
+      <c r="D112" s="91"/>
+      <c r="E112" s="91"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="92"/>
+      <c r="H112" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I111" s="76" t="s">
+      <c r="I112" s="76" t="s">
         <v>450</v>
       </c>
-      <c r="J111" s="78" t="s">
+      <c r="J112" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="K111" s="77" t="s">
+      <c r="K112" s="77" t="s">
         <v>421</v>
       </c>
-      <c r="L111" s="9"/>
-    </row>
-    <row r="112" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="156" t="s">
+      <c r="L112" s="9"/>
+    </row>
+    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A113" s="164"/>
+      <c r="B113" s="162"/>
+      <c r="C113" s="90" t="s">
         <v>389</v>
       </c>
-      <c r="D112" s="157"/>
-      <c r="E112" s="157"/>
-      <c r="F112" s="157"/>
-      <c r="G112" s="158"/>
-      <c r="H112" s="159" t="s">
+      <c r="D113" s="91"/>
+      <c r="E113" s="91"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I112" s="76" t="s">
+      <c r="I113" s="76" t="s">
         <v>451</v>
       </c>
-      <c r="J112" s="78" t="s">
+      <c r="J113" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="K112" s="77" t="s">
+      <c r="K113" s="77" t="s">
         <v>422</v>
       </c>
-      <c r="L112" s="9"/>
-    </row>
-    <row r="113" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A113" s="82"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="156" t="s">
+      <c r="L113" s="9"/>
+    </row>
+    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A114" s="164"/>
+      <c r="B114" s="162"/>
+      <c r="C114" s="90" t="s">
         <v>390</v>
       </c>
-      <c r="D113" s="157"/>
-      <c r="E113" s="157"/>
-      <c r="F113" s="157"/>
-      <c r="G113" s="158"/>
-      <c r="H113" s="159" t="s">
+      <c r="D114" s="91"/>
+      <c r="E114" s="91"/>
+      <c r="F114" s="91"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I113" s="76" t="s">
+      <c r="I114" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="J113" s="78" t="s">
+      <c r="J114" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="K113" s="77" t="s">
+      <c r="K114" s="77" t="s">
         <v>423</v>
       </c>
-      <c r="L113" s="9"/>
-    </row>
-    <row r="114" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A114" s="82"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="156" t="s">
+      <c r="L114" s="9"/>
+    </row>
+    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A115" s="164"/>
+      <c r="B115" s="162"/>
+      <c r="C115" s="90" t="s">
         <v>391</v>
       </c>
-      <c r="D114" s="157"/>
-      <c r="E114" s="157"/>
-      <c r="F114" s="157"/>
-      <c r="G114" s="158"/>
-      <c r="H114" s="159" t="s">
+      <c r="D115" s="91"/>
+      <c r="E115" s="91"/>
+      <c r="F115" s="91"/>
+      <c r="G115" s="92"/>
+      <c r="H115" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I114" s="76" t="s">
+      <c r="I115" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="J114" s="78" t="s">
+      <c r="J115" s="78" t="s">
         <v>410</v>
       </c>
-      <c r="K114" s="77" t="s">
+      <c r="K115" s="77" t="s">
         <v>424</v>
       </c>
-      <c r="L114" s="9"/>
-    </row>
-    <row r="115" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A115" s="82"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="156" t="s">
+      <c r="L115" s="9"/>
+    </row>
+    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A116" s="164"/>
+      <c r="B116" s="162"/>
+      <c r="C116" s="90" t="s">
         <v>392</v>
       </c>
-      <c r="D115" s="157"/>
-      <c r="E115" s="157"/>
-      <c r="F115" s="157"/>
-      <c r="G115" s="158"/>
-      <c r="H115" s="159" t="s">
+      <c r="D116" s="91"/>
+      <c r="E116" s="91"/>
+      <c r="F116" s="91"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I115" s="76" t="s">
+      <c r="I116" s="76" t="s">
         <v>454</v>
       </c>
-      <c r="J115" s="78" t="s">
+      <c r="J116" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="K115" s="77" t="s">
+      <c r="K116" s="77" t="s">
         <v>425</v>
       </c>
-      <c r="L115" s="9"/>
-    </row>
-    <row r="116" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A116" s="82"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="156" t="s">
+      <c r="L116" s="9"/>
+    </row>
+    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A117" s="164"/>
+      <c r="B117" s="162"/>
+      <c r="C117" s="90" t="s">
         <v>393</v>
       </c>
-      <c r="D116" s="157"/>
-      <c r="E116" s="157"/>
-      <c r="F116" s="157"/>
-      <c r="G116" s="158"/>
-      <c r="H116" s="159" t="s">
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
+      <c r="F117" s="91"/>
+      <c r="G117" s="92"/>
+      <c r="H117" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I116" s="76" t="s">
+      <c r="I117" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="J116" s="78" t="s">
+      <c r="J117" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="K116" s="77" t="s">
+      <c r="K117" s="77" t="s">
         <v>426</v>
       </c>
-      <c r="L116" s="9"/>
-    </row>
-    <row r="117" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A117" s="82"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="156" t="s">
+      <c r="L117" s="9"/>
+    </row>
+    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A118" s="164"/>
+      <c r="B118" s="162"/>
+      <c r="C118" s="90" t="s">
         <v>394</v>
       </c>
-      <c r="D117" s="157"/>
-      <c r="E117" s="157"/>
-      <c r="F117" s="157"/>
-      <c r="G117" s="158"/>
-      <c r="H117" s="159" t="s">
+      <c r="D118" s="91"/>
+      <c r="E118" s="91"/>
+      <c r="F118" s="91"/>
+      <c r="G118" s="92"/>
+      <c r="H118" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I117" s="76" t="s">
+      <c r="I118" s="76" t="s">
         <v>456</v>
       </c>
-      <c r="J117" s="78" t="s">
+      <c r="J118" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="K117" s="77" t="s">
+      <c r="K118" s="77" t="s">
         <v>427</v>
       </c>
-      <c r="L117" s="9"/>
-    </row>
-    <row r="118" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A118" s="82"/>
-      <c r="B118" s="82"/>
-      <c r="C118" s="156" t="s">
+      <c r="L118" s="9"/>
+    </row>
+    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A119" s="164"/>
+      <c r="B119" s="162"/>
+      <c r="C119" s="90" t="s">
         <v>395</v>
       </c>
-      <c r="D118" s="157"/>
-      <c r="E118" s="157"/>
-      <c r="F118" s="157"/>
-      <c r="G118" s="158"/>
-      <c r="H118" s="159" t="s">
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I118" s="76" t="s">
+      <c r="I119" s="76" t="s">
         <v>457</v>
       </c>
-      <c r="J118" s="78" t="s">
+      <c r="J119" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="K118" s="77" t="s">
+      <c r="K119" s="77" t="s">
         <v>428</v>
       </c>
-      <c r="L118" s="9"/>
-    </row>
-    <row r="119" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A119" s="82"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="156" t="s">
+      <c r="L119" s="9"/>
+    </row>
+    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A120" s="164"/>
+      <c r="B120" s="162"/>
+      <c r="C120" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="D119" s="157"/>
-      <c r="E119" s="157"/>
-      <c r="F119" s="157"/>
-      <c r="G119" s="158"/>
-      <c r="H119" s="159" t="s">
+      <c r="D120" s="91"/>
+      <c r="E120" s="91"/>
+      <c r="F120" s="91"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I119" s="76" t="s">
+      <c r="I120" s="76" t="s">
         <v>458</v>
       </c>
-      <c r="J119" s="78" t="s">
+      <c r="J120" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="K119" s="77" t="s">
+      <c r="K120" s="77" t="s">
         <v>429</v>
       </c>
-      <c r="L119" s="9"/>
-    </row>
-    <row r="120" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A120" s="82"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="156" t="s">
+      <c r="L120" s="9"/>
+    </row>
+    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A121" s="164"/>
+      <c r="B121" s="162"/>
+      <c r="C121" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="D120" s="157"/>
-      <c r="E120" s="157"/>
-      <c r="F120" s="157"/>
-      <c r="G120" s="158"/>
-      <c r="H120" s="159" t="s">
+      <c r="D121" s="91"/>
+      <c r="E121" s="91"/>
+      <c r="F121" s="91"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I120" s="76" t="s">
+      <c r="I121" s="76" t="s">
         <v>459</v>
       </c>
-      <c r="J120" s="78" t="s">
+      <c r="J121" s="78" t="s">
         <v>416</v>
       </c>
-      <c r="K120" s="77" t="s">
+      <c r="K121" s="77" t="s">
         <v>430</v>
       </c>
-      <c r="L120" s="9"/>
-    </row>
-    <row r="121" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A121" s="82"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="156" t="s">
+      <c r="L121" s="9"/>
+    </row>
+    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A122" s="164"/>
+      <c r="B122" s="162"/>
+      <c r="C122" s="90" t="s">
         <v>398</v>
       </c>
-      <c r="D121" s="157"/>
-      <c r="E121" s="157"/>
-      <c r="F121" s="157"/>
-      <c r="G121" s="158"/>
-      <c r="H121" s="159" t="s">
+      <c r="D122" s="91"/>
+      <c r="E122" s="91"/>
+      <c r="F122" s="91"/>
+      <c r="G122" s="92"/>
+      <c r="H122" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I121" s="76" t="s">
+      <c r="I122" s="76" t="s">
         <v>460</v>
       </c>
-      <c r="J121" s="78" t="s">
+      <c r="J122" s="78" t="s">
         <v>417</v>
       </c>
-      <c r="K121" s="77" t="s">
+      <c r="K122" s="77" t="s">
         <v>431</v>
       </c>
-      <c r="L121" s="9"/>
-    </row>
-    <row r="122" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A122" s="82"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="156" t="s">
+      <c r="L122" s="9"/>
+    </row>
+    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A123" s="164"/>
+      <c r="B123" s="162"/>
+      <c r="C123" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="D122" s="157"/>
-      <c r="E122" s="157"/>
-      <c r="F122" s="157"/>
-      <c r="G122" s="158"/>
-      <c r="H122" s="159" t="s">
+      <c r="D123" s="91"/>
+      <c r="E123" s="91"/>
+      <c r="F123" s="91"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I122" s="76" t="s">
+      <c r="I123" s="76" t="s">
         <v>461</v>
       </c>
-      <c r="J122" s="78" t="s">
+      <c r="J123" s="78" t="s">
         <v>418</v>
       </c>
-      <c r="K122" s="77" t="s">
+      <c r="K123" s="77" t="s">
         <v>432</v>
       </c>
-      <c r="L122" s="9"/>
-    </row>
-    <row r="123" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A123" s="82"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="156" t="s">
+      <c r="L123" s="9"/>
+    </row>
+    <row r="124" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A124" s="164"/>
+      <c r="B124" s="162"/>
+      <c r="C124" s="90" t="s">
         <v>400</v>
       </c>
-      <c r="D123" s="157"/>
-      <c r="E123" s="157"/>
-      <c r="F123" s="157"/>
-      <c r="G123" s="158"/>
-      <c r="H123" s="159" t="s">
+      <c r="D124" s="91"/>
+      <c r="E124" s="91"/>
+      <c r="F124" s="91"/>
+      <c r="G124" s="92"/>
+      <c r="H124" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I123" s="76" t="s">
+      <c r="I124" s="76" t="s">
         <v>462</v>
       </c>
-      <c r="J123" s="78" t="s">
+      <c r="J124" s="78" t="s">
         <v>419</v>
       </c>
-      <c r="K123" s="77" t="s">
+      <c r="K124" s="77" t="s">
         <v>433</v>
       </c>
-      <c r="L123" s="9"/>
-    </row>
-    <row r="124" spans="1:12" ht="14" x14ac:dyDescent="0.25">
-      <c r="A124" s="82"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="156" t="s">
+      <c r="L124" s="9"/>
+    </row>
+    <row r="125" spans="1:12" ht="14" x14ac:dyDescent="0.25">
+      <c r="A125" s="165"/>
+      <c r="B125" s="162"/>
+      <c r="C125" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="D124" s="157"/>
-      <c r="E124" s="157"/>
-      <c r="F124" s="157"/>
-      <c r="G124" s="158"/>
-      <c r="H124" s="159" t="s">
+      <c r="D125" s="91"/>
+      <c r="E125" s="91"/>
+      <c r="F125" s="91"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="I124" s="76" t="s">
+      <c r="I125" s="76" t="s">
         <v>463</v>
       </c>
-      <c r="J124" s="78" t="s">
+      <c r="J125" s="78" t="s">
         <v>420</v>
       </c>
-      <c r="K124" s="77" t="s">
+      <c r="K125" s="77" t="s">
         <v>434</v>
       </c>
-      <c r="L124" s="9"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C126" s="10" t="s">
+      <c r="L125" s="9"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C127" s="10" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C129" s="81" t="s">
         <v>437</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D129" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E128" s="114" t="s">
+      <c r="E129" s="139" t="s">
         <v>407</v>
       </c>
-      <c r="F128" s="114"/>
-      <c r="G128" s="12" t="s">
+      <c r="F129" s="139"/>
+      <c r="G129" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H128" s="115" t="s">
+      <c r="H129" s="140" t="s">
         <v>406</v>
       </c>
-      <c r="I128" s="115"/>
-      <c r="J128" s="8" t="s">
+      <c r="I129" s="140"/>
+      <c r="J129" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="K128" s="33" t="s">
+      <c r="K129" s="33" t="s">
         <v>405</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="237">
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+  <mergeCells count="238">
+    <mergeCell ref="A111:A125"/>
+    <mergeCell ref="C111:I111"/>
+    <mergeCell ref="B112:B125"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="A101:A110"/>
+    <mergeCell ref="A58:A100"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B18:B26"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="A18:A57"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J5:K6"/>
+    <mergeCell ref="D106:I106"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H5:I6"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="H129:I129"/>
+    <mergeCell ref="D83:I83"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D81:I81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D109:I109"/>
+    <mergeCell ref="D103:I103"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="D87:G87"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="L13:L17"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D59:I59"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D56:I56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="K60:K67"/>
+    <mergeCell ref="K76:K83"/>
+    <mergeCell ref="D102:I102"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:I67"/>
+    <mergeCell ref="D92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="B27:B35"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="B58:B70"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D69:I69"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D61:I61"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D65:I65"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="B71:B88"/>
+    <mergeCell ref="D105:I105"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:I72"/>
+    <mergeCell ref="D73:I73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:I74"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="D90:F90"/>
+    <mergeCell ref="D91:F91"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="B89:B100"/>
+    <mergeCell ref="C76:C83"/>
+    <mergeCell ref="D104:I104"/>
     <mergeCell ref="J34:J35"/>
     <mergeCell ref="J49:J50"/>
     <mergeCell ref="D49:E49"/>
@@ -6331,225 +6574,30 @@
     <mergeCell ref="J87:J88"/>
     <mergeCell ref="K87:K88"/>
     <mergeCell ref="K56:K57"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="B71:B88"/>
-    <mergeCell ref="D105:I105"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:I72"/>
-    <mergeCell ref="D73:I73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="D90:F90"/>
-    <mergeCell ref="D91:F91"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="B89:B100"/>
-    <mergeCell ref="C76:C83"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="B58:B70"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D69:I69"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D61:I61"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D65:I65"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="C27:C33"/>
-    <mergeCell ref="B27:B35"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="K60:K67"/>
-    <mergeCell ref="K76:K83"/>
-    <mergeCell ref="D102:I102"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:I67"/>
-    <mergeCell ref="D92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="L13:L17"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D59:I59"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D56:I56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="H128:I128"/>
-    <mergeCell ref="D83:I83"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D79:I79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D81:I81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D109:I109"/>
-    <mergeCell ref="D103:I103"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="J5:K6"/>
-    <mergeCell ref="D106:I106"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H5:I6"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A101:A110"/>
-    <mergeCell ref="A58:A100"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B18:B26"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="A18:A57"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:H100"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B111:B124"/>
-    <mergeCell ref="A111:A124"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D89:G89"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
     <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J58 J53:J56 J13:J25 J74 J27:J35 J40:J50 J76:J110 J60:J68 J70:J72">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+  <conditionalFormatting sqref="J58 J53:J56 J13:J25 J74 J27:J35 J40:J50 J76:J111 J60:J68 J70:J72">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="equal">
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6569,7 +6617,7 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J111:J124">
+  <conditionalFormatting sqref="J112:J125">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
@@ -6577,7 +6625,7 @@
       <formula>"合格"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I111:I124">
+  <conditionalFormatting sqref="I112:I125">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"不合格"</formula>
     </cfRule>
